--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9ADAA-D516-430D-9B23-FECFA54B0141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD98AF4-78AC-4ED1-B127-84AEFC08A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1582,243 +1582,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1849,17 +1612,254 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2627,13 +2627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="103"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2930,10 +2930,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2945,10 +2945,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2970,13 +2970,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="103"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -3004,10 +3004,10 @@
       <c r="B18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="73" t="s">
         <v>4</v>
       </c>
@@ -3019,10 +3019,10 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
@@ -3034,10 +3034,10 @@
       <c r="B20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="112"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="67">
         <v>1035</v>
       </c>
@@ -3062,13 +3062,13 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="103"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -3096,10 +3096,10 @@
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="17" t="s">
         <v>4</v>
       </c>
@@ -3111,10 +3111,10 @@
       <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="27">
         <v>2405</v>
       </c>
@@ -3126,10 +3126,10 @@
       <c r="B26" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="149"/>
       <c r="E26" s="67">
         <v>50</v>
       </c>
@@ -3165,11 +3165,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="94"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3184,11 +3184,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3230,16 +3230,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="94"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="147"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3288,11 +3288,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="94"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3327,11 +3327,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="137"/>
-      <c r="C49" s="138"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3373,11 +3373,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="137"/>
-      <c r="C54" s="138"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3401,11 +3401,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="132" t="s">
+      <c r="A57" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="133"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="138"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3429,11 +3429,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="142" t="s">
+      <c r="A60" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3477,11 +3477,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="134"/>
-      <c r="C65" s="117"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="120"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -3537,11 +3537,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="115" t="s">
+      <c r="A71" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="116"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -3571,7 +3571,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="160" t="s">
+      <c r="A75" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="55"/>
@@ -3609,126 +3609,126 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="120" t="s">
+      <c r="A80" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="125"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="128"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="122" t="s">
+      <c r="A81" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="123"/>
-      <c r="C81" s="122" t="s">
+      <c r="B81" s="106"/>
+      <c r="C81" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="123"/>
+      <c r="D81" s="106"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="141"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="44">
         <f>C77</f>
         <v>1503</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="135" t="s">
+      <c r="C83" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="136"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="94"/>
+      <c r="C86" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="119"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="118"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="122"/>
       <c r="E87" s="37">
         <f>E83</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="128" t="s">
+      <c r="A88" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="81" t="s">
+      <c r="B88" s="108"/>
+      <c r="C88" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="121"/>
+      <c r="D88" s="126"/>
       <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="130"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="81" t="s">
+      <c r="A89" s="111"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="82"/>
+      <c r="D89" s="92"/>
       <c r="E89" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="113" t="s">
+      <c r="A90" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="102"/>
-      <c r="C90" s="85" t="s">
+      <c r="B90" s="115"/>
+      <c r="C90" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="86"/>
+      <c r="D90" s="125"/>
       <c r="E90" s="66">
         <f>C77</f>
         <v>1503</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="84"/>
+      <c r="D91" s="94"/>
       <c r="E91" s="37">
         <f>SUM(C3:C7)</f>
         <v>51.17</v>
@@ -3749,102 +3749,102 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="104"/>
-      <c r="E94" s="105"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
+      <c r="E94" s="103"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="120" t="s">
+      <c r="A95" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="84"/>
-      <c r="C95" s="120" t="s">
+      <c r="B95" s="94"/>
+      <c r="C95" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="84"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="102"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="84"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="94"/>
       <c r="E96" s="37">
         <f>E91</f>
         <v>51.17</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="128" t="s">
+      <c r="A97" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="129"/>
-      <c r="C97" s="81" t="s">
+      <c r="B97" s="108"/>
+      <c r="C97" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="121"/>
+      <c r="D97" s="126"/>
       <c r="E97" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="143"/>
-      <c r="B98" s="144"/>
-      <c r="C98" s="81" t="s">
+      <c r="A98" s="109"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="139"/>
+      <c r="D98" s="95"/>
       <c r="E98" s="52">
         <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="143"/>
-      <c r="B99" s="144"/>
-      <c r="C99" s="81" t="s">
+      <c r="A99" s="109"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="D99" s="139"/>
+      <c r="D99" s="95"/>
       <c r="E99" s="52">
         <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="130"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="81" t="s">
+      <c r="A100" s="111"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="82"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="52">
         <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="119"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="125"/>
       <c r="E101" s="52">
         <f>C77</f>
         <v>1503</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C102" s="87" t="s">
+      <c r="C102" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="84"/>
+      <c r="D102" s="94"/>
       <c r="E102" s="52">
         <f>(E27+E96)-SUM(E97:E101)</f>
         <v>437.19999999999982</v>
@@ -7504,16 +7504,26 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A97:B100"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A94:E94"/>
@@ -7530,32 +7540,22 @@
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A88:B89"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A97:B100"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7630,13 +7630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7839,13 +7839,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="103"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7873,10 +7873,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="73" t="s">
         <v>4</v>
       </c>
@@ -7885,26 +7885,26 @@
       <c r="A12" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="34">
         <v>2405</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="161"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="34">
         <v>30000</v>
       </c>
@@ -7916,10 +7916,10 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="34">
         <v>33250</v>
       </c>
@@ -7941,13 +7941,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="103"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -7975,10 +7975,10 @@
       <c r="B18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="17" t="s">
         <v>4</v>
       </c>
@@ -7987,14 +7987,14 @@
       <c r="A19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="164">
+      <c r="D19" s="159"/>
+      <c r="E19" s="85">
         <v>2405</v>
       </c>
     </row>
@@ -8002,14 +8002,14 @@
       <c r="A20" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="165">
+      <c r="D20" s="159"/>
+      <c r="E20" s="86">
         <v>33250</v>
       </c>
     </row>
@@ -8033,13 +8033,13 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="103"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -8067,10 +8067,10 @@
       <c r="B24" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="108"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="73" t="s">
         <v>4</v>
       </c>
@@ -8082,10 +8082,10 @@
       <c r="B25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="110"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="67">
         <v>33250</v>
       </c>
@@ -8095,8 +8095,8 @@
       <c r="B26" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="67">
         <v>204</v>
       </c>
@@ -8139,11 +8139,11 @@
       <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="150" t="s">
+      <c r="A32" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="94"/>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -8158,11 +8158,11 @@
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="25" t="s">
@@ -8204,16 +8204,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="94"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="147"/>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -8271,11 +8271,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="94"/>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -8310,11 +8310,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="137"/>
-      <c r="C51" s="138"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="98"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -8356,11 +8356,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="137"/>
-      <c r="C56" s="138"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
@@ -8384,11 +8384,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="132" t="s">
+      <c r="A59" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="108"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="138"/>
     </row>
     <row r="60" spans="1:3" ht="33" customHeight="1">
       <c r="A60" s="32" t="s">
@@ -8412,11 +8412,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="105"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="103"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="26" t="s">
@@ -8460,11 +8460,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="134"/>
-      <c r="C67" s="117"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="120"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
       <c r="A68" s="58" t="s">
@@ -8492,7 +8492,7 @@
       <c r="A70" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="166" t="s">
+      <c r="B70" s="87" t="s">
         <v>179</v>
       </c>
       <c r="C70" s="61">
@@ -8531,11 +8531,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="116"/>
-      <c r="C74" s="117"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="120"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="42" t="s">
@@ -8566,7 +8566,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="30">
-      <c r="A78" s="160" t="s">
+      <c r="A78" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B78" s="55"/>
@@ -8604,68 +8604,68 @@
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="94"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="122" t="s">
+      <c r="A84" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="108"/>
-      <c r="C84" s="122" t="s">
+      <c r="B84" s="138"/>
+      <c r="C84" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="108"/>
+      <c r="D84" s="138"/>
       <c r="E84" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="158" t="s">
+      <c r="B85" s="88"/>
+      <c r="C85" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="159"/>
+      <c r="D85" s="168"/>
       <c r="E85" s="74">
         <v>9939</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="168"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="148" t="s">
+      <c r="A86" s="89"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="D86" s="149"/>
+      <c r="D86" s="157"/>
       <c r="E86" s="52">
         <v>3500</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="126" t="s">
+      <c r="A87" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="127"/>
-      <c r="C87" s="140"/>
-      <c r="D87" s="141"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="100"/>
       <c r="E87" s="44">
         <f>C80</f>
         <v>6299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="135" t="s">
+      <c r="C88" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="96"/>
+      <c r="D88" s="104"/>
       <c r="E88" s="37">
         <f>(C6+E15)-SUM(E85:E87)</f>
         <v>46380.399999999994</v>
@@ -8673,80 +8673,80 @@
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="120" t="s">
+      <c r="A90" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="84"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="94"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="120" t="s">
+      <c r="A91" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="120" t="s">
+      <c r="B91" s="94"/>
+      <c r="C91" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="84"/>
+      <c r="D91" s="94"/>
       <c r="E91" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="113" t="s">
+      <c r="A92" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="102"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="162"/>
       <c r="E92" s="37">
         <f>E88</f>
         <v>46380.399999999994</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="119"/>
-      <c r="C93" s="170" t="s">
+      <c r="B93" s="123"/>
+      <c r="C93" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="171"/>
+      <c r="D93" s="161"/>
       <c r="E93" s="74">
         <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
       <c r="A94" s="80"/>
-      <c r="B94" s="169"/>
-      <c r="C94" s="148" t="s">
+      <c r="B94" s="90"/>
+      <c r="C94" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="D94" s="173"/>
+      <c r="D94" s="156"/>
       <c r="E94" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="172"/>
-      <c r="D95" s="105"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="166"/>
+      <c r="D95" s="103"/>
       <c r="E95" s="66">
         <f>C80</f>
         <v>6299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="94"/>
       <c r="E96" s="37">
         <f>(E21+E92)-SUM(E93:E95)</f>
         <v>45549.399999999994</v>
@@ -8767,80 +8767,80 @@
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="114" t="s">
+      <c r="A99" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="105"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="103"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="120" t="s">
+      <c r="A100" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="84"/>
-      <c r="C100" s="120" t="s">
+      <c r="B100" s="94"/>
+      <c r="C100" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="84"/>
+      <c r="D100" s="94"/>
       <c r="E100" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="102"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="84"/>
+      <c r="B101" s="115"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="94"/>
       <c r="E101" s="37">
         <f>E96</f>
         <v>45549.399999999994</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="119"/>
-      <c r="C102" s="145" t="s">
+      <c r="B102" s="123"/>
+      <c r="C102" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="D102" s="146"/>
+      <c r="D102" s="165"/>
       <c r="E102" s="74">
         <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="80"/>
-      <c r="B103" s="169"/>
-      <c r="C103" s="148" t="s">
+      <c r="B103" s="90"/>
+      <c r="C103" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="D103" s="149"/>
+      <c r="D103" s="157"/>
       <c r="E103" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="102"/>
-      <c r="C104" s="172"/>
-      <c r="D104" s="105"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="166"/>
+      <c r="D104" s="103"/>
       <c r="E104" s="66">
         <f>C80</f>
         <v>6299</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C105" s="87" t="s">
+      <c r="C105" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="84"/>
+      <c r="D105" s="94"/>
       <c r="E105" s="52">
         <f>(E27+E101)-SUM(E102:E104)</f>
         <v>42616.399999999994</v>
@@ -12500,6 +12500,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C87:D87"/>
@@ -12515,45 +12553,7 @@
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12614,8 +12614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12632,13 +12632,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12841,13 +12841,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="103"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12875,10 +12875,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -12890,10 +12890,10 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="18">
         <v>33250</v>
       </c>
@@ -12915,13 +12915,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="103"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12949,10 +12949,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -12964,10 +12964,10 @@
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="19">
         <v>33250</v>
       </c>
@@ -12992,13 +12992,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="103"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13026,10 +13026,10 @@
       <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
@@ -13041,10 +13041,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="110"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="67">
         <v>33250</v>
       </c>
@@ -13087,11 +13087,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -13106,11 +13106,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -13152,16 +13152,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13219,11 +13219,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="94"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -13258,11 +13258,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -13272,7 +13272,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
@@ -13290,7 +13290,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="31">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
@@ -13300,15 +13300,15 @@
       </c>
       <c r="C51" s="31">
         <f>SUM(C48:C50)</f>
-        <v>0</v>
+        <v>141.69999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -13332,11 +13332,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="108"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -13360,11 +13360,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -13408,11 +13408,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="120"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -13440,7 +13440,7 @@
       <c r="A66" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="87" t="s">
         <v>179</v>
       </c>
       <c r="C66" s="61">
@@ -13475,15 +13475,15 @@
       </c>
       <c r="C69" s="39">
         <f>C34+C42+C46+C51+C54+C57+C62+C68</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -13513,7 +13513,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="55"/>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="C76" s="41">
         <f>C69</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
       <c r="H76" s="36"/>
     </row>
@@ -13551,130 +13551,130 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="84"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="94"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="122" t="s">
+      <c r="B80" s="138"/>
+      <c r="C80" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="108"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="147" t="s">
+      <c r="A81" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="145" t="s">
+      <c r="B81" s="108"/>
+      <c r="C81" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="146"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="74">
         <v>30000</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="141"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="44">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="135" t="s">
+      <c r="C83" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="96"/>
+      <c r="D83" s="104"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E81:E82)</f>
-        <v>39709.599999999991</v>
+        <v>39567.899999999994</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="94"/>
+      <c r="C86" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="154"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>39709.599999999991</v>
+        <v>39567.899999999994</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="119"/>
-      <c r="C88" s="81" t="s">
+      <c r="B88" s="123"/>
+      <c r="C88" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="153"/>
+      <c r="D88" s="169"/>
       <c r="E88" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="102"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="94"/>
       <c r="E89" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="94"/>
       <c r="E90" s="37">
         <f>(E18+E87)-SUM(E88:E89)</f>
-        <v>36776.599999999991</v>
+        <v>36493.199999999997</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -13692,72 +13692,72 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="103"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="120" t="s">
+      <c r="B94" s="94"/>
+      <c r="C94" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="37">
         <f>E90</f>
-        <v>36776.599999999991</v>
+        <v>36493.199999999997</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="81" t="s">
+      <c r="B96" s="123"/>
+      <c r="C96" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="121"/>
+      <c r="D96" s="126"/>
       <c r="E96" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="94"/>
       <c r="E97" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="84"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="52">
         <f>(E23+E95)-SUM(E96:E97)</f>
-        <v>33843.599999999991</v>
+        <v>33418.5</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
@@ -17414,38 +17414,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
@@ -17462,6 +17430,38 @@
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17521,8 +17521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17539,13 +17539,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E98</f>
-        <v>33843.599999999991</v>
+        <v>33418.5</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>33869.799999999988</v>
+        <v>33444.699999999997</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17748,13 +17748,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="103"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17782,10 +17782,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -17797,10 +17797,10 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="18">
         <v>33250</v>
       </c>
@@ -17822,13 +17822,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="103"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17856,10 +17856,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -17871,10 +17871,10 @@
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="19">
         <v>33250</v>
       </c>
@@ -17899,13 +17899,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="103"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17933,10 +17933,10 @@
       <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
@@ -17948,10 +17948,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="110"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="67">
         <v>33250</v>
       </c>
@@ -17994,11 +17994,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -18013,11 +18013,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -18059,16 +18059,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -18126,11 +18126,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="94"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -18165,11 +18165,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -18179,7 +18179,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
@@ -18197,7 +18197,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="31">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
@@ -18207,15 +18207,15 @@
       </c>
       <c r="C51" s="31">
         <f>SUM(C48:C50)</f>
-        <v>0</v>
+        <v>141.69999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -18239,11 +18239,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="108"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -18267,11 +18267,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -18315,11 +18315,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="120"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -18347,7 +18347,7 @@
       <c r="A66" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="87" t="s">
         <v>179</v>
       </c>
       <c r="C66" s="61">
@@ -18382,15 +18382,15 @@
       </c>
       <c r="C69" s="39">
         <f>C34+C42+C46+C51+C54+C57+C62+C68</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -18421,7 +18421,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="55"/>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="C76" s="41">
         <f>C69</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
       <c r="H76" s="36"/>
     </row>
@@ -18459,130 +18459,130 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="84"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="94"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="122" t="s">
+      <c r="B80" s="138"/>
+      <c r="C80" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="108"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="147" t="s">
+      <c r="A81" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="145" t="s">
+      <c r="B81" s="108"/>
+      <c r="C81" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="146"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="74">
         <v>30000</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="141"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="44">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="135" t="s">
+      <c r="C83" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="96"/>
+      <c r="D83" s="104"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E81:E82)</f>
-        <v>30936.799999999988</v>
+        <v>30370</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="94"/>
+      <c r="C86" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="154"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>30936.799999999988</v>
+        <v>30370</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="119"/>
-      <c r="C88" s="81" t="s">
+      <c r="B88" s="123"/>
+      <c r="C88" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="153"/>
+      <c r="D88" s="169"/>
       <c r="E88" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="102"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="94"/>
       <c r="E89" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="94"/>
       <c r="E90" s="37">
         <f>(E18+E87)-SUM(E88:E89)</f>
-        <v>28003.799999999988</v>
+        <v>27295.300000000003</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -18600,72 +18600,72 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="103"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="120" t="s">
+      <c r="B94" s="94"/>
+      <c r="C94" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="37">
         <f>E90</f>
-        <v>28003.799999999988</v>
+        <v>27295.300000000003</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="81" t="s">
+      <c r="B96" s="123"/>
+      <c r="C96" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="121"/>
+      <c r="D96" s="126"/>
       <c r="E96" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="94"/>
       <c r="E97" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="84"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="52">
         <f>(E23+E95)-SUM(E96:E97)</f>
-        <v>25070.799999999988</v>
+        <v>24220.600000000006</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
@@ -22322,29 +22322,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="A35:C36"/>
@@ -22358,18 +22347,29 @@
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22429,8 +22429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22447,13 +22447,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E98</f>
-        <v>25070.799999999988</v>
+        <v>24220.600000000006</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>25096.999999999989</v>
+        <v>24246.800000000007</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22656,13 +22656,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="103"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22690,10 +22690,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -22705,10 +22705,10 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="18">
         <v>33250</v>
       </c>
@@ -22730,13 +22730,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="103"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22764,10 +22764,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -22779,10 +22779,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="19">
         <v>33250</v>
       </c>
@@ -22807,13 +22807,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="103"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22841,10 +22841,10 @@
       <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
@@ -22856,10 +22856,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="110"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="67">
         <v>33250</v>
       </c>
@@ -22902,11 +22902,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22921,11 +22921,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -22967,16 +22967,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -23034,11 +23034,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="94"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -23073,11 +23073,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -23087,7 +23087,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
@@ -23105,7 +23105,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="31">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
@@ -23115,15 +23115,15 @@
       </c>
       <c r="C51" s="31">
         <f>SUM(C48:C50)</f>
-        <v>0</v>
+        <v>141.69999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -23147,11 +23147,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="108"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -23175,11 +23175,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -23223,11 +23223,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="120"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -23255,7 +23255,7 @@
       <c r="A66" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="87" t="s">
         <v>179</v>
       </c>
       <c r="C66" s="61">
@@ -23290,15 +23290,15 @@
       </c>
       <c r="C69" s="39">
         <f>C34+C42+C46+C51+C54+C57+C62+C68</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -23329,7 +23329,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="55"/>
@@ -23354,7 +23354,7 @@
       </c>
       <c r="C76" s="41">
         <f>C69</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
       <c r="H76" s="36"/>
     </row>
@@ -23367,130 +23367,130 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="84"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="94"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="122" t="s">
+      <c r="B80" s="138"/>
+      <c r="C80" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="108"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="147" t="s">
+      <c r="A81" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="145" t="s">
+      <c r="B81" s="108"/>
+      <c r="C81" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="146"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="74">
         <v>30000</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="141"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="44">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="135" t="s">
+      <c r="C83" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="96"/>
+      <c r="D83" s="104"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E81:E82)</f>
-        <v>22163.999999999985</v>
+        <v>21172.100000000006</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="94"/>
+      <c r="C86" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="154"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>22163.999999999985</v>
+        <v>21172.100000000006</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="119"/>
-      <c r="C88" s="81" t="s">
+      <c r="B88" s="123"/>
+      <c r="C88" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="153"/>
+      <c r="D88" s="169"/>
       <c r="E88" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="102"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="94"/>
       <c r="E89" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="94"/>
       <c r="E90" s="37">
         <f>(E18+E87)-SUM(E88:E89)</f>
-        <v>19230.999999999985</v>
+        <v>18097.400000000009</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -23508,72 +23508,72 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="103"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="120" t="s">
+      <c r="B94" s="94"/>
+      <c r="C94" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="37">
         <f>E90</f>
-        <v>19230.999999999985</v>
+        <v>18097.400000000009</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="81" t="s">
+      <c r="B96" s="123"/>
+      <c r="C96" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="121"/>
+      <c r="D96" s="126"/>
       <c r="E96" s="52">
         <v>30000</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="94"/>
       <c r="E97" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="84"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="52">
         <f>(E23+E95)-SUM(E96:E97)</f>
-        <v>16297.999999999985</v>
+        <v>15022.700000000012</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
@@ -27230,29 +27230,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="A35:C36"/>
@@ -27266,18 +27255,29 @@
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27337,8 +27337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27355,13 +27355,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27383,7 +27383,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E98</f>
-        <v>16297.999999999985</v>
+        <v>15022.700000000012</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27478,7 +27478,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>16324.199999999986</v>
+        <v>15048.900000000012</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27564,13 +27564,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="103"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27598,10 +27598,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -27613,10 +27613,10 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="18">
         <v>33250</v>
       </c>
@@ -27638,13 +27638,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="103"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27672,10 +27672,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -27687,10 +27687,10 @@
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="19">
         <v>33250</v>
       </c>
@@ -27715,13 +27715,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="103"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27749,10 +27749,10 @@
       <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
@@ -27764,10 +27764,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="110"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="67">
         <v>33250</v>
       </c>
@@ -27810,11 +27810,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27829,11 +27829,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -27875,16 +27875,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27942,11 +27942,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="94"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -27981,11 +27981,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -27995,7 +27995,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
@@ -28013,7 +28013,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="31">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
@@ -28023,15 +28023,15 @@
       </c>
       <c r="C51" s="31">
         <f>SUM(C48:C50)</f>
-        <v>0</v>
+        <v>141.69999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -28055,11 +28055,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="108"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -28083,11 +28083,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -28131,11 +28131,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="120"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -28163,7 +28163,7 @@
       <c r="A66" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="87" t="s">
         <v>179</v>
       </c>
       <c r="C66" s="61">
@@ -28198,15 +28198,15 @@
       </c>
       <c r="C69" s="39">
         <f>C34+C42+C46+C51+C54+C57+C62+C68</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -28236,7 +28236,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="81" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="55"/>
@@ -28261,7 +28261,7 @@
       </c>
       <c r="C76" s="41">
         <f>C69</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
       <c r="H76" s="36"/>
     </row>
@@ -28274,130 +28274,130 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="84"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="94"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="122" t="s">
+      <c r="B80" s="138"/>
+      <c r="C80" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="108"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="155" t="s">
+      <c r="A81" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="155"/>
-      <c r="C81" s="158" t="s">
+      <c r="B81" s="171"/>
+      <c r="C81" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="159"/>
+      <c r="D81" s="168"/>
       <c r="E81" s="52">
         <v>9588.51</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="155"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="77">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
-      <c r="C83" s="157" t="s">
+      <c r="C83" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="93"/>
+      <c r="D83" s="102"/>
       <c r="E83" s="76">
         <f>(C6+E13)-SUM(E81:E82)</f>
-        <v>33802.689999999981</v>
+        <v>32385.69000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="94"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="120" t="s">
+      <c r="B86" s="94"/>
+      <c r="C86" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="154"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>33802.689999999981</v>
+        <v>32385.69000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="119"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="153"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="169"/>
       <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="102"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="94"/>
       <c r="E89" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="94"/>
       <c r="E90" s="37">
         <f>(E18+E87)-SUM(E88:E89)</f>
-        <v>60869.689999999973</v>
+        <v>59310.990000000005</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -28415,70 +28415,70 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="103"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="120" t="s">
+      <c r="B94" s="94"/>
+      <c r="C94" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="94"/>
       <c r="E95" s="37">
         <f>E90</f>
-        <v>60869.689999999973</v>
+        <v>59310.990000000005</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="121"/>
+      <c r="B96" s="123"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="126"/>
       <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="94"/>
       <c r="E97" s="66">
         <f>C76</f>
-        <v>6183</v>
+        <v>6324.7</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="84"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="52">
         <f>(E23+E95)-SUM(E96:E97)</f>
-        <v>87936.689999999973</v>
+        <v>86236.290000000008</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
@@ -32135,18 +32135,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="A35:C36"/>
@@ -32160,29 +32171,18 @@
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37F062-2787-476E-9CA9-57DEF15C72D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE58D7-0FDA-4A96-ACDE-F1E1777236BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="191">
   <si>
     <t>Assets</t>
   </si>
@@ -624,9 +624,6 @@
     <t>1. Payback $25000 to Government</t>
   </si>
   <si>
-    <t>3. Payback $4000 to Ng Wing Lam</t>
-  </si>
-  <si>
     <t>Paypal</t>
   </si>
   <si>
@@ -673,6 +670,9 @@
   </si>
   <si>
     <t>1. Payback $1149.51 to Government</t>
+  </si>
+  <si>
+    <t>1. Payback $4000 to Ng Wing Lam</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1595,79 +1595,115 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1676,11 +1712,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,116 +1793,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1814,20 +1832,26 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1840,36 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1022"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2637,13 +2631,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2785,7 +2779,7 @@
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5">
         <v>68</v>
@@ -2816,7 +2810,7 @@
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5">
         <v>82</v>
@@ -2968,13 +2962,13 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="96"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -3002,10 +2996,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -3017,10 +3011,10 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="104"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="18">
         <v>2405</v>
       </c>
@@ -3042,13 +3036,13 @@
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="96"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -3076,10 +3070,10 @@
       <c r="B20" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="90"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="72" t="s">
         <v>4</v>
       </c>
@@ -3091,10 +3085,10 @@
       <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="131"/>
+      <c r="D21" s="137"/>
       <c r="E21" s="66">
         <v>2405</v>
       </c>
@@ -3106,10 +3100,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="133"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="66">
         <v>1035</v>
       </c>
@@ -3134,13 +3128,13 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="96"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -3168,10 +3162,10 @@
       <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="72" t="s">
         <v>4</v>
       </c>
@@ -3183,56 +3177,56 @@
       <c r="B27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="169" t="s">
+      <c r="C27" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="170">
+      <c r="D27" s="107"/>
+      <c r="E27" s="87">
         <v>2405</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.15" customHeight="1">
       <c r="A28" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="C28" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="133"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="66">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="171" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="176" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="173">
+      <c r="D29" s="101"/>
+      <c r="E29" s="89">
         <v>7700</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173">
+      <c r="D30" s="117"/>
+      <c r="E30" s="89">
         <v>50</v>
       </c>
     </row>
@@ -3267,11 +3261,11 @@
       <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="20" t="s">
@@ -3286,11 +3280,11 @@
       <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="87"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="25" t="s">
@@ -3332,16 +3326,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="140"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="142"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -3390,11 +3384,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="87"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3429,11 +3423,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="136"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -3475,11 +3469,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="134" t="s">
+      <c r="A58" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="135"/>
-      <c r="C58" s="136"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
@@ -3503,11 +3497,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="135"/>
     </row>
     <row r="62" spans="1:3" ht="33" customHeight="1">
       <c r="A62" s="32" t="s">
@@ -3531,11 +3525,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="132"/>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
       <c r="A65" s="26" t="s">
@@ -3579,11 +3573,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="93"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="143"/>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="57" t="s">
@@ -3600,7 +3594,7 @@
       <c r="A71" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="168" t="s">
+      <c r="B71" s="86" t="s">
         <v>150</v>
       </c>
       <c r="C71" s="60">
@@ -3611,8 +3605,8 @@
       <c r="A72" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="168" t="s">
-        <v>189</v>
+      <c r="B72" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C72" s="60">
         <v>0</v>
@@ -3650,11 +3644,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="107"/>
-      <c r="C76" s="93"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="42" t="s">
@@ -3722,126 +3716,126 @@
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="115"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="116"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="149"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="99" t="s">
+      <c r="A86" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="100"/>
-      <c r="C86" s="99" t="s">
+      <c r="B86" s="147"/>
+      <c r="C86" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="100"/>
+      <c r="D86" s="147"/>
       <c r="E86" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="146"/>
+      <c r="B87" s="151"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="121"/>
       <c r="E87" s="44">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C88" s="101" t="s">
+      <c r="C88" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="102"/>
+      <c r="D88" s="156"/>
       <c r="E88" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="90" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A90" s="97" t="s">
+      <c r="A90" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="98"/>
-      <c r="E90" s="87"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="116"/>
     </row>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="97" t="s">
+      <c r="B91" s="116"/>
+      <c r="C91" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="87"/>
+      <c r="D91" s="116"/>
       <c r="E91" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="103" t="s">
+      <c r="A92" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="110"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="109"/>
+      <c r="B92" s="145"/>
+      <c r="C92" s="122"/>
+      <c r="D92" s="144"/>
       <c r="E92" s="37">
         <f>E88</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="119" t="s">
+      <c r="A93" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="120"/>
-      <c r="C93" s="113" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="114"/>
+      <c r="D93" s="105"/>
       <c r="E93" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="121"/>
-      <c r="B94" s="122"/>
-      <c r="C94" s="113" t="s">
+      <c r="A94" s="96"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="144"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="111" t="s">
+      <c r="B95" s="129"/>
+      <c r="C95" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="112"/>
+      <c r="D95" s="124"/>
       <c r="E95" s="65">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="37">
         <f>SUM(C3:C9)</f>
         <v>871.27</v>
@@ -3862,127 +3856,127 @@
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="105" t="s">
+      <c r="A99" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="96"/>
+      <c r="B99" s="131"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="132"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="87"/>
-      <c r="C100" s="97" t="s">
+      <c r="B100" s="116"/>
+      <c r="C100" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="87"/>
+      <c r="D100" s="116"/>
       <c r="E100" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="103" t="s">
+      <c r="A101" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="87"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="116"/>
       <c r="E101" s="37">
         <f>E96</f>
         <v>871.27</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="119" t="s">
+      <c r="A102" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="120"/>
-      <c r="C102" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="114"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="105"/>
       <c r="E102" s="52">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="174"/>
-      <c r="B103" s="175"/>
-      <c r="C103" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" s="137"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="91"/>
       <c r="E103" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="174"/>
-      <c r="B104" s="175"/>
-      <c r="C104" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="137"/>
+      <c r="A104" s="94"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="91"/>
       <c r="E104" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="174"/>
-      <c r="B105" s="175"/>
-      <c r="C105" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="137"/>
+      <c r="A105" s="94"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="91"/>
       <c r="E105" s="52">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="174"/>
-      <c r="B106" s="175"/>
-      <c r="C106" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" s="137"/>
+      <c r="A106" s="94"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="91"/>
       <c r="E106" s="52">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="121"/>
-      <c r="B107" s="122"/>
-      <c r="C107" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="D107" s="137"/>
+      <c r="A107" s="96"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" s="91"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="103" t="s">
+      <c r="A108" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B108" s="110"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="112"/>
+      <c r="B108" s="145"/>
+      <c r="C108" s="123"/>
+      <c r="D108" s="124"/>
       <c r="E108" s="52">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="87"/>
+      <c r="D109" s="116"/>
       <c r="E109" s="52">
         <f>(E31+E101)-SUM(E102:E108)</f>
-        <v>8806.27</v>
+        <v>4806.2700000000004</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
@@ -7639,39 +7633,13 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A102:B107"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A42:C43"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A99:E99"/>
@@ -7688,13 +7656,39 @@
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A102:B107"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C9:C11">
@@ -7749,10 +7743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7769,13 +7763,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7793,11 +7787,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E109</f>
-        <v>8806.27</v>
+        <v>4806.2700000000004</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7829,7 +7823,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>8806.27</v>
+        <v>4806.2700000000004</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7859,9 +7853,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56">
-        <f>('April 2024 - June 2024'!C11)+SUM(E82,E83,E91,E100)</f>
-        <v>-276149.51</v>
+      <c r="C5" s="56" t="e">
+        <f>('April 2024 - June 2024'!C11)+SUM(E82,#REF!,E90,E99)</f>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7915,13 +7909,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -7949,10 +7943,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="90"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -7964,10 +7958,10 @@
       <c r="B10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -7979,10 +7973,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="151"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8004,13 +7998,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="96"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8038,10 +8032,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8053,10 +8047,10 @@
       <c r="B16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="83">
         <v>2405</v>
       </c>
@@ -8068,10 +8062,10 @@
       <c r="B17" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="84">
         <v>31350</v>
       </c>
@@ -8096,13 +8090,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="96"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8130,10 +8124,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8145,10 +8139,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="131"/>
+      <c r="D22" s="137"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8158,8 +8152,8 @@
       <c r="B23" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="66">
         <v>204</v>
       </c>
@@ -8202,11 +8196,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -8221,11 +8215,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -8267,16 +8261,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="141"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="142"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -8334,11 +8328,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="87"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -8373,11 +8367,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="134" t="s">
+      <c r="A48" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="135"/>
-      <c r="C48" s="136"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -8419,11 +8413,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="136"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -8447,11 +8441,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="135"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -8475,11 +8469,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="132"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -8523,11 +8517,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="143"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -8555,8 +8549,8 @@
       <c r="A67" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="168" t="s">
-        <v>189</v>
+      <c r="B67" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C67" s="60">
         <v>420</v>
@@ -8594,11 +8588,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="91" t="s">
+      <c r="A71" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="93"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="143"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -8616,7 +8610,7 @@
       </c>
       <c r="B73" s="38"/>
       <c r="C73" s="49">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
@@ -8644,7 +8638,7 @@
       </c>
       <c r="C76" s="49">
         <f>SUM(C72:C75)</f>
-        <v>344088.51</v>
+        <v>339088.51</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
@@ -8667,247 +8661,240 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="97" t="s">
+      <c r="A80" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="98"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="87"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="116"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="99" t="s">
+      <c r="A81" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="90"/>
-      <c r="C81" s="99" t="s">
+      <c r="B81" s="135"/>
+      <c r="C81" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="90"/>
+      <c r="D81" s="135"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="161" t="s">
+      <c r="A82" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="162"/>
-      <c r="C82" s="159" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="160"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="158"/>
       <c r="E82" s="73">
         <v>12939</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="163"/>
-      <c r="B83" s="118"/>
-      <c r="C83" s="147" t="s">
-        <v>174</v>
-      </c>
-      <c r="D83" s="149"/>
-      <c r="E83" s="52">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="117" t="s">
+      <c r="A83" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="44">
+      <c r="B83" s="151"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="44">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C85" s="101" t="s">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C84" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="98"/>
-      <c r="E85" s="37">
-        <f>(C4+E12)-SUM(E82:E84)</f>
+      <c r="D84" s="115"/>
+      <c r="E84" s="37">
+        <f>(C4+E12)-SUM(E82:E83)</f>
         <v>20291.270000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="116"/>
+    </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="98"/>
-      <c r="E87" s="87"/>
+      <c r="A87" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="116"/>
+      <c r="C87" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="116"/>
+      <c r="E87" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="23" t="s">
-        <v>4</v>
+      <c r="A88" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="129"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="37">
+        <f>E84</f>
+        <v>20291.270000000004</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="104"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="37">
-        <f>E85</f>
-        <v>20291.270000000004</v>
+      <c r="A89" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="145"/>
+      <c r="C89" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="170"/>
+      <c r="E89" s="73">
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="110"/>
-      <c r="C90" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="153"/>
-      <c r="E90" s="73">
-        <v>187</v>
+      <c r="A90" s="79"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="168"/>
+      <c r="E90" s="52">
+        <v>25000</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="79"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="148"/>
-      <c r="E91" s="52">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="103" t="s">
+      <c r="A91" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="158"/>
-      <c r="D92" s="96"/>
-      <c r="E92" s="65">
+      <c r="B91" s="129"/>
+      <c r="C91" s="164"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="65">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C92" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="116"/>
+      <c r="E92" s="37">
+        <f>(E18+E88)-SUM(E89:E91)</f>
+        <v>23528.270000000004</v>
+      </c>
+    </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C93" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="37">
-        <f>(E18+E89)-SUM(E90:E92)</f>
-        <v>23528.270000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" customHeight="1">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="131"/>
+      <c r="C95" s="131"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="132"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="96"/>
+      <c r="A96" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="116"/>
+      <c r="C96" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="116"/>
+      <c r="E96" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="B97" s="87"/>
-      <c r="C97" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="23" t="s">
-        <v>4</v>
+      <c r="A97" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="129"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="37">
+        <f>E92</f>
+        <v>23528.270000000004</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="104"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="37">
-        <f>E93</f>
-        <v>23528.270000000004</v>
+      <c r="A98" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="145"/>
+      <c r="C98" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="163"/>
+      <c r="E98" s="73">
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="156" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" s="157"/>
-      <c r="E99" s="73">
-        <v>88</v>
+      <c r="A99" s="79"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="160"/>
+      <c r="E99" s="52">
+        <v>25000</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="79"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D100" s="149"/>
-      <c r="E100" s="52">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="103" t="s">
+      <c r="A100" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="65">
+      <c r="B100" s="129"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="65">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C101" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="116"/>
+      <c r="E101" s="52">
+        <f>(E24+E97)-SUM(E98:E100)</f>
+        <v>24663.270000000004</v>
+      </c>
+    </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C102" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="87"/>
-      <c r="E102" s="52">
-        <f>(E24+E98)-SUM(E99:E101)</f>
-        <v>24663.270000000004</v>
-      </c>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="11"/>
@@ -12557,17 +12544,52 @@
       <c r="A1014" s="11"/>
       <c r="B1014" s="11"/>
     </row>
-    <row r="1015" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1015" s="11"/>
-      <c r="B1015" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="53">
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A56:C56"/>
@@ -12576,47 +12598,7 @@
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A82:B83"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12628,7 +12610,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12636,7 +12618,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12644,7 +12626,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12652,7 +12634,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12660,7 +12642,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12695,13 +12677,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12719,10 +12701,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E102</f>
+        <f>'July 2024 - September 2024'!E101</f>
         <v>24663.270000000004</v>
       </c>
       <c r="D3" s="6"/>
@@ -12785,9 +12767,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="56" t="e">
         <f>('July 2024 - September 2024'!C5)+SUM(E79,E86,E94)</f>
-        <v>-201149.51</v>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -12841,13 +12823,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -12875,10 +12857,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -12890,10 +12872,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -12915,13 +12897,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="96"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -12949,10 +12931,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -12964,10 +12946,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -12992,13 +12974,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13026,10 +13008,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -13041,10 +13023,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="66">
         <v>33250</v>
       </c>
@@ -13086,11 +13068,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -13105,11 +13087,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -13151,16 +13133,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="142"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -13218,11 +13200,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -13257,11 +13239,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -13303,11 +13285,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="136"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -13331,11 +13313,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="135"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -13359,11 +13341,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="132"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -13407,11 +13389,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -13439,8 +13421,8 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="168" t="s">
-        <v>189</v>
+      <c r="B64" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -13478,11 +13460,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -13550,23 +13532,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="87"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="99" t="s">
+      <c r="A78" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="99" t="s">
+      <c r="B78" s="135"/>
+      <c r="C78" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -13575,32 +13557,32 @@
       <c r="A79" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="156" t="s">
+      <c r="B79" s="93"/>
+      <c r="C79" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="157"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="146"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="121"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="98"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
         <v>25656.570000000003</v>
@@ -13608,69 +13590,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="87"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="116"/>
+      <c r="C84" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="87"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="103" t="s">
+      <c r="A85" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="154"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="171"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>25656.570000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="103" t="s">
+      <c r="A86" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="113" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="172"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="103" t="s">
+      <c r="A87" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="87"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="116"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="87"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>26649.870000000006</v>
@@ -13691,69 +13673,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="96"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="132"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="87"/>
-      <c r="C92" s="97" t="s">
+      <c r="B92" s="116"/>
+      <c r="C92" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="87"/>
+      <c r="D92" s="116"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="87"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>26649.870000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="113" t="s">
+      <c r="B94" s="145"/>
+      <c r="C94" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="114"/>
+      <c r="D94" s="105"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="87"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="116"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>27643.170000000009</v>
@@ -17413,6 +17395,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A86:B86"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
@@ -17429,38 +17443,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17538,13 +17520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17562,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E96</f>
@@ -17628,9 +17610,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="56" t="e">
         <f>('October 2024 - December 2024'!C5)+SUM(E79,E86,E94)</f>
-        <v>-126149.51000000001</v>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -17684,13 +17666,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17718,10 +17700,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17733,10 +17715,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17758,13 +17740,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="96"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17792,10 +17774,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -17807,10 +17789,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -17835,13 +17817,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -17869,10 +17851,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -17884,10 +17866,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -17930,11 +17912,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -17949,11 +17931,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -17995,16 +17977,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="142"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18062,11 +18044,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18101,11 +18083,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18147,11 +18129,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="136"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18175,11 +18157,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="135"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18203,11 +18185,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="132"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18251,11 +18233,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18283,8 +18265,8 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="168" t="s">
-        <v>189</v>
+      <c r="B64" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -18322,11 +18304,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18395,23 +18377,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="87"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="99" t="s">
+      <c r="A78" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="99" t="s">
+      <c r="B78" s="135"/>
+      <c r="C78" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -18420,32 +18402,32 @@
       <c r="A79" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="156" t="s">
+      <c r="B79" s="93"/>
+      <c r="C79" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="157"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="146"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="121"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="98"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
         <v>28636.470000000012</v>
@@ -18453,69 +18435,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="87"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="116"/>
+      <c r="C84" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="87"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="103" t="s">
+      <c r="A85" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="154"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="171"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>28636.470000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="103" t="s">
+      <c r="A86" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="113" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="172"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="103" t="s">
+      <c r="A87" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="87"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="116"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="87"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>29629.770000000015</v>
@@ -18536,69 +18518,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="96"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="132"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="87"/>
-      <c r="C92" s="97" t="s">
+      <c r="B92" s="116"/>
+      <c r="C92" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="87"/>
+      <c r="D92" s="116"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="87"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>29629.770000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="113" t="s">
+      <c r="B94" s="145"/>
+      <c r="C94" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="114"/>
+      <c r="D94" s="105"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="87"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="116"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>30623.070000000018</v>
@@ -22258,18 +22240,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22283,29 +22276,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22383,13 +22365,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22407,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
@@ -22473,9 +22455,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="56" t="e">
         <f>('January 2025 - March 2025'!C5)+SUM(E79,E86,E94)</f>
-        <v>-51149.510000000009</v>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -22529,13 +22511,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22563,10 +22545,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22578,10 +22560,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22603,13 +22585,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="96"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22637,10 +22619,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22652,10 +22634,10 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22680,13 +22662,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22714,10 +22696,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22729,10 +22711,10 @@
       <c r="B20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22775,11 +22757,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -22794,11 +22776,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -22840,16 +22822,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="142"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -22907,11 +22889,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -22946,11 +22928,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22992,11 +22974,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="136"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23020,11 +23002,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="135"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23048,11 +23030,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="132"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23096,11 +23078,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23128,8 +23110,8 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="168" t="s">
-        <v>189</v>
+      <c r="B64" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -23167,11 +23149,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23240,23 +23222,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="87"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="99" t="s">
+      <c r="A78" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="99" t="s">
+      <c r="B78" s="135"/>
+      <c r="C78" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -23265,32 +23247,32 @@
       <c r="A79" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="156" t="s">
+      <c r="B79" s="93"/>
+      <c r="C79" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="157"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="146"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="121"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="98"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
         <v>31616.370000000021</v>
@@ -23298,69 +23280,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="87"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="116"/>
+      <c r="C84" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="87"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="103" t="s">
+      <c r="A85" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="154"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="171"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>31616.370000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="103" t="s">
+      <c r="A86" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="113" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="172"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="103" t="s">
+      <c r="A87" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="87"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="116"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="87"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>32609.670000000024</v>
@@ -23381,69 +23363,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="96"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="132"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="87"/>
-      <c r="C92" s="97" t="s">
+      <c r="B92" s="116"/>
+      <c r="C92" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="87"/>
+      <c r="D92" s="116"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="87"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>32609.670000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="113" t="s">
+      <c r="B94" s="145"/>
+      <c r="C94" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="114"/>
+      <c r="D94" s="105"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="87"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="116"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>33602.97000000003</v>
@@ -27103,18 +27085,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27128,29 +27121,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27210,7 +27192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -27228,13 +27210,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27318,9 +27300,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="56" t="e">
         <f>('April 2025 - June 2025'!C5)+SUM(E79,E86,E94)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -27374,13 +27356,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27408,10 +27390,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27423,10 +27405,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27448,13 +27430,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="96"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27482,10 +27464,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27497,10 +27479,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27525,13 +27507,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27559,10 +27541,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27574,10 +27556,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27620,11 +27602,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27639,11 +27621,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27685,16 +27667,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="142"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27752,11 +27734,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27791,11 +27773,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -27837,11 +27819,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="136"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -27865,11 +27847,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="135"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -27893,11 +27875,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="132"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -27941,11 +27923,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -27973,8 +27955,8 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="168" t="s">
-        <v>189</v>
+      <c r="B64" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -28012,11 +27994,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28084,47 +28066,47 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="87"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="99" t="s">
+      <c r="A78" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="99" t="s">
+      <c r="B78" s="135"/>
+      <c r="C78" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="90"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="165" t="s">
+      <c r="A79" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="165"/>
-      <c r="C79" s="159" t="s">
+      <c r="B79" s="173"/>
+      <c r="C79" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="160"/>
+      <c r="D79" s="158"/>
       <c r="E79" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="165" t="s">
+      <c r="A80" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="165"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="166"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5356.7</v>
@@ -28133,10 +28115,10 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="167" t="s">
+      <c r="C81" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="95"/>
+      <c r="D81" s="112"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
         <v>34596.270000000033</v>
@@ -28144,69 +28126,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="87"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="116"/>
+      <c r="C84" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="87"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="103" t="s">
+      <c r="A85" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="154"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="171"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>34596.270000000033</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="103" t="s">
+      <c r="A86" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="113" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="172"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="103" t="s">
+      <c r="A87" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="87"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="116"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="87"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>35589.570000000036</v>
@@ -28227,69 +28209,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="96"/>
+      <c r="B91" s="131"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="132"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="87"/>
-      <c r="C92" s="97" t="s">
+      <c r="B92" s="116"/>
+      <c r="C92" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="87"/>
+      <c r="D92" s="116"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="87"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>35589.570000000036</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="114"/>
+      <c r="B94" s="145"/>
+      <c r="C94" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="105"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="104"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="87"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="116"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="87"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>60433.360000000037</v>
@@ -31949,29 +31931,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -31985,18 +31956,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE58D7-0FDA-4A96-ACDE-F1E1777236BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB7261-3AFC-455E-B46E-9FA1A0439FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="195">
   <si>
     <t>Assets</t>
   </si>
@@ -166,47 +166,47 @@
   </si>
   <si>
     <t>HGC Broadband</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Other Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total Payment</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total Donation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total Insurance</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>House Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total House Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Principal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Bank Cheque For Inland Revenue</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fixed Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -221,23 +221,23 @@
       </rPr>
       <t>Credits</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Other Stuff</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total Other Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Debts</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Total Debts</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Cigarettes</t>
@@ -672,7 +672,31 @@
     <t>1. Payback $1149.51 to Government</t>
   </si>
   <si>
-    <t>1. Payback $4000 to Ng Wing Lam</t>
+    <t>1. Payback $800 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>2. Payback $800 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>3. Payback $800 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>7. Mom Salary For 7 days $2000 Per Month - $2000 / 30 days</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Payback $800 to Ng Wing Lam -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> October 1st Last Payment</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -687,11 +711,18 @@
     <numFmt numFmtId="167" formatCode="[$$-3C09]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$$-380A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,7 +969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1322,13 +1353,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1336,89 +1407,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1427,136 +1498,136 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,305 +1636,350 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2611,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1022"/>
+  <dimension ref="A1:Y1023"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2631,13 +2747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2658,7 +2774,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="5">
-        <v>660.17</v>
+        <v>2653.17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2876,7 +2992,7 @@
       </c>
       <c r="C10" s="56">
         <f>SUM(C3:C9)</f>
-        <v>871.27</v>
+        <v>2864.27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2907,8 +3023,8 @@
         <v>149</v>
       </c>
       <c r="C11" s="56">
-        <f>(-C81+SUM(E94))</f>
-        <v>-343088.51</v>
+        <f>(-C81+SUM(E94,E102))</f>
+        <v>-342288.51</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2962,13 +3078,13 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2996,10 +3112,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -3011,10 +3127,10 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="18">
         <v>2405</v>
       </c>
@@ -3036,13 +3152,13 @@
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -3070,10 +3186,10 @@
       <c r="B20" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="131"/>
       <c r="E20" s="72" t="s">
         <v>4</v>
       </c>
@@ -3085,10 +3201,10 @@
       <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="137"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="66">
         <v>2405</v>
       </c>
@@ -3100,10 +3216,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="66">
         <v>1035</v>
       </c>
@@ -3128,13 +3244,13 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -3162,10 +3278,10 @@
       <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="72" t="s">
         <v>4</v>
       </c>
@@ -3177,11 +3293,11 @@
       <c r="B27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="87">
+      <c r="D27" s="111"/>
+      <c r="E27" s="85">
         <v>2405</v>
       </c>
     </row>
@@ -3192,41 +3308,41 @@
       <c r="B28" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="99"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="66">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="89">
+      <c r="D29" s="99"/>
+      <c r="E29" s="87">
         <v>7700</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="89">
+      <c r="D30" s="120"/>
+      <c r="E30" s="87">
         <v>50</v>
       </c>
     </row>
@@ -3261,11 +3377,11 @@
       <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="106"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="20" t="s">
@@ -3280,11 +3396,11 @@
       <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="106"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="25" t="s">
@@ -3326,16 +3442,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="117"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -3384,11 +3500,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="106"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3423,11 +3539,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -3469,11 +3585,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="102"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
@@ -3497,11 +3613,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="152" t="s">
+      <c r="A61" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="135"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="131"/>
     </row>
     <row r="62" spans="1:3" ht="33" customHeight="1">
       <c r="A62" s="32" t="s">
@@ -3525,11 +3641,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="154" t="s">
+      <c r="A64" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="112"/>
-      <c r="C64" s="132"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="128"/>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
       <c r="A65" s="26" t="s">
@@ -3573,11 +3689,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="153"/>
-      <c r="C69" s="143"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="139"/>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
       <c r="A70" s="57" t="s">
@@ -3594,7 +3710,7 @@
       <c r="A71" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="84" t="s">
         <v>150</v>
       </c>
       <c r="C71" s="60">
@@ -3605,7 +3721,7 @@
       <c r="A72" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C72" s="60">
@@ -3644,11 +3760,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A76" s="141" t="s">
+      <c r="A76" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="142"/>
-      <c r="C76" s="143"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="139"/>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
       <c r="A77" s="42" t="s">
@@ -3678,7 +3794,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="30">
-      <c r="A80" s="80" t="s">
+      <c r="A80" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B80" s="54"/>
@@ -3716,129 +3832,129 @@
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A85" s="119" t="s">
+      <c r="A85" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="148"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="149"/>
+      <c r="B85" s="146"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="147"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="146" t="s">
+      <c r="A86" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="147"/>
-      <c r="C86" s="146" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="147"/>
+      <c r="D86" s="145"/>
       <c r="E86" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="150" t="s">
+      <c r="A87" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="151"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="121"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="108"/>
       <c r="E87" s="44">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C88" s="155" t="s">
+      <c r="C88" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="156"/>
+      <c r="D88" s="154"/>
       <c r="E88" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="90" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A90" s="119" t="s">
+      <c r="A90" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="115"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="116"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
+      <c r="E90" s="106"/>
     </row>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="116"/>
-      <c r="C91" s="119" t="s">
+      <c r="B91" s="106"/>
+      <c r="C91" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="116"/>
+      <c r="D91" s="106"/>
       <c r="E91" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="139" t="s">
+      <c r="A92" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="145"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="144"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="140"/>
       <c r="E92" s="37">
         <f>E88</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="92" t="s">
+      <c r="A93" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="90" t="s">
+      <c r="B93" s="91"/>
+      <c r="C93" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="105"/>
+      <c r="D93" s="103"/>
       <c r="E93" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="96"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="90" t="s">
+      <c r="A94" s="94"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="118"/>
+      <c r="D94" s="104"/>
       <c r="E94" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="123" t="s">
+      <c r="B95" s="125"/>
+      <c r="C95" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="124"/>
+      <c r="D95" s="143"/>
       <c r="E95" s="65">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="116"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="37">
         <f>SUM(C3:C9)</f>
-        <v>871.27</v>
+        <v>2864.27</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
@@ -3856,132 +3972,139 @@
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="140" t="s">
+      <c r="A99" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B99" s="131"/>
-      <c r="C99" s="131"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="132"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="128"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="119" t="s">
+      <c r="A100" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="116"/>
-      <c r="C100" s="119" t="s">
+      <c r="B100" s="106"/>
+      <c r="C100" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="116"/>
+      <c r="D100" s="106"/>
       <c r="E100" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="139" t="s">
+      <c r="A101" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="129"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="116"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="106"/>
       <c r="E101" s="37">
         <f>E96</f>
-        <v>871.27</v>
+        <v>2864.27</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="92" t="s">
+      <c r="A102" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="93"/>
-      <c r="C102" s="90" t="s">
+      <c r="B102" s="91"/>
+      <c r="C102" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="105"/>
+      <c r="D102" s="103"/>
       <c r="E102" s="52">
-        <v>4000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="94"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="90" t="s">
+      <c r="A103" s="92"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="D103" s="91"/>
+      <c r="D103" s="89"/>
       <c r="E103" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="94"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="90" t="s">
+      <c r="A104" s="92"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="91"/>
+      <c r="D104" s="89"/>
       <c r="E104" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="94"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="90" t="s">
+      <c r="A105" s="92"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="D105" s="91"/>
+      <c r="D105" s="89"/>
       <c r="E105" s="52">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="94"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="90" t="s">
+      <c r="A106" s="92"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="D106" s="91"/>
+      <c r="D106" s="89"/>
       <c r="E106" s="52">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="96"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="90" t="s">
+      <c r="A107" s="92"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="D107" s="91"/>
+      <c r="D107" s="89"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="139" t="s">
+      <c r="A108" s="94"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" s="89"/>
+      <c r="E108" s="52">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A109" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B108" s="145"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="52">
+      <c r="B109" s="141"/>
+      <c r="C109" s="142"/>
+      <c r="D109" s="143"/>
+      <c r="E109" s="52">
         <f>C82</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C109" s="138" t="s">
+    <row r="110" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C110" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="116"/>
-      <c r="E109" s="52">
-        <f>(E31+E101)-SUM(E102:E108)</f>
-        <v>4806.2700000000004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="52">
+        <f>(E31+E101)-SUM(E102:E109)</f>
+        <v>9532.27</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
       <c r="A111" s="11"/>
@@ -7631,8 +7754,14 @@
       <c r="A1022" s="11"/>
       <c r="B1022" s="11"/>
     </row>
+    <row r="1023" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1023" s="11"/>
+      <c r="B1023" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="A102:B108"/>
+    <mergeCell ref="C108:D108"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A69:C69"/>
@@ -7640,14 +7769,15 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C110:D110"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C102:D102"/>
@@ -7656,7 +7786,6 @@
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C95:D95"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A14:E14"/>
@@ -7674,7 +7803,6 @@
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A102:B107"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C103:D103"/>
@@ -7690,7 +7818,7 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C101:D101"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C9:C11">
     <cfRule type="cellIs" dxfId="70" priority="1" operator="lessThan">
       <formula>0</formula>
@@ -7728,7 +7856,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
+  <conditionalFormatting sqref="E110">
     <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7743,10 +7871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1014"/>
+  <dimension ref="A1:Y1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7763,13 +7891,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7790,8 +7918,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E109</f>
-        <v>4806.2700000000004</v>
+        <f>'April 2024 - June 2024'!E110</f>
+        <v>9532.27</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7823,7 +7951,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>4806.2700000000004</v>
+        <v>9532.27</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7853,9 +7981,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56" t="e">
-        <f>('April 2024 - June 2024'!C11)+SUM(E82,#REF!,E90,E99)</f>
-        <v>#REF!</v>
+      <c r="C5" s="56">
+        <f>('April 2024 - June 2024'!C11)+SUM(E82,E83,E91,E92,E101,E102)</f>
+        <v>-276949.51</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7909,13 +8037,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -7943,10 +8071,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -7955,13 +8083,13 @@
       <c r="A10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="136"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -7973,10 +8101,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -7998,13 +8126,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8032,10 +8160,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8044,14 +8172,14 @@
       <c r="A16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="83">
+      <c r="D16" s="162"/>
+      <c r="E16" s="82">
         <v>2405</v>
       </c>
     </row>
@@ -8059,14 +8187,14 @@
       <c r="A17" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="84">
+      <c r="D17" s="162"/>
+      <c r="E17" s="83">
         <v>31350</v>
       </c>
     </row>
@@ -8090,13 +8218,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8124,10 +8252,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="131"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8139,10 +8267,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="137"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8152,8 +8280,8 @@
       <c r="B23" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="66">
         <v>204</v>
       </c>
@@ -8196,11 +8324,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="106"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -8215,11 +8343,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="106"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -8261,16 +8389,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="117"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -8328,11 +8456,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="106"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -8367,11 +8495,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="102"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -8413,11 +8541,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -8441,11 +8569,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="135"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="131"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -8469,11 +8597,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="154" t="s">
+      <c r="A59" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="132"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="128"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -8517,11 +8645,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="141" t="s">
+      <c r="A64" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="153"/>
-      <c r="C64" s="143"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="139"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -8549,7 +8677,7 @@
       <c r="A67" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C67" s="60">
@@ -8588,11 +8716,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="141" t="s">
+      <c r="A71" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="142"/>
-      <c r="C71" s="143"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="139"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -8617,13 +8745,15 @@
       <c r="A74" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="54"/>
+      <c r="B74" s="178" t="s">
+        <v>192</v>
+      </c>
       <c r="C74" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="80" t="s">
+      <c r="A75" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="54"/>
@@ -8661,248 +8791,269 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="119" t="s">
+      <c r="A80" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="115"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="116"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="106"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="146" t="s">
+      <c r="A81" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="146" t="s">
+      <c r="B81" s="131"/>
+      <c r="C81" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="135"/>
+      <c r="D81" s="131"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="173" t="s">
+      <c r="A82" s="172" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="173"/>
-      <c r="C82" s="157" t="s">
+      <c r="C82" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="158"/>
-      <c r="E82" s="73">
+      <c r="D82" s="177"/>
+      <c r="E82" s="52">
         <v>12939</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="150" t="s">
+      <c r="A83" s="148"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="165"/>
+      <c r="E83" s="175">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="151"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="44">
+      <c r="B84" s="149"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="44">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="155" t="s">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C85" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="115"/>
-      <c r="E84" s="37">
-        <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>20291.270000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="119" t="s">
+      <c r="D85" s="119"/>
+      <c r="E85" s="37">
+        <f>(C4+E12)-SUM(E82:E84)</f>
+        <v>24217.270000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="116"/>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="119" t="s">
+      <c r="B87" s="119"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="106"/>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="116"/>
-      <c r="C87" s="119" t="s">
+      <c r="B88" s="106"/>
+      <c r="C88" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="116"/>
-      <c r="E87" s="23" t="s">
+      <c r="D88" s="106"/>
+      <c r="E88" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="139" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="37">
-        <f>E84</f>
-        <v>20291.270000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="139" t="s">
+      <c r="B89" s="180"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="183"/>
+      <c r="E89" s="184">
+        <f>E85</f>
+        <v>24217.270000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="145"/>
-      <c r="C89" s="169" t="s">
+      <c r="B90" s="185"/>
+      <c r="C90" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="170"/>
-      <c r="E89" s="73">
+      <c r="D90" s="156"/>
+      <c r="E90" s="188">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="79"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="159" t="s">
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="186"/>
+      <c r="B91" s="181"/>
+      <c r="C91" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D90" s="168"/>
-      <c r="E90" s="52">
+      <c r="D91" s="156"/>
+      <c r="E91" s="175">
         <v>25000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="139" t="s">
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="148"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="155"/>
+      <c r="E92" s="187">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="129"/>
-      <c r="C91" s="164"/>
-      <c r="D91" s="132"/>
-      <c r="E91" s="65">
+      <c r="B93" s="182"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="128"/>
+      <c r="E93" s="65">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C92" s="138" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C94" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="116"/>
-      <c r="E92" s="37">
-        <f>(E18+E88)-SUM(E89:E91)</f>
-        <v>23528.270000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="37">
+        <f>(E18+E89)-SUM(E90:E93)</f>
+        <v>26654.270000000004</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="131"/>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="132"/>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="119" t="s">
+      <c r="B97" s="127"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="128"/>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="116"/>
-      <c r="C96" s="119" t="s">
+      <c r="B98" s="106"/>
+      <c r="C98" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="116"/>
-      <c r="E96" s="23" t="s">
+      <c r="D98" s="106"/>
+      <c r="E98" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="139" t="s">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="129"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="37">
-        <f>E92</f>
-        <v>23528.270000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="139" t="s">
+      <c r="B99" s="180"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="37">
+        <f>E94</f>
+        <v>26654.270000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A100" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="145"/>
-      <c r="C98" s="162" t="s">
+      <c r="B100" s="173"/>
+      <c r="C100" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="D98" s="163"/>
-      <c r="E98" s="73">
+      <c r="D100" s="159"/>
+      <c r="E100" s="73">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="79"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="159" t="s">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="186"/>
+      <c r="B101" s="190"/>
+      <c r="C101" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="D99" s="160"/>
-      <c r="E99" s="52">
+      <c r="D101" s="165"/>
+      <c r="E101" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="139" t="s">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A102" s="148"/>
+      <c r="B102" s="149"/>
+      <c r="C102" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="164"/>
+      <c r="E102" s="52">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A103" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="129"/>
-      <c r="C100" s="164"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="65">
+      <c r="B103" s="182"/>
+      <c r="C103" s="160"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="76">
         <f>C77</f>
         <v>5331</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="138" t="s">
+    <row r="104" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C104" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="116"/>
-      <c r="E101" s="52">
-        <f>(E24+E97)-SUM(E98:E100)</f>
-        <v>24663.270000000004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="52">
+        <f>(E24+E99)-SUM(E100:E103)</f>
+        <v>26989.270000000004</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
@@ -12544,22 +12695,37 @@
       <c r="A1014" s="11"/>
       <c r="B1014" s="11"/>
     </row>
+    <row r="1015" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1015" s="11"/>
+      <c r="B1015" s="11"/>
+    </row>
+    <row r="1016" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1016" s="11"/>
+      <c r="B1016" s="11"/>
+    </row>
+    <row r="1017" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1017" s="11"/>
+      <c r="B1017" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A83:B83"/>
+  <mergeCells count="56">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A90:B92"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A100:B102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A87:E87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A1:E1"/>
@@ -12573,19 +12739,18 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="C81:D81"/>
@@ -12598,7 +12763,8 @@
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12610,7 +12776,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12618,7 +12784,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12626,7 +12792,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12634,7 +12800,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E99">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12642,7 +12808,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12657,10 +12823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
-  <dimension ref="A1:Y1009"/>
+  <dimension ref="A1:Y1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12677,13 +12843,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12704,8 +12870,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E101</f>
-        <v>24663.270000000004</v>
+        <f>'July 2024 - September 2024'!E104</f>
+        <v>26989.270000000004</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12737,7 +12903,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>24663.270000000004</v>
+        <v>26989.270000000004</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -12767,9 +12933,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56" t="e">
-        <f>('July 2024 - September 2024'!C5)+SUM(E79,E86,E94)</f>
-        <v>#REF!</v>
+      <c r="C5" s="56">
+        <f>('July 2024 - September 2024'!C5)+SUM(E79,E80,E87,E95)</f>
+        <v>-201149.51</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -12823,13 +12989,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -12857,10 +13023,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -12872,10 +13038,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -12897,13 +13063,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -12931,10 +13097,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -12946,10 +13112,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -12974,13 +13140,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -13008,10 +13174,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -13023,10 +13189,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="66">
         <v>33250</v>
       </c>
@@ -13068,11 +13234,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="106"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -13087,11 +13253,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -13133,16 +13299,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -13200,11 +13366,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="106"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -13239,11 +13405,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -13285,11 +13451,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -13313,11 +13479,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="135"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="131"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -13341,11 +13507,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="132"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="128"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -13389,11 +13555,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="139"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -13421,7 +13587,7 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="60">
@@ -13460,11 +13626,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="143"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -13494,7 +13660,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="54"/>
@@ -13532,276 +13698,283 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="106"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="135"/>
-      <c r="C78" s="146" t="s">
+      <c r="B78" s="131"/>
+      <c r="C78" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="135"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="161" t="s">
+      <c r="A79" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="162" t="s">
+      <c r="B79" s="157"/>
+      <c r="C79" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="163"/>
-      <c r="E79" s="73">
+      <c r="D79" s="156"/>
+      <c r="E79" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="150" t="s">
+      <c r="A80" s="157"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="164" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="165"/>
+      <c r="E80" s="52">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
-      <c r="E80" s="44">
+      <c r="B81" s="149"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="155" t="s">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C82" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="115"/>
-      <c r="E81" s="37">
-        <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>25656.570000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="119" t="s">
+      <c r="D82" s="119"/>
+      <c r="E82" s="37">
+        <f>(C4+E11)-SUM(E79:E81)</f>
+        <v>27182.570000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="116"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="119" t="s">
+      <c r="B84" s="119"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="106"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="116"/>
-      <c r="C84" s="119" t="s">
+      <c r="B85" s="106"/>
+      <c r="C85" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="116"/>
-      <c r="E84" s="23" t="s">
+      <c r="D85" s="106"/>
+      <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="139" t="s">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="37">
-        <f>E81</f>
-        <v>25656.570000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="139" t="s">
+      <c r="B86" s="125"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="37">
+        <f>E82</f>
+        <v>27182.570000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="90" t="s">
+      <c r="B87" s="141"/>
+      <c r="C87" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="172"/>
-      <c r="E86" s="52">
+      <c r="D87" s="169"/>
+      <c r="E87" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="139" t="s">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="129"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="65">
+      <c r="B88" s="125"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C89" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="116"/>
-      <c r="E88" s="37">
-        <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>26649.870000000006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D89" s="106"/>
+      <c r="E89" s="37">
+        <f>(E16+E86)-SUM(E87:E88)</f>
+        <v>28175.870000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="140" t="s">
+    <row r="91" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="131"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="132"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="119" t="s">
+      <c r="B92" s="127"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="128"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="116"/>
-      <c r="C92" s="119" t="s">
+      <c r="B93" s="106"/>
+      <c r="C93" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="116"/>
-      <c r="E92" s="23" t="s">
+      <c r="D93" s="106"/>
+      <c r="E93" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="139" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="37">
-        <f>E88</f>
-        <v>26649.870000000006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="139" t="s">
+      <c r="B94" s="125"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="37">
+        <f>E89</f>
+        <v>28175.870000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="145"/>
-      <c r="C94" s="90" t="s">
+      <c r="B95" s="141"/>
+      <c r="C95" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="105"/>
-      <c r="E94" s="52">
+      <c r="D95" s="103"/>
+      <c r="E95" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="139" t="s">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="116"/>
-      <c r="E95" s="65">
+      <c r="B96" s="125"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C97" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="116"/>
-      <c r="E96" s="52">
-        <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>27643.170000000009</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" ht="13.5" customHeight="1">
+      <c r="D97" s="106"/>
+      <c r="E97" s="52">
+        <f>(E21+E94)-SUM(E95:E96)</f>
+        <v>29169.170000000009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="13.5" customHeight="1">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="13.5" customHeight="1">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="13.5" customHeight="1">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="13.5" customHeight="1">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="13.5" customHeight="1">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="13.5" customHeight="1">
+    <row r="104" spans="1:5" ht="13.5" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="13.5" customHeight="1">
+    <row r="105" spans="1:5" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="13.5" customHeight="1">
+    <row r="106" spans="1:5" ht="13.5" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="13.5" customHeight="1">
+    <row r="107" spans="1:5" ht="13.5" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="13.5" customHeight="1">
+    <row r="108" spans="1:5" ht="13.5" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="13.5" customHeight="1">
+    <row r="109" spans="1:5" ht="13.5" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="13.5" customHeight="1">
+    <row r="110" spans="1:5" ht="13.5" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="13.5" customHeight="1">
+    <row r="111" spans="1:5" ht="13.5" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="13.5" customHeight="1">
+    <row r="112" spans="1:5" ht="13.5" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
     </row>
@@ -17393,8 +17566,12 @@
       <c r="A1009" s="11"/>
       <c r="B1009" s="11"/>
     </row>
+    <row r="1010" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1010" s="11"/>
+      <c r="B1010" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
@@ -17413,36 +17590,37 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17454,7 +17632,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17462,7 +17640,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17470,7 +17648,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17478,7 +17656,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17486,7 +17664,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17502,8 +17680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17520,13 +17698,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17547,8 +17725,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E96</f>
-        <v>27643.170000000009</v>
+        <f>'October 2024 - December 2024'!E97</f>
+        <v>29169.170000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17580,7 +17758,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>27643.170000000009</v>
+        <v>29169.170000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17610,9 +17788,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56" t="e">
+      <c r="C5" s="56">
         <f>('October 2024 - December 2024'!C5)+SUM(E79,E86,E94)</f>
-        <v>#REF!</v>
+        <v>-126149.51000000001</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -17666,13 +17844,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17700,10 +17878,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17715,10 +17893,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17740,13 +17918,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17774,10 +17952,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -17789,10 +17967,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -17817,13 +17995,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -17851,10 +18029,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -17866,10 +18044,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -17912,11 +18090,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="106"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -17931,11 +18109,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -17977,16 +18155,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18044,11 +18222,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="106"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18083,11 +18261,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18129,11 +18307,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18157,11 +18335,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="135"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="131"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18185,11 +18363,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="132"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="128"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18233,11 +18411,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="139"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18265,7 +18443,7 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="60">
@@ -18304,11 +18482,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="143"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18339,7 +18517,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="54"/>
@@ -18377,130 +18555,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="106"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="135"/>
-      <c r="C78" s="146" t="s">
+      <c r="B78" s="131"/>
+      <c r="C78" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="135"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="161" t="s">
+      <c r="A79" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="162" t="s">
+      <c r="B79" s="91"/>
+      <c r="C79" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="163"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="150" t="s">
+      <c r="A80" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
+      <c r="B80" s="149"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="108"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="155" t="s">
+      <c r="C81" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="115"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>28636.470000000012</v>
+        <v>30162.470000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="106"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="116"/>
-      <c r="C84" s="119" t="s">
+      <c r="B84" s="106"/>
+      <c r="C84" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="116"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="171"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>28636.470000000012</v>
+        <v>30162.470000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="90" t="s">
+      <c r="B86" s="141"/>
+      <c r="C86" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="172"/>
+      <c r="D86" s="169"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="139" t="s">
+      <c r="A87" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="129"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="116"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="106"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="116"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>29629.770000000015</v>
+        <v>31155.770000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18518,72 +18696,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="140" t="s">
+      <c r="A91" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="131"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="132"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="128"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="119" t="s">
+      <c r="A92" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="116"/>
-      <c r="C92" s="119" t="s">
+      <c r="B92" s="106"/>
+      <c r="C92" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="116"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="139" t="s">
+      <c r="A93" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="106"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>29629.770000000015</v>
+        <v>31155.770000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="145"/>
-      <c r="C94" s="90" t="s">
+      <c r="B94" s="141"/>
+      <c r="C94" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="105"/>
+      <c r="D94" s="103"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="116"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="106"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="116"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>30623.070000000018</v>
+        <v>32149.070000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22365,13 +22543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22393,7 +22571,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>30623.070000000018</v>
+        <v>32149.070000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22425,7 +22603,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>30623.070000000018</v>
+        <v>32149.070000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22455,9 +22633,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56" t="e">
+      <c r="C5" s="56">
         <f>('January 2025 - March 2025'!C5)+SUM(E79,E86,E94)</f>
-        <v>#REF!</v>
+        <v>-51149.510000000009</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -22511,13 +22689,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22545,10 +22723,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22560,10 +22738,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22585,13 +22763,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22619,10 +22797,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22634,10 +22812,10 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22662,13 +22840,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22696,10 +22874,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22711,10 +22889,10 @@
       <c r="B20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22757,11 +22935,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="106"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -22776,11 +22954,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -22822,16 +23000,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -22889,11 +23067,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="106"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -22928,11 +23106,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22974,11 +23152,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23002,11 +23180,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="135"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="131"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23030,11 +23208,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="132"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="128"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23078,11 +23256,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="139"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23110,7 +23288,7 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="60">
@@ -23149,11 +23327,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="143"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23184,7 +23362,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="54"/>
@@ -23222,130 +23400,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="106"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="135"/>
-      <c r="C78" s="146" t="s">
+      <c r="B78" s="131"/>
+      <c r="C78" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="135"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="161" t="s">
+      <c r="A79" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="162" t="s">
+      <c r="B79" s="91"/>
+      <c r="C79" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="163"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="150" t="s">
+      <c r="A80" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
+      <c r="B80" s="149"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="108"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="155" t="s">
+      <c r="C81" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="115"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>31616.370000000021</v>
+        <v>33142.370000000024</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="106"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="116"/>
-      <c r="C84" s="119" t="s">
+      <c r="B84" s="106"/>
+      <c r="C84" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="116"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="171"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>31616.370000000021</v>
+        <v>33142.370000000024</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="90" t="s">
+      <c r="B86" s="141"/>
+      <c r="C86" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="172"/>
+      <c r="D86" s="169"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="139" t="s">
+      <c r="A87" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="129"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="116"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="106"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="116"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>32609.670000000024</v>
+        <v>34135.670000000027</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23363,72 +23541,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="140" t="s">
+      <c r="A91" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="131"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="132"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="128"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="119" t="s">
+      <c r="A92" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="116"/>
-      <c r="C92" s="119" t="s">
+      <c r="B92" s="106"/>
+      <c r="C92" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="116"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="139" t="s">
+      <c r="A93" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="106"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>32609.670000000024</v>
+        <v>34135.670000000027</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="145"/>
-      <c r="C94" s="90" t="s">
+      <c r="B94" s="141"/>
+      <c r="C94" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="105"/>
+      <c r="D94" s="103"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="116"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="106"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="116"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>33602.97000000003</v>
+        <v>35128.97000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27192,7 +27370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -27210,13 +27388,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27238,7 +27416,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>33602.97000000003</v>
+        <v>35128.97000000003</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27270,7 +27448,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>33602.97000000003</v>
+        <v>35128.97000000003</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27300,9 +27478,9 @@
       <c r="B5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="56" t="e">
+      <c r="C5" s="56">
         <f>('April 2025 - June 2025'!C5)+SUM(E79,E86,E94)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -27356,13 +27534,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27390,10 +27568,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27405,10 +27583,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27430,13 +27608,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27464,10 +27642,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27479,10 +27657,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27507,13 +27685,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27541,10 +27719,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27556,10 +27734,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27602,11 +27780,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="106"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27621,11 +27799,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27667,16 +27845,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27734,11 +27912,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="106"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27773,11 +27951,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -27819,11 +27997,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -27847,11 +28025,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="135"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="131"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -27875,11 +28053,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="132"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="128"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -27923,11 +28101,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="139"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -27955,7 +28133,7 @@
       <c r="A64" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="60">
@@ -27994,11 +28172,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="143"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28028,7 +28206,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="54"/>
@@ -28066,47 +28244,47 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="106"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="135"/>
-      <c r="C78" s="146" t="s">
+      <c r="B78" s="131"/>
+      <c r="C78" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="135"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="157" t="s">
+      <c r="B79" s="157"/>
+      <c r="C79" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="158"/>
+      <c r="D79" s="156"/>
       <c r="E79" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="173" t="s">
+      <c r="A80" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="173"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5356.7</v>
@@ -28115,83 +28293,83 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="175" t="s">
+      <c r="C81" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="112"/>
+      <c r="D81" s="116"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>34596.270000000033</v>
+        <v>36122.270000000033</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="106"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="116"/>
-      <c r="C84" s="119" t="s">
+      <c r="B84" s="106"/>
+      <c r="C84" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="116"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="171"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>34596.270000000033</v>
+        <v>36122.270000000033</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="90" t="s">
+      <c r="B86" s="141"/>
+      <c r="C86" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="172"/>
+      <c r="D86" s="169"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="139" t="s">
+      <c r="A87" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="129"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="116"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="106"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="116"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>35589.570000000036</v>
+        <v>37115.570000000036</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28209,72 +28387,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="140" t="s">
+      <c r="A91" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="131"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="132"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="128"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="119" t="s">
+      <c r="A92" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="116"/>
-      <c r="C92" s="119" t="s">
+      <c r="B92" s="106"/>
+      <c r="C92" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="116"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="139" t="s">
+      <c r="A93" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="106"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>35589.570000000036</v>
+        <v>37115.570000000036</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="145"/>
-      <c r="C94" s="90" t="s">
+      <c r="B94" s="141"/>
+      <c r="C94" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="105"/>
+      <c r="D94" s="103"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="116"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="106"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5356.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="116"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>60433.360000000037</v>
+        <v>61959.360000000037</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB7261-3AFC-455E-B46E-9FA1A0439FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0954F-E8B1-4862-A653-47CBB7B74428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="196">
   <si>
     <t>Assets</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Food, Transport….</t>
-  </si>
-  <si>
-    <t>HSBC One Saving Account / Cash / Coins</t>
   </si>
   <si>
     <t>Medical</t>
@@ -555,9 +552,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>SmartTone Broadband</t>
-  </si>
-  <si>
     <t>Banruptcy Department / Bank</t>
   </si>
   <si>
@@ -645,22 +639,10 @@
     <t>3. Hair Cutting And Bleaching</t>
   </si>
   <si>
-    <t>4. Dinner And Herbs Drink</t>
-  </si>
-  <si>
-    <t>5. Additional Expense - Approximately</t>
-  </si>
-  <si>
     <t>24th June 2024</t>
   </si>
   <si>
     <t>Salary From 24th June to End Of June - No MPF Deduction (not over 3 months)</t>
-  </si>
-  <si>
-    <t>6. Additional Expense For Cigarette</t>
-  </si>
-  <si>
-    <t>HSBC One Saving Account / Cash / Coins / Google Play / PayPal / Bank Cheque For Inland Revenue / Octopus Remain Value</t>
   </si>
   <si>
     <t>1. Payback $12939 to Mom</t>
@@ -672,31 +654,40 @@
     <t>1. Payback $1149.51 to Government</t>
   </si>
   <si>
-    <t>1. Payback $800 to Ng Wing Lam</t>
-  </si>
-  <si>
-    <t>2. Payback $800 to Ng Wing Lam</t>
-  </si>
-  <si>
     <t>3. Payback $800 to Ng Wing Lam</t>
   </si>
   <si>
-    <t>7. Mom Salary For 7 days $2000 Per Month - $2000 / 30 days</t>
+    <t>Alipay</t>
   </si>
   <si>
-    <r>
-      <t>2. Payback $800 to Ng Wing Lam -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> October 1st Last Payment</t>
-    </r>
+    <t>HSBC One Saving Account / Cash / Coins / Alipay / Google Play / PayPal / Bank Cheque For Inland Revenue / Octopus Remain Value</t>
+  </si>
+  <si>
+    <t>1. Payback $4000 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>China Mobile Broadband</t>
+  </si>
+  <si>
+    <t>4. Additional Expense - Approximately</t>
+  </si>
+  <si>
+    <t>5. Additional Expense For Cigarette</t>
+  </si>
+  <si>
+    <t>7. Half Day No Pay Leave</t>
+  </si>
+  <si>
+    <t>20th October 2024</t>
+  </si>
+  <si>
+    <t>20th November 2024</t>
+  </si>
+  <si>
+    <t>20th December 2024</t>
+  </si>
+  <si>
+    <t>6. Mom Salary For 7 days $2000 Per Month - $2400 / 30 days</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1672,22 +1663,22 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1696,53 +1687,143 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1756,140 +1837,62 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1897,25 +1900,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,68 +1945,14 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2443,6 +2410,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8"/>
       </font>
       <fill>
@@ -2727,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1023"/>
+  <dimension ref="A1:Y1024"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2747,13 +2719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2771,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>2653.17</v>
+        <v>2203.17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2802,10 +2774,10 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2833,10 +2805,10 @@
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2895,10 +2867,10 @@
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="5">
-        <v>68</v>
+        <v>185</v>
+      </c>
+      <c r="C7" s="56">
+        <v>6</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2926,10 +2898,10 @@
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2957,10 +2929,10 @@
     <row r="9" spans="1:25" ht="35.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="56">
-        <v>7.1</v>
+        <v>173</v>
+      </c>
+      <c r="C9" s="5">
+        <v>82</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2987,12 +2959,11 @@
     </row>
     <row r="10" spans="1:25" ht="35.25" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="63" t="s">
-        <v>58</v>
+      <c r="B10" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="56">
-        <f>SUM(C3:C9)</f>
-        <v>2864.27</v>
+        <v>7.1</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3017,14 +2988,14 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>149</v>
+    <row r="11" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="56">
-        <f>(-C81+SUM(E94,E102))</f>
-        <v>-342288.51</v>
+        <f>SUM(C3:C10)</f>
+        <v>2564.27</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3050,11 +3021,16 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="56">
+        <f>(-C82+SUM(E95,E103))</f>
+        <v>-339088.51</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3076,296 +3052,316 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="108"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C16" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="17" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C17" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="18">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="48">
-        <f>SUM(E16:E16)</f>
+      <c r="D17" s="118"/>
+      <c r="E17" s="18">
         <v>2405</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="48">
+        <f>SUM(E17:E17)</f>
+        <v>2405</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A19" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="70" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A20" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="108"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A21" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C21" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="72" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="72" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="66">
-        <v>2405</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="97"/>
+      <c r="C22" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="138"/>
       <c r="E22" s="66">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="140"/>
+      <c r="E23" s="66">
         <v>1035</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47" t="s">
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="48">
-        <f>SUM(E21:E22)</f>
+      <c r="E24" s="48">
+        <f>SUM(E22:E23)</f>
         <v>3440</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-    </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A25" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A26" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="108"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+    </row>
+    <row r="27" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="129" t="s">
+      <c r="C27" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="72" t="s">
+      <c r="D27" s="99"/>
+      <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="26" t="s">
+    <row r="28" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C28" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="85">
+      <c r="D28" s="101"/>
+      <c r="E28" s="85">
         <v>2405</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A28" s="32" t="s">
+    <row r="29" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A29" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="66">
+      <c r="D29" s="140"/>
+      <c r="E29" s="66">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="86" t="s">
+    <row r="30" spans="1:25">
+      <c r="A30" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="87">
+      <c r="C30" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="151"/>
+      <c r="E30" s="87">
         <v>7700</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A30" s="86" t="s">
+    <row r="31" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A31" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="120" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="87">
+      <c r="D31" s="149"/>
+      <c r="E31" s="87">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="48">
-        <f>SUM(E27:E30)</f>
-        <v>10305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="13.15" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D32" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="48">
+        <f>SUM(E28:E31)</f>
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.15" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="1"/>
@@ -3375,105 +3371,103 @@
     <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A35" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="106"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="99"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A37" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A37" s="100" t="s">
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A38" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="106"/>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="B38" s="110"/>
+      <c r="C38" s="99"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A39" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="19">
+      <c r="B39" s="2"/>
+      <c r="C39" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A40" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A40" s="26" t="s">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C41" s="27">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="25" t="s">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A42" s="28"/>
+      <c r="B42" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="29">
-        <f>SUM(C38:C40)</f>
+      <c r="C42" s="29">
+        <f>SUM(C39:C41)</f>
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A42" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="114"/>
-    </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="117"/>
+      <c r="A43" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="18">
-        <v>0</v>
-      </c>
+      <c r="A44" s="145"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="146"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="10">
+      <c r="C45" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="10">
@@ -3482,7 +3476,7 @@
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="10">
@@ -3490,85 +3484,85 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="10">
-        <f>SUM(C44:C47)</f>
+      <c r="C49" s="10">
+        <f>SUM(C45:C48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="100" t="s">
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="119"/>
-      <c r="C49" s="106"/>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="19">
-        <v>0</v>
-      </c>
+      <c r="B50" s="110"/>
+      <c r="C50" s="99"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="19">
-        <f>SUM(C50:C51)</f>
+      <c r="C53" s="19">
+        <f>SUM(C51:C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="152"/>
+      <c r="C54" s="153"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-    </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="31">
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
       <c r="A56" s="26"/>
-      <c r="B56" s="26" t="s">
-        <v>87</v>
+      <c r="B56" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="C56" s="31">
         <v>0</v>
@@ -3576,539 +3570,544 @@
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26"/>
-      <c r="B57" s="30" t="s">
-        <v>53</v>
+      <c r="B57" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="C57" s="31">
-        <f>SUM(C54:C56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="31">
+        <f>SUM(C55:C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="101"/>
-      <c r="C58" s="102"/>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="152"/>
+      <c r="C59" s="153"/>
+    </row>
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="30" t="s">
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="26"/>
+      <c r="B61" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="31">
-        <f>SUM(C59)</f>
+      <c r="C61" s="31">
+        <f>SUM(C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="150" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="101"/>
+      <c r="C62" s="102"/>
+    </row>
+    <row r="63" spans="1:3" ht="33" customHeight="1">
+      <c r="A63" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="111"/>
-      <c r="C61" s="131"/>
-    </row>
-    <row r="62" spans="1:3" ht="33" customHeight="1">
-      <c r="A62" s="32" t="s">
+      <c r="B63" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="C63" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C64" s="34">
+        <f>SUM(C63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="34">
-        <f>SUM(C62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="152" t="s">
+    <row r="65" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A65" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="116"/>
-      <c r="C64" s="128"/>
-    </row>
-    <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="B65" s="107"/>
+      <c r="C65" s="108"/>
+    </row>
+    <row r="66" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="26"/>
       <c r="C66" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>26</v>
+    <row r="67" spans="1:3" ht="15" customHeight="1">
+      <c r="A67" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C67" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="34">
-        <f>SUM(C65:C67)</f>
+      <c r="C69" s="34">
+        <f>SUM(C66:C68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="137" t="s">
+    <row r="70" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A70" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="151"/>
-      <c r="C69" s="139"/>
-    </row>
-    <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="57" t="s">
+      <c r="B70" s="104"/>
+      <c r="C70" s="105"/>
+    </row>
+    <row r="71" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A71" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B71" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="59">
+      <c r="C71" s="59">
         <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A71" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="60">
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.5" customHeight="1">
       <c r="A72" s="58" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B72" s="84" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C72" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A74" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="31">
+      <c r="B74" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="31">
         <v>760</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A74" s="28"/>
-      <c r="B74" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="39">
-        <f>SUM(C70:C73)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.5" customHeight="1">
       <c r="A75" s="28"/>
-      <c r="B75" s="53" t="s">
-        <v>58</v>
+      <c r="B75" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="C75" s="39">
-        <f>C41+C48+C52+C57+C60+C63+C68+C74</f>
+        <f>SUM(C71:C74)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="39">
+        <f>C42+C49+C53+C58+C61+C64+C69+C75</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A76" s="137" t="s">
+    <row r="77" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A77" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="138"/>
-      <c r="C76" s="139"/>
-    </row>
-    <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="42" t="s">
+      <c r="B77" s="121"/>
+      <c r="C77" s="105"/>
+    </row>
+    <row r="78" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A78" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="49">
-        <v>12939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A78" s="69" t="s">
-        <v>88</v>
       </c>
       <c r="B78" s="38"/>
       <c r="C78" s="49">
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A79" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="38"/>
+      <c r="C79" s="49">
         <v>5000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30">
-      <c r="A79" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="49">
-        <v>0</v>
-      </c>
-    </row>
     <row r="80" spans="1:3" ht="30">
-      <c r="A80" s="79" t="s">
-        <v>152</v>
+      <c r="A80" s="64" t="s">
+        <v>77</v>
       </c>
       <c r="B80" s="54"/>
       <c r="C80" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30">
+      <c r="A81" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="49">
         <v>326149.51</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A81" s="28"/>
-      <c r="B81" s="55" t="s">
+    <row r="82" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A82" s="28"/>
+      <c r="B82" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="49">
-        <f>SUM(C77:C80)</f>
+      <c r="C82" s="49">
+        <f>SUM(C78:C81)</f>
         <v>344088.51</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A82" s="32"/>
-      <c r="B82" s="40" t="s">
+    <row r="83" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A83" s="32"/>
+      <c r="B83" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="41">
-        <f>C75</f>
+      <c r="C83" s="41">
+        <f>C76</f>
         <v>1503</v>
       </c>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="H83" s="36"/>
     </row>
     <row r="84" spans="1:8" ht="13.5" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A85" s="105" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A86" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="127"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A87" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="112"/>
+      <c r="C87" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="112"/>
+      <c r="E87" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A88" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="129"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="44">
+        <f>C83</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C89" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="114"/>
+      <c r="E89" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="91" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A91" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="146"/>
-      <c r="C85" s="146"/>
-      <c r="D85" s="146"/>
-      <c r="E85" s="147"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="144" t="s">
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="99"/>
+    </row>
+    <row r="92" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A92" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="144" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="145"/>
-      <c r="E86" s="43" t="s">
+      <c r="D92" s="99"/>
+      <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="148" t="s">
+    <row r="93" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A93" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="124"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="123"/>
+      <c r="E93" s="37">
+        <f>E89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A94" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="93"/>
+      <c r="C94" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="125"/>
+      <c r="E94" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A95" s="94"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="154"/>
+      <c r="E95" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A96" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="149"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="44">
-        <f>C82</f>
+      <c r="B96" s="118"/>
+      <c r="C96" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="116"/>
+      <c r="E96" s="65">
+        <f>C83</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C88" s="153" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="154"/>
-      <c r="E88" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="13.5" customHeight="1"/>
-    <row r="90" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A90" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="119"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
-      <c r="E90" s="106"/>
-    </row>
-    <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="106"/>
-      <c r="E91" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="135" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="141"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="37">
-        <f>E88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="91"/>
-      <c r="C93" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="104"/>
-      <c r="E94" s="52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="143"/>
-      <c r="E95" s="65">
-        <f>C82</f>
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C96" s="134" t="s">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C97" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
-      <c r="E96" s="37">
-        <f>SUM(C3:C9)</f>
-        <v>2864.27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D97" s="99"/>
+      <c r="E97" s="37">
+        <f>SUM(C3:C10)</f>
+        <v>2564.27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="136" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="127"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="128"/>
+    <row r="99" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="120"/>
+      <c r="E100" s="108"/>
+    </row>
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="106"/>
-      <c r="C100" s="105" t="s">
+      <c r="B101" s="99"/>
+      <c r="C101" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="106"/>
-      <c r="E100" s="23" t="s">
+      <c r="D101" s="99"/>
+      <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="135" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="125"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="37">
-        <f>E96</f>
-        <v>2864.27</v>
-      </c>
-    </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="91"/>
-      <c r="C102" s="88" t="s">
+      <c r="A102" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="167"/>
+      <c r="C102" s="122"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="37">
+        <f>E97</f>
+        <v>2564.27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A103" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="160"/>
+      <c r="C103" s="154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="125"/>
+      <c r="E103" s="52">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A104" s="159"/>
+      <c r="B104" s="161"/>
+      <c r="C104" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="97"/>
+      <c r="E104" s="52">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A105" s="159"/>
+      <c r="B105" s="161"/>
+      <c r="C105" s="154" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="97"/>
+      <c r="E105" s="52">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A106" s="159"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" s="97"/>
+      <c r="E106" s="52">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A107" s="159"/>
+      <c r="B107" s="161"/>
+      <c r="C107" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="103"/>
-      <c r="E102" s="52">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="92"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="89"/>
-      <c r="E103" s="52">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="92"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="89"/>
-      <c r="E104" s="52">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="92"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" s="89"/>
-      <c r="E105" s="52">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="92"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="89"/>
-      <c r="E106" s="52">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="92"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" s="89"/>
+      <c r="D107" s="97"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="94"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="D108" s="89"/>
+      <c r="A108" s="159"/>
+      <c r="B108" s="161"/>
+      <c r="C108" s="154" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="97"/>
       <c r="E108" s="52">
-        <v>467</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="135" t="s">
+      <c r="A109" s="128"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="97"/>
+      <c r="E109" s="52">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A110" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="141"/>
-      <c r="C109" s="142"/>
-      <c r="D109" s="143"/>
-      <c r="E109" s="52">
-        <f>C82</f>
+      <c r="B110" s="95"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="52">
+        <f>C83</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C110" s="134" t="s">
+    <row r="111" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C111" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="106"/>
-      <c r="E110" s="52">
-        <f>(E31+E101)-SUM(E102:E109)</f>
-        <v>9532.27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="52">
+        <f>(E32+E102)-SUM(E103:E110)</f>
+        <v>5133.2700000000004</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
       <c r="A112" s="11"/>
@@ -7758,109 +7757,118 @@
       <c r="A1023" s="11"/>
       <c r="B1023" s="11"/>
     </row>
+    <row r="1024" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1024" s="11"/>
+      <c r="B1024" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A102:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A42:C43"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="A103:B109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C105:D105"/>
     <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="C9:C11">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C10:C12">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="69" priority="27" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="70" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="67" priority="23" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="68" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="65" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="66" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="63" priority="21" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="64" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="62" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7871,10 +7879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1017"/>
+  <dimension ref="A1:Y1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7891,13 +7899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7910,7 +7918,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="45">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7918,8 +7926,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E110</f>
-        <v>9532.27</v>
+        <f>'April 2024 - June 2024'!E111</f>
+        <v>5133.2700000000004</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7947,11 +7955,11 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>9532.27</v>
+        <v>5133.2700000000004</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7979,11 +7987,11 @@
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="56">
-        <f>('April 2024 - June 2024'!C11)+SUM(E82,E83,E91,E92,E101,E102)</f>
-        <v>-276949.51</v>
+        <f>('April 2024 - June 2024'!C12)+SUM(E83,E91,E100)</f>
+        <v>-276149.51</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8037,13 +8045,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
+      <c r="A8" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="108"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8071,40 +8079,40 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="131"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="162"/>
+      <c r="C11" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="166"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8126,13 +8134,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
+      <c r="A14" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="108"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8160,40 +8168,40 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="162"/>
+      <c r="C17" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="166"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8218,13 +8226,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
+      <c r="A20" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8252,67 +8260,75 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="131"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="133"/>
+      <c r="C22" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="138"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="B23" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="166"/>
       <c r="E23" s="66">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="66">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47" t="s">
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="48">
-        <f>SUM(E22:E23)</f>
-        <v>31554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.15" customHeight="1">
+      <c r="E25" s="48">
+        <f>SUM(E22:E24)</f>
+        <v>33959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+    <row r="27" spans="1:25" ht="13.15" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
@@ -8322,105 +8338,103 @@
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="106"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="99"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="100" t="s">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="106"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="B32" s="110"/>
+      <c r="C32" s="99"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="19">
+      <c r="B33" s="2"/>
+      <c r="C33" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27">
-        <v>42</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C35" s="27">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25" t="s">
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="29">
-        <f>SUM(C32:C34)</f>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="C36" s="29">
+        <f>SUM(C33:C35)</f>
+        <v>401</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="117"/>
+      <c r="A37" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18">
-        <v>0</v>
-      </c>
+      <c r="A38" s="145"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="146"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="10">
+      <c r="C39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -8429,7 +8443,7 @@
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
@@ -8438,7 +8452,7 @@
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="10">
@@ -8446,85 +8460,85 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="10">
-        <f>SUM(C38:C42)</f>
+      <c r="C44" s="10">
+        <f>SUM(C39:C43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="100" t="s">
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="106"/>
-    </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0</v>
-      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="99"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="19">
-        <f>SUM(C45:C46)</f>
+      <c r="C48" s="19">
+        <f>SUM(C46:C47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="100" t="s">
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="31">
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="26" t="s">
-        <v>87</v>
+      <c r="B51" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="C51" s="31">
         <v>0</v>
@@ -8532,528 +8546,512 @@
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="26"/>
-      <c r="B52" s="30" t="s">
-        <v>53</v>
+      <c r="B52" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="C52" s="31">
-        <f>SUM(C49:C51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="31">
+        <f>SUM(C50:C52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-    </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="152"/>
+      <c r="C54" s="153"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C55" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="30" t="s">
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="26"/>
+      <c r="B56" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="31">
-        <f>SUM(C54)</f>
+      <c r="C56" s="31">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="150" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="101"/>
+      <c r="C57" s="102"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="A58" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="111"/>
-      <c r="C56" s="131"/>
-    </row>
-    <row r="57" spans="1:3" ht="33" customHeight="1">
-      <c r="A57" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="C58" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C59" s="34">
+        <f>SUM(C58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="34">
-        <f>SUM(C57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="152" t="s">
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="116"/>
-      <c r="C59" s="128"/>
-    </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="26"/>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="A62" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33" t="s">
+      <c r="C63" s="18">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="34">
-        <f>C62</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="137" t="s">
+      <c r="C64" s="34">
+        <f>C63</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="151"/>
-      <c r="C64" s="139"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="57" t="s">
+      <c r="B65" s="104"/>
+      <c r="C65" s="105"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="59">
+      <c r="C66" s="59">
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="68">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="68">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="60">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="60">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="30" t="s">
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="31">
+      <c r="B69" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="31">
         <v>900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="28"/>
-      <c r="B69" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="39">
-        <f>SUM(C65:C68)</f>
-        <v>2888</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="28"/>
-      <c r="B70" s="53" t="s">
-        <v>58</v>
+      <c r="B70" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="C70" s="39">
-        <f>C35+C43+C47+C52+C55+C58+C63+C69</f>
-        <v>5331</v>
+        <f>SUM(C66:C69)</f>
+        <v>2888</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="137" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="39">
+        <f>C36+C44+C48+C53+C56+C59+C64+C70</f>
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="138"/>
-      <c r="C71" s="139"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="42" t="s">
+      <c r="B72" s="121"/>
+      <c r="C72" s="105"/>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="49">
-        <f>'April 2024 - June 2024'!C77</f>
-        <v>12939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="69" t="s">
-        <v>88</v>
       </c>
       <c r="B73" s="38"/>
       <c r="C73" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="178" t="s">
-        <v>192</v>
-      </c>
+        <f>'April 2024 - June 2024'!C78</f>
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="38"/>
       <c r="C74" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="54"/>
+      <c r="A75" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="89" t="s">
+        <v>184</v>
+      </c>
       <c r="C75" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30">
+      <c r="A76" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="54"/>
+      <c r="C76" s="49">
         <v>326149.51</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="55" t="s">
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="49">
-        <f>SUM(C72:C75)</f>
+      <c r="C77" s="49">
+        <f>SUM(C73:C76)</f>
         <v>339088.51</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="40" t="s">
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="32"/>
+      <c r="B78" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="41">
-        <f>C70</f>
-        <v>5331</v>
-      </c>
-      <c r="H77" s="36"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="C78" s="41">
+        <f>C71</f>
+        <v>5689</v>
+      </c>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="119"/>
-      <c r="E80" s="106"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="144" t="s">
+      <c r="A81" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="99"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="131"/>
-      <c r="C81" s="144" t="s">
+      <c r="B82" s="102"/>
+      <c r="C82" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="131"/>
-      <c r="E81" s="43" t="s">
+      <c r="D82" s="102"/>
+      <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="173"/>
-      <c r="C82" s="176" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="177"/>
-      <c r="E82" s="52">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="177"/>
+      <c r="C83" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="162"/>
+      <c r="E83" s="52">
         <v>12939</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="148"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="164" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="165"/>
-      <c r="E83" s="175">
-        <v>800</v>
-      </c>
-    </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="148" t="s">
+      <c r="A84" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="149"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="155"/>
+      <c r="D84" s="156"/>
       <c r="E84" s="44">
-        <f>C77</f>
-        <v>5331</v>
+        <f>C78</f>
+        <v>5689</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C85" s="153" t="s">
+      <c r="C85" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="119"/>
+      <c r="D85" s="110"/>
       <c r="E85" s="37">
-        <f>(C4+E12)-SUM(E82:E84)</f>
-        <v>24217.270000000004</v>
+        <f>(C4+E12)-SUM(E83:E84)</f>
+        <v>20260.270000000004</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="119"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="106"/>
+      <c r="A87" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="99"/>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="105" t="s">
+      <c r="A88" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="106"/>
-      <c r="C88" s="105" t="s">
+      <c r="B88" s="99"/>
+      <c r="C88" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="167"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="90">
+        <f>E85</f>
+        <v>20260.270000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="180"/>
-      <c r="C89" s="166"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="184">
-        <f>E85</f>
-        <v>24217.270000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="185"/>
-      <c r="C90" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="156"/>
-      <c r="E90" s="188">
+      <c r="B90" s="177"/>
+      <c r="C90" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="162"/>
+      <c r="E90" s="91">
         <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="186"/>
-      <c r="B91" s="181"/>
-      <c r="C91" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="156"/>
-      <c r="E91" s="175">
+      <c r="A91" s="177"/>
+      <c r="B91" s="177"/>
+      <c r="C91" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="162"/>
+      <c r="E91" s="88">
         <v>25000</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="148"/>
-      <c r="B92" s="174"/>
-      <c r="C92" s="155" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92" s="155"/>
-      <c r="E92" s="187">
-        <v>800</v>
+      <c r="A92" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="173"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="65">
+        <f>C78</f>
+        <v>5689</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="182"/>
-      <c r="C93" s="160"/>
-      <c r="D93" s="128"/>
-      <c r="E93" s="65">
-        <f>C77</f>
-        <v>5331</v>
+      <c r="C93" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="99"/>
+      <c r="E93" s="37">
+        <f>(E18+E89)-SUM(E90:E92)</f>
+        <v>23139.270000000004</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C94" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="37">
-        <f>(E18+E89)-SUM(E90:E93)</f>
-        <v>26654.270000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" customHeight="1">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="120"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="108"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="136" t="s">
+      <c r="A97" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="99"/>
+      <c r="C97" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="99"/>
+      <c r="E97" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="127"/>
-      <c r="C97" s="127"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="128"/>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B98" s="106"/>
-      <c r="C98" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="106"/>
-      <c r="E98" s="23" t="s">
-        <v>4</v>
+      <c r="B98" s="167"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="37">
+        <f>E93</f>
+        <v>23139.270000000004</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="180"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="37">
-        <f>E94</f>
-        <v>26654.270000000004</v>
+      <c r="A99" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="160"/>
+      <c r="C99" s="171" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="172"/>
+      <c r="E99" s="73">
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="189" t="s">
-        <v>158</v>
-      </c>
-      <c r="D100" s="159"/>
-      <c r="E100" s="73">
-        <v>88</v>
+      <c r="A100" s="128"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="164"/>
+      <c r="E100" s="52">
+        <v>25000</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="186"/>
-      <c r="B101" s="190"/>
-      <c r="C101" s="179" t="s">
-        <v>172</v>
-      </c>
-      <c r="D101" s="165"/>
-      <c r="E101" s="52">
-        <v>25000</v>
+      <c r="A101" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="173"/>
+      <c r="C101" s="174"/>
+      <c r="D101" s="107"/>
+      <c r="E101" s="76">
+        <f>C78</f>
+        <v>5689</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="148"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="155" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" s="164"/>
+      <c r="C102" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="99"/>
       <c r="E102" s="52">
-        <v>800</v>
+        <f>(E25+E98)-SUM(E99:E101)</f>
+        <v>26321.270000000004</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="182"/>
-      <c r="C103" s="160"/>
-      <c r="D103" s="116"/>
-      <c r="E103" s="76">
-        <f>C77</f>
-        <v>5331</v>
-      </c>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C104" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" s="106"/>
-      <c r="E104" s="52">
-        <f>(E24+E99)-SUM(E100:E103)</f>
-        <v>26989.270000000004</v>
-      </c>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
@@ -12699,22 +12697,42 @@
       <c r="A1015" s="11"/>
       <c r="B1015" s="11"/>
     </row>
-    <row r="1016" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1016" s="11"/>
-      <c r="B1016" s="11"/>
-    </row>
-    <row r="1017" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1017" s="11"/>
-      <c r="B1017" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A92:B92"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A90:B92"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A100:B102"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C11:D11"/>
@@ -12726,45 +12744,15 @@
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A82:B83"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="A99:B100"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12792,7 +12780,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12800,7 +12788,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12808,7 +12796,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
+  <conditionalFormatting sqref="E102">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12823,10 +12811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
-  <dimension ref="A1:Y1010"/>
+  <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:D80"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12843,13 +12831,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12862,7 +12850,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="45">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -12870,8 +12858,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E104</f>
-        <v>26989.270000000004</v>
+        <f>'July 2024 - September 2024'!E102</f>
+        <v>26321.270000000004</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12899,11 +12887,11 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>26989.270000000004</v>
+        <v>26321.270000000004</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -12931,10 +12919,10 @@
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="56">
-        <f>('July 2024 - September 2024'!C5)+SUM(E79,E80,E87,E95)</f>
+        <f>('July 2024 - September 2024'!C5)+SUM(E82,E89,E97)</f>
         <v>-201149.51</v>
       </c>
       <c r="D5" s="6"/>
@@ -12989,13 +12977,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
+      <c r="A8" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="108"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13023,332 +13011,351 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>160</v>
+      <c r="A10" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="C10" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="118"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="48">
-        <f>E10</f>
-        <v>31350</v>
+    <row r="11" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="166"/>
+      <c r="E11" s="66">
+        <v>2405</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="48">
+        <f>SUM(E10:E11)</f>
+        <v>33755</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-    </row>
-    <row r="14" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A14" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="108"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C15" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="17" t="s">
+      <c r="D15" s="99"/>
+      <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="19">
+      <c r="C16" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="19">
         <v>31350</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="166"/>
+      <c r="E17" s="66">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="13">
-        <f>SUM(E15)</f>
-        <v>31350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="E18" s="13">
+        <f>SUM(E16,E17)</f>
+        <v>33755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A20" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="108"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A21" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C21" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="72" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="32" t="s">
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="66">
+      <c r="C22" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="138"/>
+      <c r="E22" s="66">
         <v>33250</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47" t="s">
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="166"/>
+      <c r="E23" s="66">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="48">
-        <v>31350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="E24" s="48">
+        <f>SUM(E22:E23)</f>
+        <v>35655</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="106"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A29" s="170" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="110"/>
+      <c r="C29" s="99"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="106"/>
-    </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="19">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="B31" s="110"/>
+      <c r="C31" s="99"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C34" s="27">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25" t="s">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="29">
-        <f>SUM(C29:C31)</f>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="C35" s="29">
+        <f>SUM(C32:C34)</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
+      <c r="A37" s="145"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="146"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="10">
+      <c r="C38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -13356,575 +13363,583 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="10">
-        <f>SUM(C35:C39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="106"/>
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="10">
+        <f>SUM(C38:C42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="110"/>
+      <c r="C44" s="99"/>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C45" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="19">
-        <f>SUM(C42:C43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="18">
+        <v>21</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="19">
+        <f>SUM(C45:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="152"/>
+      <c r="C48" s="153"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="18">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="31">
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="31">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="31">
         <v>16.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="31">
-        <f>SUM(C46:C48)</f>
-        <v>141.69999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="26"/>
       <c r="B52" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="31">
+        <f>SUM(C49:C51)</f>
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="152"/>
+      <c r="C53" s="153"/>
+    </row>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="31">
-        <f>SUM(C51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="150" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="131"/>
-    </row>
-    <row r="54" spans="1:3" ht="33" customHeight="1">
-      <c r="A54" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="34">
+      <c r="C55" s="31">
         <f>SUM(C54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="101"/>
+      <c r="C56" s="102"/>
+    </row>
+    <row r="57" spans="1:3" ht="33" customHeight="1">
+      <c r="A57" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="34">
+        <f>SUM(C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="128"/>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="26" t="s">
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
+    </row>
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="A61" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="18">
+      <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="18">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="18">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="34">
+        <f>SUM(C60:C62)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="104"/>
+      <c r="C64" s="105"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="59">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="60">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="39">
+        <f>SUM(C65:C68)</f>
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="28"/>
+      <c r="B70" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="39">
+        <f>C35+C43+C47+C52+C55+C58+C63+C69</f>
+        <v>5704.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="121"/>
+      <c r="C71" s="105"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="34">
-        <f>SUM(C57:C59)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="139"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="59">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="78" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="54"/>
+      <c r="C74" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="60">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="31">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="B66" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="39">
-        <f>SUM(C62:C65)</f>
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="39">
-        <f>C32+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>5356.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="49">
+      <c r="B75" s="54"/>
+      <c r="C75" s="49">
         <v>326149.51</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="28"/>
-      <c r="B73" s="55" t="s">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="49">
-        <f>SUM(C69:C72)</f>
+      <c r="C76" s="49">
+        <f>SUM(C72:C75)</f>
         <v>326149.51</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="40" t="s">
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="32"/>
+      <c r="B77" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="41">
-        <f>C67</f>
-        <v>5356.7</v>
-      </c>
-      <c r="H74" s="36"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="105" t="s">
+      <c r="C77" s="41">
+        <f>C70</f>
+        <v>5704.7</v>
+      </c>
+      <c r="H77" s="36"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="110"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="99"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="102"/>
+      <c r="C81" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="102"/>
+      <c r="E81" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="177"/>
+      <c r="C82" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="162"/>
+      <c r="E82" s="52">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="129"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="44">
+        <f>C77</f>
+        <v>5704.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C84" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="110"/>
+      <c r="E84" s="37">
+        <f>(C4+E12)-SUM(E82:E83)</f>
+        <v>29371.570000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="99"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="99"/>
+      <c r="C87" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="99"/>
+      <c r="E87" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="106"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="B88" s="118"/>
+      <c r="C88" s="115"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="37">
+        <f>E84</f>
+        <v>29371.570000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="124"/>
+      <c r="C89" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="176"/>
+      <c r="E89" s="52">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="118"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="65">
+        <f>C77</f>
+        <v>5704.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C91" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="99"/>
+      <c r="E91" s="37">
+        <f>(E18+E88)-SUM(E89:E90)</f>
+        <v>32421.870000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="120"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="108"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="131"/>
-      <c r="C78" s="144" t="s">
+      <c r="B95" s="99"/>
+      <c r="C95" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="131"/>
-      <c r="E78" s="43" t="s">
+      <c r="D95" s="99"/>
+      <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="156"/>
-      <c r="E79" s="52">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="118"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="37">
+        <f>E91</f>
+        <v>32421.870000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="124"/>
+      <c r="C97" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D97" s="125"/>
+      <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="157"/>
-      <c r="B80" s="157"/>
-      <c r="C80" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="165"/>
-      <c r="E80" s="52">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="148" t="s">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="149"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="44">
-        <f>C74</f>
-        <v>5356.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="153" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="119"/>
-      <c r="E82" s="37">
-        <f>(C4+E11)-SUM(E79:E81)</f>
-        <v>27182.570000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="119"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="119"/>
-      <c r="E84" s="106"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="106"/>
-      <c r="C85" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="106"/>
-      <c r="E85" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="37">
-        <f>E82</f>
-        <v>27182.570000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="141"/>
-      <c r="C87" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="169"/>
-      <c r="E87" s="52">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="125"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="65">
-        <f>C74</f>
-        <v>5356.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C89" s="134" t="s">
+      <c r="B98" s="118"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="65">
+        <f>C77</f>
+        <v>5704.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C99" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="106"/>
-      <c r="E89" s="37">
-        <f>(E16+E86)-SUM(E87:E88)</f>
-        <v>28175.870000000006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92" s="127"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="128"/>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="106"/>
-      <c r="C93" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="106"/>
-      <c r="E93" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="37">
-        <f>E89</f>
-        <v>28175.870000000006</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="141"/>
-      <c r="C95" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="103"/>
-      <c r="E95" s="52">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="125"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="65">
-        <f>C74</f>
-        <v>5356.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="106"/>
-      <c r="E97" s="52">
-        <f>(E21+E94)-SUM(E95:E96)</f>
-        <v>29169.170000000009</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="52">
+        <f>(E24+E96)-SUM(E97:E98)</f>
+        <v>37372.170000000013</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
@@ -17570,57 +17585,67 @@
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
     </row>
+    <row r="1011" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1011" s="11"/>
+      <c r="B1011" s="11"/>
+    </row>
+    <row r="1012" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1012" s="11"/>
+      <c r="B1012" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="51">
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17632,7 +17657,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17640,7 +17665,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17648,7 +17673,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17656,7 +17681,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17664,7 +17689,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E99">
     <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17680,8 +17705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17698,13 +17723,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17717,7 +17742,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="45">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -17725,8 +17750,8 @@
         <v>186</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E97</f>
-        <v>29169.170000000009</v>
+        <f>'October 2024 - December 2024'!E99</f>
+        <v>37372.170000000013</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17754,11 +17779,11 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>29169.170000000009</v>
+        <v>37372.170000000013</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17786,7 +17811,7 @@
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="56">
         <f>('October 2024 - December 2024'!C5)+SUM(E79,E86,E94)</f>
@@ -17844,13 +17869,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
+      <c r="A8" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="108"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17878,25 +17903,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="C10" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="118"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17918,13 +17943,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="A13" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="108"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17952,25 +17977,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="106"/>
+      <c r="C15" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="99"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -17995,13 +18020,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
+      <c r="A18" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="108"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18029,25 +18054,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="133"/>
+      <c r="C20" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="138"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18090,11 +18115,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="106"/>
+      <c r="A26" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="99"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18109,28 +18134,28 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="99"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -18151,20 +18176,20 @@
       </c>
       <c r="C32" s="29">
         <f>SUM(C29:C31)</f>
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="146"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18204,7 +18229,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -18222,11 +18247,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="99"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18261,18 +18286,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="153"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="18">
         <v>125</v>
@@ -18281,7 +18306,7 @@
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="31">
         <v>0</v>
@@ -18290,7 +18315,7 @@
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="31">
         <v>16.7</v>
@@ -18299,7 +18324,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="31">
         <f>SUM(C46:C48)</f>
@@ -18307,11 +18332,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18335,18 +18360,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="150" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="131"/>
+      <c r="A53" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="34">
         <v>0</v>
@@ -18355,7 +18380,7 @@
     <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="34">
         <f>SUM(C54)</f>
@@ -18363,15 +18388,15 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="18">
@@ -18380,10 +18405,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="A58" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="18">
         <v>0</v>
@@ -18397,7 +18422,7 @@
         <v>26</v>
       </c>
       <c r="C59" s="18">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
@@ -18407,15 +18432,15 @@
       </c>
       <c r="C60" s="34">
         <f>SUM(C57:C59)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="139"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18430,10 +18455,10 @@
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="68">
         <v>68</v>
@@ -18441,10 +18466,10 @@
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -18455,7 +18480,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="31">
         <v>900</v>
@@ -18474,19 +18499,19 @@
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="39">
         <f>C32+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="105"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18494,13 +18519,13 @@
       </c>
       <c r="B69" s="38"/>
       <c r="C69" s="49">
-        <f>'October 2024 - December 2024'!C69</f>
+        <f>'October 2024 - December 2024'!C72</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="49">
@@ -18509,7 +18534,7 @@
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="54"/>
       <c r="C71" s="49">
@@ -18518,7 +18543,7 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="54"/>
       <c r="C72" s="49">
@@ -18542,7 +18567,7 @@
       </c>
       <c r="C74" s="41">
         <f>C67</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -18555,130 +18580,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="106"/>
+      <c r="A77" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="99"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="131"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="102"/>
+      <c r="C78" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="131"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="91"/>
-      <c r="C79" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="159"/>
+      <c r="A79" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="93"/>
+      <c r="C79" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="172"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="148" t="s">
+      <c r="A80" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="149"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="44">
+      <c r="B80" s="129"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
+      <c r="E80" s="182">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="107"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>30162.470000000012</v>
+        <v>38017.470000000016</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="106"/>
+      <c r="A83" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="99"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="105" t="s">
+      <c r="A84" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="105" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="99"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="167"/>
+      <c r="A85" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="118"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="175"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>30162.470000000012</v>
+        <v>38017.470000000016</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="169"/>
+      <c r="A86" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="124"/>
+      <c r="C86" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="176"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="99"/>
       <c r="E87" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="134" t="s">
+      <c r="C88" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>31155.770000000015</v>
+        <v>38662.770000000019</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18696,72 +18721,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="128"/>
+      <c r="A91" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="105" t="s">
+      <c r="A92" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="105" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="106"/>
+      <c r="A93" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="118"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>31155.770000000015</v>
+        <v>38662.770000000019</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="141"/>
-      <c r="C94" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="103"/>
+      <c r="A94" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="124"/>
+      <c r="C94" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="125"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="99"/>
       <c r="E95" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="134" t="s">
+      <c r="C96" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>32149.070000000018</v>
+        <v>39308.070000000022</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22418,29 +22443,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22454,18 +22468,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22525,8 +22550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22543,13 +22568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22562,7 +22587,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="45">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -22571,7 +22596,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>32149.070000000018</v>
+        <v>41101.070000000022</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22599,11 +22624,11 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>32149.070000000018</v>
+        <v>41101.070000000022</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22631,7 +22656,7 @@
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="56">
         <f>('January 2025 - March 2025'!C5)+SUM(E79,E86,E94)</f>
@@ -22689,13 +22714,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
+      <c r="A8" s="134" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="108"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22723,25 +22748,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="C10" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="118"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22763,13 +22788,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="A13" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="108"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22797,25 +22822,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="106"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="99"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22840,13 +22865,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
+      <c r="A18" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="108"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22874,25 +22899,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="133"/>
+        <v>25</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="138"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22935,11 +22960,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="106"/>
+      <c r="A26" s="170" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="99"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -22954,28 +22979,28 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="99"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -22996,20 +23021,20 @@
       </c>
       <c r="C32" s="29">
         <f>SUM(C29:C31)</f>
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="146"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23049,7 +23074,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -23067,11 +23092,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="99"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23106,18 +23131,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="153"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="18">
         <v>125</v>
@@ -23126,7 +23151,7 @@
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="31">
         <v>0</v>
@@ -23135,7 +23160,7 @@
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="31">
         <v>16.7</v>
@@ -23144,7 +23169,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="31">
         <f>SUM(C46:C48)</f>
@@ -23152,11 +23177,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23180,18 +23205,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="150" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="131"/>
+      <c r="A53" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="34">
         <v>0</v>
@@ -23200,7 +23225,7 @@
     <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="34">
         <f>SUM(C54)</f>
@@ -23208,15 +23233,15 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="18">
@@ -23225,10 +23250,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="A58" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="18">
         <v>0</v>
@@ -23242,7 +23267,7 @@
         <v>26</v>
       </c>
       <c r="C59" s="18">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
@@ -23252,15 +23277,15 @@
       </c>
       <c r="C60" s="34">
         <f>SUM(C57:C59)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="139"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23275,10 +23300,10 @@
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="68">
         <v>68</v>
@@ -23286,10 +23311,10 @@
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -23300,7 +23325,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="31">
         <v>900</v>
@@ -23319,19 +23344,19 @@
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="39">
         <f>C32+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="105"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23345,7 +23370,7 @@
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="49">
@@ -23354,7 +23379,7 @@
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="54"/>
       <c r="C71" s="49">
@@ -23363,7 +23388,7 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="54"/>
       <c r="C72" s="49">
@@ -23387,7 +23412,7 @@
       </c>
       <c r="C74" s="41">
         <f>C67</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -23400,130 +23425,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="106"/>
+      <c r="A77" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="99"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="131"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="102"/>
+      <c r="C78" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="131"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="91"/>
-      <c r="C79" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="159"/>
+      <c r="A79" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="93"/>
+      <c r="C79" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="172"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="148" t="s">
+      <c r="A80" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="149"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="108"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="156"/>
       <c r="E80" s="44">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="110"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>33142.370000000024</v>
+        <v>41746.370000000024</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="106"/>
+      <c r="A83" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="99"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="105" t="s">
+      <c r="A84" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="105" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="99"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="167"/>
+      <c r="A85" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="118"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="175"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>33142.370000000024</v>
+        <v>41746.370000000024</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="169"/>
+      <c r="A86" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="124"/>
+      <c r="C86" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="176"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="99"/>
       <c r="E87" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="134" t="s">
+      <c r="C88" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>34135.670000000027</v>
+        <v>42391.670000000027</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23541,72 +23566,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="128"/>
+      <c r="A91" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="105" t="s">
+      <c r="A92" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="105" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="106"/>
+      <c r="A93" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="118"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>34135.670000000027</v>
+        <v>42391.670000000027</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="141"/>
-      <c r="C94" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="103"/>
+      <c r="A94" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="124"/>
+      <c r="C94" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="125"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="99"/>
       <c r="E95" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="134" t="s">
+      <c r="C96" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>35128.97000000003</v>
+        <v>43036.97000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27263,29 +27288,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27299,18 +27313,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27370,8 +27395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27388,13 +27413,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27407,16 +27432,16 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="35.25" customHeight="1">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>35128.97000000003</v>
+        <v>43036.97000000003</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27444,11 +27469,11 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>35128.97000000003</v>
+        <v>43036.97000000003</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27476,7 +27501,7 @@
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="56">
         <f>('April 2025 - June 2025'!C5)+SUM(E79,E86,E94)</f>
@@ -27534,13 +27559,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="126" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
+      <c r="A8" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="108"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27568,25 +27593,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="C10" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="118"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27608,13 +27633,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="A13" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="108"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27642,25 +27667,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="106"/>
+      <c r="C15" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="99"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27685,13 +27710,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="126" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
+      <c r="A18" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="108"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27719,25 +27744,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="133"/>
+      <c r="C20" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="138"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27780,11 +27805,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="106"/>
+      <c r="A26" s="170" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="99"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27799,28 +27824,28 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="99"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -27841,20 +27866,20 @@
       </c>
       <c r="C32" s="29">
         <f>SUM(C29:C31)</f>
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="146"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27894,7 +27919,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -27912,11 +27937,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="99"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27951,18 +27976,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="153"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="18">
         <v>125</v>
@@ -27971,7 +27996,7 @@
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="31">
         <v>0</v>
@@ -27980,7 +28005,7 @@
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="31">
         <v>16.7</v>
@@ -27989,7 +28014,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="31">
         <f>SUM(C46:C48)</f>
@@ -27997,11 +28022,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28025,18 +28050,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="150" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="131"/>
+      <c r="A53" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="34">
         <v>0</v>
@@ -28045,7 +28070,7 @@
     <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="34">
         <f>SUM(C54)</f>
@@ -28053,15 +28078,15 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="18">
@@ -28070,10 +28095,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="A58" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="18">
         <v>0</v>
@@ -28087,7 +28112,7 @@
         <v>26</v>
       </c>
       <c r="C59" s="18">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
@@ -28097,15 +28122,15 @@
       </c>
       <c r="C60" s="34">
         <f>SUM(C57:C59)</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="139"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28120,10 +28145,10 @@
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="68">
         <v>68</v>
@@ -28131,10 +28156,10 @@
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -28145,7 +28170,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="31">
         <v>900</v>
@@ -28164,19 +28189,19 @@
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="39">
         <f>C32+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="105"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28189,7 +28214,7 @@
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="49">
@@ -28198,7 +28223,7 @@
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="54"/>
       <c r="C71" s="49">
@@ -28207,7 +28232,7 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="54"/>
       <c r="C72" s="49">
@@ -28231,7 +28256,7 @@
       </c>
       <c r="C74" s="41">
         <f>C67</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -28244,132 +28269,132 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="106"/>
+      <c r="A77" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="99"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="131"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="102"/>
+      <c r="C78" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="131"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="156"/>
+      <c r="A79" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="177"/>
+      <c r="C79" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="162"/>
       <c r="E79" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="157" t="s">
+      <c r="A80" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="157"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
+      <c r="B80" s="177"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
       <c r="E80" s="76">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="171" t="s">
+      <c r="C81" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="116"/>
+      <c r="D81" s="107"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>36122.270000000033</v>
+        <v>43682.270000000033</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="106"/>
+      <c r="A83" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="99"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="105" t="s">
+      <c r="A84" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="105" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="99"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="167"/>
+      <c r="A85" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="118"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="175"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>36122.270000000033</v>
+        <v>43682.270000000033</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="169"/>
+      <c r="A86" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="124"/>
+      <c r="C86" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="176"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="99"/>
       <c r="E87" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="134" t="s">
+      <c r="C88" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>37115.570000000036</v>
+        <v>44327.570000000036</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28387,72 +28412,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="128"/>
+      <c r="A91" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="105" t="s">
+      <c r="A92" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="105" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="106"/>
+      <c r="A93" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="118"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>37115.570000000036</v>
+        <v>44327.570000000036</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="141"/>
-      <c r="C94" s="88" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="103"/>
+      <c r="A94" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="124"/>
+      <c r="C94" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="125"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="99"/>
       <c r="E95" s="65">
         <f>C74</f>
-        <v>5356.7</v>
+        <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="134" t="s">
+      <c r="C96" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>61959.360000000037</v>
+        <v>68823.36000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32109,18 +32134,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32134,29 +32170,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0954F-E8B1-4862-A653-47CBB7B74428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6F345-ADDE-4515-82C4-B3FC683AA1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="197">
   <si>
     <t>Assets</t>
   </si>
@@ -570,9 +570,6 @@
     <t>Credit Card Installments/ Government /Expense</t>
   </si>
   <si>
-    <t>1. SmartTone broadband fee</t>
-  </si>
-  <si>
     <t>Hong Kong Government</t>
   </si>
   <si>
@@ -687,7 +684,13 @@
     <t>20th December 2024</t>
   </si>
   <si>
-    <t>6. Mom Salary For 7 days $2000 Per Month - $2400 / 30 days</t>
+    <t>2. Buy Microsoft Surface 13.8 Inches Laptop</t>
+  </si>
+  <si>
+    <t>6. Mom Salary For 7 days $2400 Per Month - $2400 / 30 days</t>
+  </si>
+  <si>
+    <t>1. China Mobile broadband fee</t>
   </si>
 </sst>
 </file>
@@ -1675,29 +1678,65 @@
     <xf numFmtId="167" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1726,102 +1765,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,10 +1786,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,62 +1804,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1924,14 +1909,35 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1944,9 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2410,11 +2413,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="8"/>
       </font>
       <fill>
@@ -2482,6 +2480,11 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2702,7 +2705,7 @@
   <dimension ref="A1:Y1024"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2719,13 +2722,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2746,7 +2749,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>2203.17</v>
+        <v>2533.12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2777,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="5">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2808,7 +2811,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2867,10 +2870,10 @@
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2898,10 +2901,10 @@
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2929,7 +2932,7 @@
     <row r="9" spans="1:25" ht="35.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="5">
         <v>82</v>
@@ -2963,7 +2966,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="56">
-        <v>7.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2995,7 +2998,7 @@
       </c>
       <c r="C11" s="56">
         <f>SUM(C3:C10)</f>
-        <v>2564.27</v>
+        <v>2691.22</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3081,13 +3084,13 @@
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="108"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="120"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3115,10 +3118,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -3130,10 +3133,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="118"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="18">
         <v>2405</v>
       </c>
@@ -3155,13 +3158,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3189,10 +3192,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -3204,10 +3207,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="138"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>2405</v>
       </c>
@@ -3219,10 +3222,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="140"/>
+      <c r="D23" s="131"/>
       <c r="E23" s="66">
         <v>1035</v>
       </c>
@@ -3247,13 +3250,13 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="108"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="120"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3281,10 +3284,10 @@
       <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
@@ -3296,40 +3299,40 @@
       <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="85">
         <v>2405</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.15" customHeight="1">
       <c r="A29" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="C29" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="140"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="66">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="150" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="151"/>
+      <c r="C30" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="133"/>
       <c r="E30" s="87">
         <v>7700</v>
       </c>
@@ -3341,10 +3344,10 @@
       <c r="B31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="149" t="s">
+      <c r="C31" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="149"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="87">
         <v>50</v>
       </c>
@@ -3380,11 +3383,11 @@
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="99"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="101"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="20" t="s">
@@ -3399,11 +3402,11 @@
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="101"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="25" t="s">
@@ -3445,16 +3448,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="144"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="124"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="126"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3503,11 +3506,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="99"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="101"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3542,11 +3545,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3588,11 +3591,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="148" t="s">
+      <c r="A59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="152"/>
-      <c r="C59" s="153"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -3616,11 +3619,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="101"/>
-      <c r="C62" s="102"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="32" t="s">
@@ -3644,11 +3647,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="26" t="s">
@@ -3692,11 +3695,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="103" t="s">
+      <c r="A70" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="105"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="57" t="s">
@@ -3725,7 +3728,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="60">
         <v>0</v>
@@ -3763,11 +3766,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="121"/>
-      <c r="C77" s="105"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="117"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="42" t="s">
@@ -3835,129 +3838,129 @@
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="127"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="159"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="112"/>
-      <c r="C87" s="111" t="s">
+      <c r="B87" s="157"/>
+      <c r="C87" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="112"/>
+      <c r="D87" s="157"/>
       <c r="E87" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="128" t="s">
+      <c r="A88" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="156"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="E88" s="44">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="113" t="s">
+      <c r="C89" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="114"/>
+      <c r="D89" s="162"/>
       <c r="E89" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="110"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="99"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="101"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="99"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="124"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="123"/>
+      <c r="B93" s="155"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="150"/>
       <c r="E93" s="37">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="92" t="s">
+      <c r="A94" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="96" t="s">
+      <c r="B94" s="160"/>
+      <c r="C94" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="125"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="96" t="s">
+      <c r="A95" s="151"/>
+      <c r="B95" s="152"/>
+      <c r="C95" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="154"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="117" t="s">
+      <c r="A96" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="118"/>
-      <c r="C96" s="115" t="s">
+      <c r="B96" s="138"/>
+      <c r="C96" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="116"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="65">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="99"/>
+      <c r="D97" s="101"/>
       <c r="E97" s="37">
         <f>SUM(C3:C10)</f>
-        <v>2564.27</v>
+        <v>2691.22</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -3975,138 +3978,138 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="119" t="s">
+      <c r="A100" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="108"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="120"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="109" t="s">
+      <c r="A101" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="99"/>
-      <c r="C101" s="109" t="s">
+      <c r="B101" s="101"/>
+      <c r="C101" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="99"/>
+      <c r="D101" s="101"/>
       <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="92" t="s">
+      <c r="A102" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="167"/>
-      <c r="C102" s="122"/>
-      <c r="D102" s="99"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="101"/>
       <c r="E102" s="37">
         <f>E97</f>
-        <v>2564.27</v>
+        <v>2691.22</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="158" t="s">
+      <c r="A103" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="160"/>
-      <c r="C103" s="154" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="125"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="99"/>
       <c r="E103" s="52">
         <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="159"/>
-      <c r="B104" s="161"/>
-      <c r="C104" s="154" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="97"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="94"/>
       <c r="E104" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="159"/>
-      <c r="B105" s="161"/>
-      <c r="C105" s="154" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="97"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" s="94"/>
       <c r="E105" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="159"/>
-      <c r="B106" s="161"/>
-      <c r="C106" s="154" t="s">
+      <c r="A106" s="107"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="94"/>
+      <c r="E106" s="52">
+        <v>1182.0999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A107" s="107"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="52">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="159"/>
-      <c r="B107" s="161"/>
-      <c r="C107" s="154" t="s">
-        <v>190</v>
-      </c>
-      <c r="D107" s="97"/>
+      <c r="D107" s="94"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="159"/>
-      <c r="B108" s="161"/>
-      <c r="C108" s="154" t="s">
+      <c r="A108" s="107"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="97"/>
+      <c r="D108" s="94"/>
       <c r="E108" s="52">
         <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="128"/>
-      <c r="B109" s="129"/>
-      <c r="C109" s="154" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="97"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="94"/>
       <c r="E109" s="52">
-        <v>550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="94" t="s">
+      <c r="A110" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="95"/>
-      <c r="C110" s="115"/>
-      <c r="D110" s="116"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="154"/>
       <c r="E110" s="52">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C111" s="98" t="s">
+      <c r="C111" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="99"/>
+      <c r="D111" s="101"/>
       <c r="E111" s="52">
         <f>(E32+E102)-SUM(E103:E110)</f>
-        <v>5133.2700000000004</v>
+        <v>5123.119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
@@ -7763,34 +7766,13 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A100:E100"/>
@@ -7807,68 +7789,89 @@
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A94:B95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="A103:B109"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="70" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="28" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="68" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="66" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="64" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="62" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7879,10 +7882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7899,13 +7902,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7923,11 +7926,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E111</f>
-        <v>5133.2700000000004</v>
+        <v>5123.119999999999</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7959,7 +7962,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>5133.2700000000004</v>
+        <v>5123.119999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7990,7 +7993,7 @@
         <v>148</v>
       </c>
       <c r="C5" s="56">
-        <f>('April 2024 - June 2024'!C12)+SUM(E83,E91,E100)</f>
+        <f>('April 2024 - June 2024'!C12)+SUM(E83,E92,E101)</f>
         <v>-276149.51</v>
       </c>
       <c r="D5" s="6"/>
@@ -8045,13 +8048,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8079,10 +8082,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -8094,10 +8097,10 @@
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -8109,10 +8112,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8134,13 +8137,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="108"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8168,10 +8171,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8183,10 +8186,10 @@
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
@@ -8198,10 +8201,10 @@
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8226,13 +8229,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8260,10 +8263,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8275,10 +8278,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="138"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8290,10 +8293,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="171"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -8303,8 +8306,8 @@
       <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
       <c r="E24" s="66">
         <v>204</v>
       </c>
@@ -8347,11 +8350,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="101"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8366,11 +8369,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="99"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="101"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8412,16 +8415,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="144"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="146"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="126"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8461,7 +8464,7 @@
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="10">
@@ -8479,11 +8482,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="101"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -8518,11 +8521,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="148" t="s">
+      <c r="A49" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="152"/>
-      <c r="C49" s="153"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -8564,11 +8567,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -8592,11 +8595,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -8620,11 +8623,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -8668,11 +8671,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="57" t="s">
@@ -8701,7 +8704,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" s="60">
         <v>420</v>
@@ -8739,11 +8742,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="103" t="s">
+      <c r="A72" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="121"/>
-      <c r="C72" s="105"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="117"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="42" t="s">
@@ -8769,7 +8772,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" s="49">
         <v>0</v>
@@ -8814,240 +8817,247 @@
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="109" t="s">
+      <c r="A81" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="99"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="101"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="102"/>
-      <c r="C82" s="111" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="102"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="177" t="s">
+      <c r="A83" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="177"/>
-      <c r="C83" s="157" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="162"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="164"/>
       <c r="E83" s="52">
         <v>12939</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="128" t="s">
+      <c r="A84" s="109"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="163"/>
+      <c r="E84" s="52">
+        <v>11488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="129"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="44">
+      <c r="B85" s="110"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="44">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C85" s="113" t="s">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C86" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="110"/>
-      <c r="E85" s="37">
-        <f>(C4+E12)-SUM(E83:E84)</f>
-        <v>20260.270000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="109" t="s">
+      <c r="D86" s="128"/>
+      <c r="E86" s="37">
+        <f>(C4+E12)-SUM(E83:E85)</f>
+        <v>8762.1199999999953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="110"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="99"/>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="109" t="s">
+      <c r="B88" s="128"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="101"/>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="99"/>
-      <c r="C88" s="109" t="s">
+      <c r="B89" s="101"/>
+      <c r="C89" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="23" t="s">
+      <c r="D89" s="101"/>
+      <c r="E89" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="92" t="s">
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="167"/>
-      <c r="C89" s="168"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="90">
-        <f>E85</f>
-        <v>20260.270000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="177" t="s">
+      <c r="B90" s="146"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="176"/>
+      <c r="E90" s="90">
+        <f>E86</f>
+        <v>8762.1199999999953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="177"/>
-      <c r="C90" s="162" t="s">
+      <c r="B91" s="174"/>
+      <c r="C91" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="162"/>
-      <c r="E90" s="91">
+      <c r="D91" s="164"/>
+      <c r="E91" s="91">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="177"/>
-      <c r="B91" s="177"/>
-      <c r="C91" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="D91" s="162"/>
-      <c r="E91" s="88">
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="174"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="164"/>
+      <c r="E92" s="88">
         <v>25000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="94" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="173"/>
-      <c r="C92" s="174"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="65">
+      <c r="B93" s="167"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="65">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C93" s="98" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C94" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="37">
-        <f>(E18+E89)-SUM(E90:E92)</f>
-        <v>23139.270000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D94" s="101"/>
+      <c r="E94" s="37">
+        <f>(E18+E90)-SUM(E91:E93)</f>
+        <v>11641.119999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="119" t="s">
+    <row r="96" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="120"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="108"/>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="109" t="s">
+      <c r="B97" s="140"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="120"/>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="99"/>
-      <c r="C97" s="109" t="s">
+      <c r="B98" s="101"/>
+      <c r="C98" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="99"/>
-      <c r="E97" s="23" t="s">
+      <c r="D98" s="101"/>
+      <c r="E98" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="92" t="s">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="167"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="37">
-        <f>E93</f>
-        <v>23139.270000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="158" t="s">
+      <c r="B99" s="146"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="37">
+        <f>E94</f>
+        <v>11641.119999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A100" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B99" s="160"/>
-      <c r="C99" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="D99" s="172"/>
-      <c r="E99" s="73">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="128"/>
-      <c r="B100" s="129"/>
-      <c r="C100" s="163" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" s="164"/>
-      <c r="E100" s="52">
+      <c r="B100" s="106"/>
+      <c r="C100" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="166"/>
+      <c r="E100" s="73">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="109"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="173"/>
+      <c r="E101" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="94" t="s">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A102" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="173"/>
-      <c r="C101" s="174"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="76">
+      <c r="B102" s="167"/>
+      <c r="C102" s="168"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="76">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C102" s="98" t="s">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C103" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D102" s="99"/>
-      <c r="E102" s="52">
-        <f>(E25+E98)-SUM(E99:E101)</f>
-        <v>26321.270000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="52">
+        <f>(E25+E99)-SUM(E100:E102)</f>
+        <v>14833.119999999995</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
       <c r="A104" s="11"/>
@@ -12697,9 +12707,56 @@
       <c r="A1015" s="11"/>
       <c r="B1015" s="11"/>
     </row>
+    <row r="1016" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1016" s="11"/>
+      <c r="B1016" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A37:C38"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
@@ -12711,48 +12768,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A90:B91"/>
-    <mergeCell ref="A99:B100"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12764,7 +12779,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12772,7 +12787,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12780,7 +12795,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12788,7 +12803,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E99">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12796,7 +12811,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12831,13 +12846,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12855,11 +12870,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E102</f>
-        <v>26321.270000000004</v>
+        <f>'July 2024 - September 2024'!E103</f>
+        <v>14833.119999999995</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12891,7 +12906,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>26321.270000000004</v>
+        <v>14833.119999999995</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -12977,13 +12992,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13011,40 +13026,40 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.15" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="66">
         <v>2405</v>
       </c>
@@ -13066,13 +13081,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="108"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13100,40 +13115,40 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="19">
         <v>31350</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="66">
         <v>2405</v>
       </c>
@@ -13158,13 +13173,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13192,40 +13207,40 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="138"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>33250</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.15" customHeight="1">
       <c r="A23" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="171"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -13268,11 +13283,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="101"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -13287,15 +13302,15 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="148" t="s">
+      <c r="A31" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="101"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="19">
@@ -13333,16 +13348,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="146"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="126"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13382,7 +13397,7 @@
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="10">
@@ -13400,11 +13415,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="99"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="101"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13439,11 +13454,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="153"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -13485,11 +13500,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="148" t="s">
+      <c r="A53" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="152"/>
-      <c r="C53" s="153"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -13513,11 +13528,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -13541,11 +13556,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -13589,11 +13604,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="103" t="s">
+      <c r="A64" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="105"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -13622,7 +13637,7 @@
         <v>73</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="60">
         <v>420</v>
@@ -13660,11 +13675,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="103" t="s">
+      <c r="A71" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="121"/>
-      <c r="C71" s="105"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="117"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -13732,130 +13747,130 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="99"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="101"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="111" t="s">
+      <c r="A81" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="111" t="s">
+      <c r="B81" s="114"/>
+      <c r="C81" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="102"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="177" t="s">
+      <c r="A82" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="177"/>
-      <c r="C82" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="162"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="164"/>
       <c r="E82" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="128" t="s">
+      <c r="A83" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="129"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="156"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
       <c r="E83" s="44">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="113" t="s">
+      <c r="C84" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="110"/>
+      <c r="D84" s="128"/>
       <c r="E84" s="37">
         <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>29371.570000000003</v>
+        <v>17883.419999999995</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="99"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="101"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="109" t="s">
+      <c r="A87" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="109" t="s">
+      <c r="B87" s="101"/>
+      <c r="C87" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="99"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="115"/>
-      <c r="D88" s="175"/>
+      <c r="B88" s="138"/>
+      <c r="C88" s="153"/>
+      <c r="D88" s="177"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>29371.570000000003</v>
+        <v>17883.419999999995</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="117" t="s">
+      <c r="A89" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="124"/>
-      <c r="C89" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" s="176"/>
+      <c r="B89" s="155"/>
+      <c r="C89" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="178"/>
       <c r="E89" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="117" t="s">
+      <c r="A90" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="118"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="99"/>
+      <c r="B90" s="138"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="98" t="s">
+      <c r="C91" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="99"/>
+      <c r="D91" s="101"/>
       <c r="E91" s="37">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>32421.870000000006</v>
+        <v>20933.719999999998</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -13873,72 +13888,72 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="119" t="s">
+      <c r="A94" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="108"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="120"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="109" t="s">
+      <c r="A95" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="99"/>
-      <c r="C95" s="109" t="s">
+      <c r="B95" s="101"/>
+      <c r="C95" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="99"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="117" t="s">
+      <c r="A96" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="118"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="99"/>
+      <c r="B96" s="138"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="37">
         <f>E91</f>
-        <v>32421.870000000006</v>
+        <v>20933.719999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="117" t="s">
+      <c r="A97" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="124"/>
-      <c r="C97" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D97" s="125"/>
+      <c r="B97" s="155"/>
+      <c r="C97" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="99"/>
       <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="118"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="99"/>
+      <c r="B98" s="138"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="101"/>
       <c r="E98" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="98" t="s">
+      <c r="C99" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="99"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="52">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>37372.170000000013</v>
+        <v>25884.02</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -17595,6 +17610,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -17611,41 +17661,6 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17705,7 +17720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -17723,13 +17738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17747,11 +17762,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>37372.170000000013</v>
+        <v>25884.02</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17783,7 +17798,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>37372.170000000013</v>
+        <v>25884.02</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17869,13 +17884,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17903,25 +17918,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17943,13 +17958,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17977,25 +17992,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -18020,13 +18035,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="108"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18054,25 +18069,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18115,11 +18130,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18134,15 +18149,15 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
@@ -18180,16 +18195,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="146"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18229,7 +18244,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -18247,11 +18262,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="99"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18286,11 +18301,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="153"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18332,11 +18347,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18360,11 +18375,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18388,11 +18403,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18436,11 +18451,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18469,7 +18484,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -18507,11 +18522,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="105"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18580,130 +18595,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="109" t="s">
+      <c r="A77" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="99"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="111" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="102"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="178" t="s">
+      <c r="A79" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="179" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="172"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="166"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="128" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="129"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
-      <c r="E80" s="182">
+      <c r="B80" s="110"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="92">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="107"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>38017.470000000016</v>
+        <v>26529.320000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="99"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="109" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="109" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="99"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="175"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>38017.470000000016</v>
+        <v>26529.320000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="176"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="178"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="99"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="99"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>38662.770000000019</v>
+        <v>27174.620000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18721,72 +18736,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="108"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="99"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="99"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>38662.770000000019</v>
+        <v>27174.620000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="124"/>
-      <c r="C94" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="125"/>
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="99"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="98" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="99"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>39308.070000000022</v>
+        <v>27819.920000000009</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22443,18 +22458,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22468,29 +22494,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22568,13 +22583,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22592,11 +22607,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>41101.070000000022</v>
+        <v>27819.920000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22628,7 +22643,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>41101.070000000022</v>
+        <v>27819.920000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22714,13 +22729,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22748,25 +22763,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22788,13 +22803,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22822,25 +22837,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22865,13 +22880,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="108"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22899,25 +22914,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22960,11 +22975,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -22979,15 +22994,15 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
@@ -23025,16 +23040,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="146"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23074,7 +23089,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -23092,11 +23107,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="99"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23131,11 +23146,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="153"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23177,11 +23192,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23205,11 +23220,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23233,11 +23248,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23281,11 +23296,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23314,7 +23329,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -23352,11 +23367,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="105"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23425,130 +23440,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="109" t="s">
+      <c r="A77" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="99"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="111" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="102"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="178" t="s">
+      <c r="A79" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="179" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="172"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="166"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="128" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="129"/>
-      <c r="C80" s="155"/>
-      <c r="D80" s="156"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="113" t="s">
+      <c r="C81" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="110"/>
+      <c r="D81" s="128"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>41746.370000000024</v>
+        <v>28465.220000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="99"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="109" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="109" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="99"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="175"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>41746.370000000024</v>
+        <v>28465.220000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="176"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="178"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="99"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="99"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>42391.670000000027</v>
+        <v>29110.520000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23566,72 +23581,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="108"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="99"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="99"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>42391.670000000027</v>
+        <v>29110.520000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="124"/>
-      <c r="C94" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="125"/>
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="99"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="98" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="99"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>43036.97000000003</v>
+        <v>29755.820000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27288,18 +27303,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27313,29 +27339,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27413,13 +27428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27437,11 +27452,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>43036.97000000003</v>
+        <v>29755.820000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27473,7 +27488,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>43036.97000000003</v>
+        <v>29755.820000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27559,13 +27574,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27593,25 +27608,25 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27633,13 +27648,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27667,25 +27682,25 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27710,13 +27725,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="108"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27744,25 +27759,25 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27805,11 +27820,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27824,15 +27839,15 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="19">
@@ -27870,16 +27885,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="146"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27937,11 +27952,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="99"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27976,11 +27991,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="153"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28022,11 +28037,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28050,11 +28065,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -28078,11 +28093,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -28126,11 +28141,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28159,7 +28174,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="60">
         <v>420</v>
@@ -28197,11 +28212,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="105"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28269,47 +28284,47 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="109" t="s">
+      <c r="A77" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="99"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="111" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="102"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="177" t="s">
+      <c r="A79" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="177"/>
-      <c r="C79" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="162"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="164"/>
       <c r="E79" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="177" t="s">
+      <c r="A80" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5704.7</v>
@@ -28318,83 +28333,83 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="107"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>43682.270000000033</v>
+        <v>30401.120000000021</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="99"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="109" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="109" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="99"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="175"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>43682.270000000033</v>
+        <v>30401.120000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="176"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="178"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="99"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="99"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>44327.570000000036</v>
+        <v>31046.420000000024</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28412,72 +28427,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="108"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="109" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="99"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="99"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>44327.570000000036</v>
+        <v>31046.420000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="124"/>
-      <c r="C94" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" s="125"/>
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="99"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="98" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="99"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>68823.36000000003</v>
+        <v>55542.210000000028</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32134,29 +32149,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32170,18 +32174,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6F345-ADDE-4515-82C4-B3FC683AA1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA359B3-70C2-44A9-9FDB-73671EB73F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="198">
   <si>
     <t>Assets</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>1. China Mobile broadband fee</t>
+  </si>
+  <si>
+    <t>3. Additional Expense - Approximately</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1681,14 +1684,179 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1699,22 +1867,10 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1729,194 +1885,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1933,11 +1915,38 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1945,11 +1954,8 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2705,7 +2711,7 @@
   <dimension ref="A1:Y1024"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="C106" sqref="C106:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2722,13 +2728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2749,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>2533.12</v>
+        <v>2408.12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2873,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="56">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2966,7 +2972,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="56">
-        <v>17.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2998,7 +3004,7 @@
       </c>
       <c r="C11" s="56">
         <f>SUM(C3:C10)</f>
-        <v>2691.22</v>
+        <v>2580.2199999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3084,13 +3090,13 @@
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="120"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3118,10 +3124,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -3133,10 +3139,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="138"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="18">
         <v>2405</v>
       </c>
@@ -3158,13 +3164,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3192,10 +3198,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -3207,10 +3213,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>2405</v>
       </c>
@@ -3222,10 +3228,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="131"/>
+      <c r="D23" s="137"/>
       <c r="E23" s="66">
         <v>1035</v>
       </c>
@@ -3250,13 +3256,13 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="120"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3284,10 +3290,10 @@
       <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
@@ -3299,10 +3305,10 @@
       <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="85">
         <v>2405</v>
       </c>
@@ -3314,10 +3320,10 @@
       <c r="B29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="131"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="66">
         <v>150</v>
       </c>
@@ -3329,10 +3335,10 @@
       <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="133"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="87">
         <v>7700</v>
       </c>
@@ -3344,10 +3350,10 @@
       <c r="B31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="129"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="87">
         <v>50</v>
       </c>
@@ -3383,11 +3389,11 @@
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="20" t="s">
@@ -3402,11 +3408,11 @@
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="101"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="95"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="25" t="s">
@@ -3448,16 +3454,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="124"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="126"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3506,11 +3512,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="101"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3545,11 +3551,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3591,11 +3597,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -3619,11 +3625,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="114"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="133"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="32" t="s">
@@ -3647,11 +3653,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="118" t="s">
+      <c r="A65" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="119"/>
-      <c r="C65" s="120"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="109"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="26" t="s">
@@ -3695,11 +3701,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="161"/>
+      <c r="C70" s="112"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="57" t="s">
@@ -3766,11 +3772,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="148"/>
-      <c r="C77" s="117"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="112"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="42" t="s">
@@ -3838,129 +3844,129 @@
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="158"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="159"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="122"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="156" t="s">
+      <c r="A87" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="157"/>
-      <c r="C87" s="156" t="s">
+      <c r="B87" s="97"/>
+      <c r="C87" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="157"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="155"/>
       <c r="E88" s="44">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="161" t="s">
+      <c r="C89" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="162"/>
+      <c r="D89" s="99"/>
       <c r="E89" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="128"/>
-      <c r="C91" s="128"/>
-      <c r="D91" s="128"/>
-      <c r="E91" s="101"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="155"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="150"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="145" t="s">
+      <c r="A94" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="160"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="125"/>
+      <c r="C94" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="151"/>
-      <c r="B95" s="152"/>
-      <c r="C95" s="98" t="s">
+      <c r="A95" s="117"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="93"/>
+      <c r="D95" s="102"/>
       <c r="E95" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="149" t="s">
+      <c r="A96" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="138"/>
-      <c r="C96" s="153" t="s">
+      <c r="B96" s="114"/>
+      <c r="C96" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="154"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="65">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="111" t="s">
+      <c r="C97" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="101"/>
+      <c r="D97" s="95"/>
       <c r="E97" s="37">
         <f>SUM(C3:C10)</f>
-        <v>2691.22</v>
+        <v>2580.2199999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -3978,138 +3984,138 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="147" t="s">
+      <c r="A100" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="140"/>
-      <c r="C100" s="140"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="120"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="109"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="101"/>
-      <c r="C101" s="100" t="s">
+      <c r="B101" s="95"/>
+      <c r="C101" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="101"/>
+      <c r="D101" s="95"/>
       <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="145" t="s">
+      <c r="A102" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="146"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="101"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="95"/>
       <c r="E102" s="37">
         <f>E97</f>
-        <v>2691.22</v>
+        <v>2580.2199999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="106"/>
-      <c r="C103" s="93" t="s">
+      <c r="B103" s="157"/>
+      <c r="C103" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="99"/>
+      <c r="D103" s="120"/>
       <c r="E103" s="52">
         <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="107"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="93" t="s">
+      <c r="A104" s="158"/>
+      <c r="B104" s="159"/>
+      <c r="C104" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="94"/>
+      <c r="D104" s="103"/>
       <c r="E104" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="107"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="93" t="s">
+      <c r="A105" s="158"/>
+      <c r="B105" s="159"/>
+      <c r="C105" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="D105" s="94"/>
+      <c r="D105" s="103"/>
       <c r="E105" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="107"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="93" t="s">
+      <c r="A106" s="158"/>
+      <c r="B106" s="159"/>
+      <c r="C106" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="94"/>
+      <c r="D106" s="103"/>
       <c r="E106" s="52">
-        <v>1182.0999999999999</v>
+        <v>1110.0999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="107"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="93" t="s">
+      <c r="A107" s="158"/>
+      <c r="B107" s="159"/>
+      <c r="C107" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="94"/>
+      <c r="D107" s="103"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="107"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="93" t="s">
+      <c r="A108" s="158"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="94"/>
+      <c r="D108" s="103"/>
       <c r="E108" s="52">
         <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="109"/>
-      <c r="B109" s="110"/>
-      <c r="C109" s="93" t="s">
+      <c r="A109" s="123"/>
+      <c r="B109" s="124"/>
+      <c r="C109" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="94"/>
+      <c r="D109" s="103"/>
       <c r="E109" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="151" t="s">
+      <c r="A110" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="152"/>
-      <c r="C110" s="153"/>
-      <c r="D110" s="154"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="101"/>
       <c r="E110" s="52">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C111" s="111" t="s">
+      <c r="C111" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="101"/>
+      <c r="D111" s="95"/>
       <c r="E111" s="52">
         <f>(E32+E102)-SUM(E103:E110)</f>
-        <v>5123.119999999999</v>
+        <v>5084.119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
@@ -7766,13 +7772,40 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:B109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A100:E100"/>
@@ -7789,40 +7822,13 @@
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A94:B95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:B109"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
@@ -7882,10 +7888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1016"/>
+  <dimension ref="A1:Y1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7902,13 +7908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7930,7 +7936,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E111</f>
-        <v>5123.119999999999</v>
+        <v>5084.119999999999</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7962,7 +7968,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>5123.119999999999</v>
+        <v>5084.119999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7993,7 +7999,7 @@
         <v>148</v>
       </c>
       <c r="C5" s="56">
-        <f>('April 2024 - June 2024'!C12)+SUM(E83,E92,E101)</f>
+        <f>('April 2024 - June 2024'!C12)+SUM(E83,E93,E102)</f>
         <v>-276149.51</v>
       </c>
       <c r="D5" s="6"/>
@@ -8048,13 +8054,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8082,10 +8088,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="114"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -8097,10 +8103,10 @@
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="143"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -8112,10 +8118,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="171"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8137,13 +8143,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8171,10 +8177,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8186,10 +8192,10 @@
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
@@ -8201,10 +8207,10 @@
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="171"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8229,13 +8235,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8263,10 +8269,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8278,10 +8284,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8293,10 +8299,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="171"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -8306,8 +8312,8 @@
       <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="66">
         <v>204</v>
       </c>
@@ -8350,11 +8356,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="169" t="s">
+      <c r="A30" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8369,11 +8375,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="101"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8415,16 +8421,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="142"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="126"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8482,11 +8488,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -8521,11 +8527,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="152"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -8567,11 +8573,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -8595,11 +8601,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="133"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -8623,11 +8629,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -8671,11 +8677,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="112"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="57" t="s">
@@ -8742,11 +8748,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="148"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="112"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="42" t="s">
@@ -8817,32 +8823,32 @@
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="101"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="95"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="156" t="s">
+      <c r="B82" s="133"/>
+      <c r="C82" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="114"/>
+      <c r="D82" s="133"/>
       <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="105" t="s">
+      <c r="A83" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="106"/>
+      <c r="B83" s="157"/>
       <c r="C83" s="163" t="s">
         <v>180</v>
       </c>
@@ -8852,8 +8858,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="109"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="158"/>
+      <c r="B84" s="159"/>
       <c r="C84" s="163" t="s">
         <v>194</v>
       </c>
@@ -8863,205 +8869,212 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="109" t="s">
+      <c r="A85" s="123"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="183" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="166"/>
+      <c r="E85" s="52">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="110"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="44">
+      <c r="B86" s="124"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="155"/>
+      <c r="E86" s="44">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C86" s="161" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C87" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="128"/>
-      <c r="E86" s="37">
-        <f>(C4+E12)-SUM(E83:E85)</f>
-        <v>8762.1199999999953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="100" t="s">
+      <c r="D87" s="94"/>
+      <c r="E87" s="37">
+        <f>(C4+E12)-SUM(E83:E86)</f>
+        <v>8548.1199999999953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="128"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="101"/>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="100" t="s">
+      <c r="B89" s="94"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="95"/>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="101"/>
-      <c r="C89" s="100" t="s">
+      <c r="B90" s="95"/>
+      <c r="C90" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="101"/>
-      <c r="E89" s="23" t="s">
+      <c r="D90" s="95"/>
+      <c r="E90" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="145" t="s">
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="146"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="176"/>
-      <c r="E90" s="90">
-        <f>E86</f>
-        <v>8762.1199999999953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="174" t="s">
+      <c r="B91" s="106"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="90">
+        <f>E87</f>
+        <v>8548.1199999999953</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="174"/>
-      <c r="C91" s="164" t="s">
+      <c r="B92" s="167"/>
+      <c r="C92" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="D91" s="164"/>
-      <c r="E91" s="91">
+      <c r="D92" s="164"/>
+      <c r="E92" s="91">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="174"/>
-      <c r="B92" s="174"/>
-      <c r="C92" s="163" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="167"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="164"/>
-      <c r="E92" s="88">
+      <c r="D93" s="164"/>
+      <c r="E93" s="88">
         <v>25000</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="151" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="167"/>
-      <c r="C93" s="168"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="65">
+      <c r="B94" s="175"/>
+      <c r="C94" s="176"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="65">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C94" s="111" t="s">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C95" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="101"/>
-      <c r="E94" s="37">
-        <f>(E18+E90)-SUM(E91:E93)</f>
-        <v>11641.119999999995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D95" s="95"/>
+      <c r="E95" s="37">
+        <f>(E18+E91)-SUM(E92:E94)</f>
+        <v>11427.119999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="147" t="s">
+    <row r="97" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="140"/>
-      <c r="C97" s="140"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="120"/>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="100" t="s">
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="109"/>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="101"/>
-      <c r="C98" s="100" t="s">
+      <c r="B99" s="95"/>
+      <c r="C99" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="101"/>
-      <c r="E98" s="23" t="s">
+      <c r="D99" s="95"/>
+      <c r="E99" s="23" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="146"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="37">
-        <f>E94</f>
-        <v>11641.119999999995</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="106"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="37">
+        <f>E95</f>
+        <v>11427.119999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="106"/>
-      <c r="C100" s="165" t="s">
+      <c r="B101" s="157"/>
+      <c r="C101" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="166"/>
-      <c r="E100" s="73">
+      <c r="D101" s="174"/>
+      <c r="E101" s="73">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="109"/>
-      <c r="B101" s="110"/>
-      <c r="C101" s="172" t="s">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A102" s="123"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="165" t="s">
         <v>169</v>
       </c>
-      <c r="D101" s="173"/>
-      <c r="E101" s="52">
+      <c r="D102" s="166"/>
+      <c r="E102" s="52">
         <v>25000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="151" t="s">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A103" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="167"/>
-      <c r="C102" s="168"/>
-      <c r="D102" s="119"/>
-      <c r="E102" s="76">
+      <c r="B103" s="175"/>
+      <c r="C103" s="176"/>
+      <c r="D103" s="144"/>
+      <c r="E103" s="76">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C103" s="111" t="s">
+    <row r="104" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C104" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="101"/>
-      <c r="E103" s="52">
-        <f>(E25+E99)-SUM(E100:E102)</f>
-        <v>14833.119999999995</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="D104" s="95"/>
+      <c r="E104" s="52">
+        <f>(E25+E100)-SUM(E101:E103)</f>
+        <v>14619.119999999995</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
@@ -12711,23 +12724,38 @@
       <c r="A1016" s="11"/>
       <c r="B1016" s="11"/>
     </row>
+    <row r="1017" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1017" s="11"/>
+      <c r="B1017" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C92:D92"/>
+  <mergeCells count="56">
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -12744,30 +12772,20 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12779,7 +12797,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12787,7 +12805,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12795,7 +12813,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E95">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12803,7 +12821,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E100">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12811,7 +12829,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12846,13 +12864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12873,8 +12891,8 @@
         <v>185</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E103</f>
-        <v>14833.119999999995</v>
+        <f>'July 2024 - September 2024'!E104</f>
+        <v>14619.119999999995</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12906,7 +12924,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>14833.119999999995</v>
+        <v>14619.119999999995</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -12992,13 +13010,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13026,10 +13044,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -13041,10 +13059,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -13056,10 +13074,10 @@
       <c r="B11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="171"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="66">
         <v>2405</v>
       </c>
@@ -13081,13 +13099,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13115,10 +13133,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -13130,10 +13148,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="19">
         <v>31350</v>
       </c>
@@ -13145,10 +13163,10 @@
       <c r="B17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="171"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="66">
         <v>2405</v>
       </c>
@@ -13173,13 +13191,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13207,10 +13225,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -13222,10 +13240,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>33250</v>
       </c>
@@ -13237,10 +13255,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="171"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -13283,11 +13301,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -13302,11 +13320,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -13348,16 +13366,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="142"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="126"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="145"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13415,11 +13433,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="101"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13454,11 +13472,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -13500,11 +13518,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -13528,11 +13546,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="133"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -13556,11 +13574,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -13604,11 +13622,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="112"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -13675,11 +13693,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="115" t="s">
+      <c r="A71" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="112"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -13747,32 +13765,32 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="100" t="s">
+      <c r="A80" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="128"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="128"/>
-      <c r="E80" s="101"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="95"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="156" t="s">
+      <c r="A81" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="114"/>
-      <c r="C81" s="156" t="s">
+      <c r="B81" s="133"/>
+      <c r="C81" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="114"/>
+      <c r="D81" s="133"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="174" t="s">
+      <c r="A82" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="174"/>
+      <c r="B82" s="167"/>
       <c r="C82" s="163" t="s">
         <v>170</v>
       </c>
@@ -13782,68 +13800,68 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="103"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="155"/>
       <c r="E83" s="44">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="161" t="s">
+      <c r="C84" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="128"/>
+      <c r="D84" s="94"/>
       <c r="E84" s="37">
         <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>17883.419999999995</v>
+        <v>17669.419999999995</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="101"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="95"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="100" t="s">
+      <c r="B87" s="95"/>
+      <c r="C87" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="101"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="149" t="s">
+      <c r="A88" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="153"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="177"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>17883.419999999995</v>
+        <v>17669.419999999995</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="149" t="s">
+      <c r="A89" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="155"/>
-      <c r="C89" s="98" t="s">
+      <c r="B89" s="119"/>
+      <c r="C89" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="178"/>
@@ -13852,25 +13870,25 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="149" t="s">
+      <c r="A90" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="138"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="101"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="95"/>
       <c r="E90" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="111" t="s">
+      <c r="C91" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="101"/>
+      <c r="D91" s="95"/>
       <c r="E91" s="37">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>20933.719999999998</v>
+        <v>20719.719999999998</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -13888,72 +13906,72 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="147" t="s">
+      <c r="A94" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="140"/>
-      <c r="C94" s="140"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="120"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="109"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="100" t="s">
+      <c r="A95" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="101"/>
-      <c r="C95" s="100" t="s">
+      <c r="B95" s="95"/>
+      <c r="C95" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="101"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="149" t="s">
+      <c r="A96" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="138"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="101"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="37">
         <f>E91</f>
-        <v>20933.719999999998</v>
+        <v>20719.719999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="149" t="s">
+      <c r="A97" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="155"/>
-      <c r="C97" s="98" t="s">
+      <c r="B97" s="119"/>
+      <c r="C97" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="99"/>
+      <c r="D97" s="120"/>
       <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="149" t="s">
+      <c r="A98" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="138"/>
-      <c r="C98" s="104"/>
-      <c r="D98" s="101"/>
+      <c r="B98" s="114"/>
+      <c r="C98" s="115"/>
+      <c r="D98" s="95"/>
       <c r="E98" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="111" t="s">
+      <c r="C99" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="101"/>
+      <c r="D99" s="95"/>
       <c r="E99" s="52">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>25884.02</v>
+        <v>25670.02</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -17610,41 +17628,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -17661,6 +17644,41 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17738,13 +17756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17766,7 +17784,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>25884.02</v>
+        <v>25670.02</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17798,7 +17816,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>25884.02</v>
+        <v>25670.02</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17884,13 +17902,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17918,10 +17936,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17933,10 +17951,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17958,13 +17976,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -17992,10 +18010,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -18007,10 +18025,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -18035,13 +18053,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18069,10 +18087,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -18084,10 +18102,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18130,11 +18148,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18149,11 +18167,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -18195,16 +18213,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18262,11 +18280,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18301,11 +18319,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18347,11 +18365,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18375,11 +18393,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18403,11 +18421,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18451,11 +18469,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18522,11 +18540,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18595,103 +18613,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="180" t="s">
+      <c r="B79" s="125"/>
+      <c r="C79" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="166"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="181"/>
-      <c r="D80" s="181"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="179"/>
+      <c r="D80" s="179"/>
       <c r="E80" s="92">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="182" t="s">
+      <c r="C81" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="144"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>26529.320000000003</v>
+        <v>26315.320000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>26529.320000000003</v>
+        <v>26315.320000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="178"/>
@@ -18700,25 +18718,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>27174.620000000006</v>
+        <v>26960.620000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18736,72 +18754,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>27174.620000000006</v>
+        <v>26960.620000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>27819.920000000009</v>
+        <v>27605.920000000009</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22458,29 +22476,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22494,18 +22501,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22583,13 +22601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22611,7 +22629,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>27819.920000000009</v>
+        <v>27605.920000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22643,7 +22661,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>27819.920000000009</v>
+        <v>27605.920000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22729,13 +22747,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22763,10 +22781,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22778,10 +22796,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22803,13 +22821,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22837,10 +22855,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22852,10 +22870,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22880,13 +22898,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22914,10 +22932,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22929,10 +22947,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22975,11 +22993,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -22994,11 +23012,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -23040,16 +23058,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23107,11 +23125,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23146,11 +23164,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23192,11 +23210,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23220,11 +23238,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23248,11 +23266,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23296,11 +23314,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23367,11 +23385,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23440,103 +23458,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="180" t="s">
+      <c r="B79" s="125"/>
+      <c r="C79" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="166"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="154"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="161" t="s">
+      <c r="C81" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="128"/>
+      <c r="D81" s="94"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>28465.220000000012</v>
+        <v>28251.220000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>28465.220000000012</v>
+        <v>28251.220000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="178"/>
@@ -23545,25 +23563,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>29110.520000000015</v>
+        <v>28896.520000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23581,72 +23599,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>29110.520000000015</v>
+        <v>28896.520000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>29755.820000000018</v>
+        <v>29541.820000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27303,29 +27321,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27339,18 +27346,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27428,13 +27446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27456,7 +27474,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>29755.820000000018</v>
+        <v>29541.820000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27488,7 +27506,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>29755.820000000018</v>
+        <v>29541.820000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27574,13 +27592,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27608,10 +27626,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27623,10 +27641,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27648,13 +27666,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27682,10 +27700,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27697,10 +27715,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27725,13 +27743,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27759,10 +27777,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27774,10 +27792,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27820,11 +27838,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27839,11 +27857,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27885,16 +27903,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27952,11 +27970,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27991,11 +28009,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28037,11 +28055,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28065,11 +28083,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -28093,11 +28111,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -28141,11 +28159,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28212,11 +28230,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28284,32 +28302,32 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="174" t="s">
+      <c r="A79" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="174"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="163" t="s">
         <v>170</v>
       </c>
@@ -28319,12 +28337,12 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="174" t="s">
+      <c r="A80" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="174"/>
-      <c r="C80" s="181"/>
-      <c r="D80" s="181"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="179"/>
+      <c r="D80" s="179"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5704.7</v>
@@ -28333,56 +28351,56 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="182" t="s">
+      <c r="C81" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="144"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>30401.120000000021</v>
+        <v>30187.120000000021</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="177"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>30401.120000000021</v>
+        <v>30187.120000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="178"/>
@@ -28391,25 +28409,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>31046.420000000024</v>
+        <v>30832.420000000024</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28427,72 +28445,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>31046.420000000024</v>
+        <v>30832.420000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>55542.210000000028</v>
+        <v>55328.210000000028</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32149,18 +32167,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32174,29 +32203,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA359B3-70C2-44A9-9FDB-73671EB73F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E4754-211B-4B10-933B-3D7CF705091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -1684,179 +1684,14 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1867,10 +1702,22 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,14 +1732,167 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1900,29 +1900,11 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1936,10 +1918,37 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,15 +1956,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:D106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2728,13 +2728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2755,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>2408.12</v>
+        <v>2310.12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2879,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="56">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2972,7 +2972,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="56">
-        <v>9.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C11" s="56">
         <f>SUM(C3:C10)</f>
-        <v>2580.2199999999998</v>
+        <v>2466.2199999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="120"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3124,10 +3124,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -3139,10 +3139,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="18">
         <v>2405</v>
       </c>
@@ -3164,13 +3164,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3198,10 +3198,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -3213,10 +3213,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>2405</v>
       </c>
@@ -3228,10 +3228,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="137"/>
+      <c r="D23" s="131"/>
       <c r="E23" s="66">
         <v>1035</v>
       </c>
@@ -3256,13 +3256,13 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="120"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3290,10 +3290,10 @@
       <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="95"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="85">
         <v>2405</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="B29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="137"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="66">
         <v>150</v>
       </c>
@@ -3335,10 +3335,10 @@
       <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="150"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="87">
         <v>7700</v>
       </c>
@@ -3350,10 +3350,10 @@
       <c r="B31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="148"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="87">
         <v>50</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="101"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="20" t="s">
@@ -3408,11 +3408,11 @@
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="101"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="25" t="s">
@@ -3454,16 +3454,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="124"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="143"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="145"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="126"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3512,11 +3512,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="101"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3551,11 +3551,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3597,11 +3597,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="147" t="s">
+      <c r="A59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="151"/>
-      <c r="C59" s="152"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -3625,11 +3625,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="133"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="32" t="s">
@@ -3653,11 +3653,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="162" t="s">
+      <c r="A65" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="144"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="26" t="s">
@@ -3701,11 +3701,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="112"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="57" t="s">
@@ -3772,11 +3772,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="111"/>
-      <c r="C77" s="112"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="117"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="42" t="s">
@@ -3844,129 +3844,129 @@
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="122"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="159"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="96" t="s">
+      <c r="B87" s="157"/>
+      <c r="C87" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="157"/>
       <c r="E87" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="124"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="155"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="E88" s="44">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="98" t="s">
+      <c r="C89" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="99"/>
+      <c r="D89" s="162"/>
       <c r="E89" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="101"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="119"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="155"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="150"/>
       <c r="E93" s="37">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="160"/>
+      <c r="C94" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="117"/>
-      <c r="B95" s="118"/>
-      <c r="C95" s="153" t="s">
+      <c r="A95" s="151"/>
+      <c r="B95" s="152"/>
+      <c r="C95" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="102"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="100" t="s">
+      <c r="B96" s="138"/>
+      <c r="C96" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="65">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="104" t="s">
+      <c r="C97" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="95"/>
+      <c r="D97" s="101"/>
       <c r="E97" s="37">
         <f>SUM(C3:C10)</f>
-        <v>2580.2199999999998</v>
+        <v>2466.2199999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -3984,138 +3984,138 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="109"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="120"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="93" t="s">
+      <c r="A101" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="95"/>
-      <c r="C101" s="93" t="s">
+      <c r="B101" s="101"/>
+      <c r="C101" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="95"/>
+      <c r="D101" s="101"/>
       <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="105" t="s">
+      <c r="A102" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="106"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="95"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="101"/>
       <c r="E102" s="37">
         <f>E97</f>
-        <v>2580.2199999999998</v>
+        <v>2466.2199999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="156" t="s">
+      <c r="A103" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="157"/>
-      <c r="C103" s="102" t="s">
+      <c r="B103" s="106"/>
+      <c r="C103" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="120"/>
+      <c r="D103" s="99"/>
       <c r="E103" s="52">
         <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="158"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="102" t="s">
+      <c r="A104" s="107"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="103"/>
+      <c r="D104" s="94"/>
       <c r="E104" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="158"/>
-      <c r="B105" s="159"/>
-      <c r="C105" s="102" t="s">
+      <c r="A105" s="107"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="D105" s="103"/>
+      <c r="D105" s="94"/>
       <c r="E105" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="158"/>
-      <c r="B106" s="159"/>
-      <c r="C106" s="102" t="s">
+      <c r="A106" s="107"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="103"/>
+      <c r="D106" s="94"/>
       <c r="E106" s="52">
         <v>1110.0999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="158"/>
-      <c r="B107" s="159"/>
-      <c r="C107" s="102" t="s">
+      <c r="A107" s="107"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="103"/>
+      <c r="D107" s="94"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="158"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="102" t="s">
+      <c r="A108" s="107"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="103"/>
+      <c r="D108" s="94"/>
       <c r="E108" s="52">
         <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="123"/>
-      <c r="B109" s="124"/>
-      <c r="C109" s="102" t="s">
+      <c r="A109" s="109"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="103"/>
+      <c r="D109" s="94"/>
       <c r="E109" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="117" t="s">
+      <c r="A110" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="118"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="101"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="154"/>
       <c r="E110" s="52">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C111" s="104" t="s">
+      <c r="C111" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="95"/>
+      <c r="D111" s="101"/>
       <c r="E111" s="52">
         <f>(E32+E102)-SUM(E103:E110)</f>
-        <v>5084.119999999999</v>
+        <v>4970.119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
@@ -7772,6 +7772,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C107:D107"/>
@@ -7788,47 +7829,6 @@
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
@@ -7890,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7908,13 +7908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E111</f>
-        <v>5084.119999999999</v>
+        <v>4970.119999999999</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>5084.119999999999</v>
+        <v>4970.119999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8088,10 +8088,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -8103,10 +8103,10 @@
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -8118,10 +8118,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8143,13 +8143,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8177,10 +8177,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8192,10 +8192,10 @@
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
@@ -8207,10 +8207,10 @@
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8235,13 +8235,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8269,10 +8269,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8284,10 +8284,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8299,10 +8299,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -8312,8 +8312,8 @@
       <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="66">
         <v>204</v>
       </c>
@@ -8356,11 +8356,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="101"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8375,11 +8375,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="101"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8421,16 +8421,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="143"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="145"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="126"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8488,11 +8488,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="101"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -8527,11 +8527,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -8573,11 +8573,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -8601,11 +8601,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="139"/>
-      <c r="C57" s="133"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -8629,11 +8629,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="162" t="s">
+      <c r="A60" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="144"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -8677,11 +8677,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="112"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="57" t="s">
@@ -8748,11 +8748,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="111"/>
-      <c r="C72" s="112"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="117"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="42" t="s">
@@ -8823,32 +8823,32 @@
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="95"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="101"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="96" t="s">
+      <c r="A82" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="133"/>
-      <c r="C82" s="96" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="133"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="156" t="s">
+      <c r="A83" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="157"/>
+      <c r="B83" s="106"/>
       <c r="C83" s="163" t="s">
         <v>180</v>
       </c>
@@ -8858,8 +8858,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="158"/>
-      <c r="B84" s="159"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="108"/>
       <c r="C84" s="163" t="s">
         <v>194</v>
       </c>
@@ -8869,78 +8869,78 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="123"/>
-      <c r="B85" s="124"/>
-      <c r="C85" s="183" t="s">
+      <c r="A85" s="109"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="165" t="s">
         <v>197</v>
       </c>
       <c r="D85" s="166"/>
       <c r="E85" s="52">
-        <v>175</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="123" t="s">
+      <c r="A86" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="155"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
       <c r="E86" s="44">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="94"/>
+      <c r="D87" s="128"/>
       <c r="E87" s="37">
         <f>(C4+E12)-SUM(E83:E86)</f>
-        <v>8548.1199999999953</v>
+        <v>8324.1199999999953</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="95"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="101"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="93" t="s">
+      <c r="B90" s="101"/>
+      <c r="C90" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="95"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="168"/>
-      <c r="D91" s="169"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="177"/>
       <c r="E91" s="90">
         <f>E87</f>
-        <v>8548.1199999999953</v>
+        <v>8324.1199999999953</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="167" t="s">
+      <c r="A92" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="167"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="164" t="s">
         <v>154</v>
       </c>
@@ -8950,8 +8950,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="167"/>
-      <c r="B93" s="167"/>
+      <c r="A93" s="175"/>
+      <c r="B93" s="175"/>
       <c r="C93" s="163" t="s">
         <v>169</v>
       </c>
@@ -8961,25 +8961,25 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="175"/>
-      <c r="C94" s="176"/>
-      <c r="D94" s="109"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="65">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="104" t="s">
+      <c r="C95" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="95"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="37">
         <f>(E18+E91)-SUM(E92:E94)</f>
-        <v>11427.119999999995</v>
+        <v>11203.119999999995</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -8997,56 +8997,56 @@
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="107" t="s">
+      <c r="A98" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="108"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="109"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="120"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="95"/>
-      <c r="C99" s="93" t="s">
+      <c r="B99" s="101"/>
+      <c r="C99" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="95"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="106"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="95"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="101"/>
       <c r="E100" s="37">
         <f>E95</f>
-        <v>11427.119999999995</v>
+        <v>11203.119999999995</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="156" t="s">
+      <c r="A101" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="157"/>
-      <c r="C101" s="173" t="s">
+      <c r="B101" s="106"/>
+      <c r="C101" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="174"/>
+      <c r="D101" s="168"/>
       <c r="E101" s="73">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="123"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="165" t="s">
+      <c r="A102" s="109"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="174" t="s">
         <v>169</v>
       </c>
       <c r="D102" s="166"/>
@@ -9055,25 +9055,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="117" t="s">
+      <c r="A103" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="175"/>
-      <c r="C103" s="176"/>
-      <c r="D103" s="144"/>
+      <c r="B103" s="169"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="119"/>
       <c r="E103" s="76">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C104" s="104" t="s">
+      <c r="C104" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="95"/>
+      <c r="D104" s="101"/>
       <c r="E104" s="52">
         <f>(E25+E100)-SUM(E101:E103)</f>
-        <v>14619.119999999995</v>
+        <v>14395.119999999995</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
@@ -12730,32 +12730,20 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -12772,20 +12760,32 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="A101:B102"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12864,13 +12864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E104</f>
-        <v>14619.119999999995</v>
+        <v>14395.119999999995</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>14619.119999999995</v>
+        <v>14395.119999999995</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -13010,13 +13010,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13044,10 +13044,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -13059,10 +13059,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -13074,10 +13074,10 @@
       <c r="B11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="66">
         <v>2405</v>
       </c>
@@ -13099,13 +13099,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13133,10 +13133,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -13148,10 +13148,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="19">
         <v>31350</v>
       </c>
@@ -13163,10 +13163,10 @@
       <c r="B17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="66">
         <v>2405</v>
       </c>
@@ -13191,13 +13191,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13225,10 +13225,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -13240,10 +13240,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>33250</v>
       </c>
@@ -13255,10 +13255,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -13301,11 +13301,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="101"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -13320,11 +13320,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="101"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -13366,16 +13366,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="143"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="145"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="126"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13433,11 +13433,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="101"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13472,11 +13472,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="152"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -13518,11 +13518,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="151"/>
-      <c r="C53" s="152"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -13546,11 +13546,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -13574,11 +13574,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="162" t="s">
+      <c r="A59" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="144"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -13622,11 +13622,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="161"/>
-      <c r="C64" s="112"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -13693,11 +13693,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="111"/>
-      <c r="C71" s="112"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="117"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -13765,32 +13765,32 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="95"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="101"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="96" t="s">
+      <c r="B81" s="114"/>
+      <c r="C81" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="133"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="167" t="s">
+      <c r="A82" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="167"/>
+      <c r="B82" s="175"/>
       <c r="C82" s="163" t="s">
         <v>170</v>
       </c>
@@ -13800,95 +13800,95 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="123" t="s">
+      <c r="A83" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="155"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
       <c r="E83" s="44">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="98" t="s">
+      <c r="C84" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="94"/>
+      <c r="D84" s="128"/>
       <c r="E84" s="37">
         <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>17669.419999999995</v>
+        <v>17445.419999999995</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="95"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="101"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="93" t="s">
+      <c r="B87" s="101"/>
+      <c r="C87" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="95"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="177"/>
+      <c r="B88" s="138"/>
+      <c r="C88" s="153"/>
+      <c r="D88" s="178"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>17669.419999999995</v>
+        <v>17445.419999999995</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="119"/>
-      <c r="C89" s="153" t="s">
+      <c r="B89" s="155"/>
+      <c r="C89" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="178"/>
+      <c r="D89" s="179"/>
       <c r="E89" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="113" t="s">
+      <c r="A90" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="95"/>
+      <c r="B90" s="138"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="95"/>
+      <c r="D91" s="101"/>
       <c r="E91" s="37">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>20719.719999999998</v>
+        <v>20495.719999999998</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -13906,72 +13906,72 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="107" t="s">
+      <c r="A94" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="109"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="120"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="95"/>
-      <c r="C95" s="93" t="s">
+      <c r="B95" s="101"/>
+      <c r="C95" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="95"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="115"/>
-      <c r="D96" s="95"/>
+      <c r="B96" s="138"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="37">
         <f>E91</f>
-        <v>20719.719999999998</v>
+        <v>20495.719999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="119"/>
-      <c r="C97" s="153" t="s">
+      <c r="B97" s="155"/>
+      <c r="C97" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="120"/>
+      <c r="D97" s="99"/>
       <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="113" t="s">
+      <c r="A98" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="115"/>
-      <c r="D98" s="95"/>
+      <c r="B98" s="138"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="101"/>
       <c r="E98" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="95"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="52">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>25670.02</v>
+        <v>25446.02</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -17628,6 +17628,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -17644,41 +17679,6 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17756,13 +17756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>25670.02</v>
+        <v>25446.02</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>25670.02</v>
+        <v>25446.02</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17902,13 +17902,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17936,10 +17936,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17951,10 +17951,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17976,13 +17976,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18010,10 +18010,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -18025,10 +18025,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -18053,13 +18053,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18087,10 +18087,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -18102,10 +18102,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18148,11 +18148,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18167,11 +18167,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -18213,16 +18213,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18280,11 +18280,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18319,11 +18319,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18365,11 +18365,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18393,11 +18393,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18421,11 +18421,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18469,11 +18469,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18540,11 +18540,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18613,130 +18613,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="181" t="s">
+      <c r="A79" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="182" t="s">
+      <c r="B79" s="160"/>
+      <c r="C79" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="123" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="179"/>
-      <c r="D80" s="179"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
       <c r="E80" s="92">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="180" t="s">
+      <c r="C81" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="144"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>26315.320000000003</v>
+        <v>26091.320000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="177"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>26315.320000000003</v>
+        <v>26091.320000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="178"/>
+      <c r="D86" s="179"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>26960.620000000006</v>
+        <v>26736.620000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18754,72 +18754,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>26960.620000000006</v>
+        <v>26736.620000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>27605.920000000009</v>
+        <v>27381.920000000009</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22476,18 +22476,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22501,29 +22512,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22601,13 +22601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>27605.920000000009</v>
+        <v>27381.920000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22661,7 +22661,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>27605.920000000009</v>
+        <v>27381.920000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22747,13 +22747,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22781,10 +22781,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22796,10 +22796,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22821,13 +22821,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22855,10 +22855,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22870,10 +22870,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22898,13 +22898,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22932,10 +22932,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22947,10 +22947,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22993,11 +22993,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -23012,11 +23012,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -23058,16 +23058,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23125,11 +23125,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23164,11 +23164,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23210,11 +23210,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23238,11 +23238,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23266,11 +23266,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23314,11 +23314,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23385,11 +23385,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23458,130 +23458,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="181" t="s">
+      <c r="A79" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="182" t="s">
+      <c r="B79" s="160"/>
+      <c r="C79" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="123" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="155"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="94"/>
+      <c r="D81" s="128"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>28251.220000000012</v>
+        <v>28027.220000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="177"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>28251.220000000012</v>
+        <v>28027.220000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="178"/>
+      <c r="D86" s="179"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>28896.520000000015</v>
+        <v>28672.520000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23599,72 +23599,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>28896.520000000015</v>
+        <v>28672.520000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>29541.820000000018</v>
+        <v>29317.820000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27321,18 +27321,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27346,29 +27357,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27446,13 +27446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>29541.820000000018</v>
+        <v>29317.820000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>29541.820000000018</v>
+        <v>29317.820000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27592,13 +27592,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27626,10 +27626,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27641,10 +27641,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27666,13 +27666,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27700,10 +27700,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27715,10 +27715,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27743,13 +27743,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27777,10 +27777,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27792,10 +27792,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27838,11 +27838,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27857,11 +27857,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27903,16 +27903,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27970,11 +27970,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -28009,11 +28009,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28055,11 +28055,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28083,11 +28083,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -28111,11 +28111,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -28159,11 +28159,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28230,11 +28230,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28302,32 +28302,32 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="167" t="s">
+      <c r="A79" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="167"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="163" t="s">
         <v>170</v>
       </c>
@@ -28337,12 +28337,12 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="167" t="s">
+      <c r="A80" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="179"/>
-      <c r="D80" s="179"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5704.7</v>
@@ -28351,83 +28351,83 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="180" t="s">
+      <c r="C81" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="144"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>30187.120000000021</v>
+        <v>29963.120000000021</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="177"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>30187.120000000021</v>
+        <v>29963.120000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="178"/>
+      <c r="D86" s="179"/>
       <c r="E86" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>30832.420000000024</v>
+        <v>30608.420000000024</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28445,72 +28445,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>30832.420000000024</v>
+        <v>30608.420000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>55328.210000000028</v>
+        <v>55104.210000000028</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32167,29 +32167,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32203,18 +32192,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E4754-211B-4B10-933B-3D7CF705091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546111A3-6837-4F4C-95B2-7E3EBF975630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -1684,14 +1684,179 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1702,22 +1867,10 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,167 +1885,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1900,11 +1900,29 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1918,25 +1936,7 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,17 +1945,17 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2728,13 +2728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2755,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>2310.12</v>
+        <v>1910.12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2786,7 +2786,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="5">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2817,7 +2817,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2972,7 +2972,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="56">
-        <v>5.0999999999999996</v>
+        <v>39.1</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C11" s="56">
         <f>SUM(C3:C10)</f>
-        <v>2466.2199999999998</v>
+        <v>2319.2199999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="120"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3124,10 +3124,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -3139,10 +3139,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="138"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="18">
         <v>2405</v>
       </c>
@@ -3164,13 +3164,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3198,10 +3198,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -3213,10 +3213,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>2405</v>
       </c>
@@ -3228,10 +3228,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="131"/>
+      <c r="D23" s="137"/>
       <c r="E23" s="66">
         <v>1035</v>
       </c>
@@ -3256,13 +3256,13 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="120"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3290,10 +3290,10 @@
       <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="85">
         <v>2405</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="B29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="131"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="66">
         <v>150</v>
       </c>
@@ -3335,10 +3335,10 @@
       <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="133"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="87">
         <v>7700</v>
       </c>
@@ -3350,10 +3350,10 @@
       <c r="B31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="129"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="87">
         <v>50</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="20" t="s">
@@ -3408,11 +3408,11 @@
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="101"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="95"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="25" t="s">
@@ -3454,16 +3454,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="124"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="126"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3512,11 +3512,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="101"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3551,11 +3551,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3597,11 +3597,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="96"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -3625,11 +3625,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="114"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="133"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="32" t="s">
@@ -3653,11 +3653,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="118" t="s">
+      <c r="A65" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="119"/>
-      <c r="C65" s="120"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="109"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="26" t="s">
@@ -3701,11 +3701,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="161"/>
+      <c r="C70" s="112"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="57" t="s">
@@ -3772,11 +3772,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="148"/>
-      <c r="C77" s="117"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="112"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="42" t="s">
@@ -3844,129 +3844,129 @@
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="158"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="159"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="122"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="156" t="s">
+      <c r="A87" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="157"/>
-      <c r="C87" s="156" t="s">
+      <c r="B87" s="97"/>
+      <c r="C87" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="157"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="155"/>
       <c r="E88" s="44">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="161" t="s">
+      <c r="C89" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="162"/>
+      <c r="D89" s="99"/>
       <c r="E89" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="128"/>
-      <c r="C91" s="128"/>
-      <c r="D91" s="128"/>
-      <c r="E91" s="101"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="155"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="150"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="37">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="145" t="s">
+      <c r="A94" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="160"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="125"/>
+      <c r="C94" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="151"/>
-      <c r="B95" s="152"/>
-      <c r="C95" s="98" t="s">
+      <c r="A95" s="117"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="93"/>
+      <c r="D95" s="102"/>
       <c r="E95" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="149" t="s">
+      <c r="A96" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="138"/>
-      <c r="C96" s="153" t="s">
+      <c r="B96" s="114"/>
+      <c r="C96" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="154"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="65">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="111" t="s">
+      <c r="C97" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="101"/>
+      <c r="D97" s="95"/>
       <c r="E97" s="37">
         <f>SUM(C3:C10)</f>
-        <v>2466.2199999999998</v>
+        <v>2319.2199999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -3984,138 +3984,138 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="147" t="s">
+      <c r="A100" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="140"/>
-      <c r="C100" s="140"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="120"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="109"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="101"/>
-      <c r="C101" s="100" t="s">
+      <c r="B101" s="95"/>
+      <c r="C101" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="101"/>
+      <c r="D101" s="95"/>
       <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="145" t="s">
+      <c r="A102" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="146"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="101"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="95"/>
       <c r="E102" s="37">
         <f>E97</f>
-        <v>2466.2199999999998</v>
+        <v>2319.2199999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="106"/>
-      <c r="C103" s="93" t="s">
+      <c r="B103" s="157"/>
+      <c r="C103" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="99"/>
+      <c r="D103" s="120"/>
       <c r="E103" s="52">
         <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="107"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="93" t="s">
+      <c r="A104" s="158"/>
+      <c r="B104" s="159"/>
+      <c r="C104" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="94"/>
+      <c r="D104" s="103"/>
       <c r="E104" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="107"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="93" t="s">
+      <c r="A105" s="158"/>
+      <c r="B105" s="159"/>
+      <c r="C105" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="D105" s="94"/>
+      <c r="D105" s="103"/>
       <c r="E105" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="107"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="93" t="s">
+      <c r="A106" s="158"/>
+      <c r="B106" s="159"/>
+      <c r="C106" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="94"/>
+      <c r="D106" s="103"/>
       <c r="E106" s="52">
         <v>1110.0999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="107"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="93" t="s">
+      <c r="A107" s="158"/>
+      <c r="B107" s="159"/>
+      <c r="C107" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="94"/>
+      <c r="D107" s="103"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="107"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="93" t="s">
+      <c r="A108" s="158"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="94"/>
+      <c r="D108" s="103"/>
       <c r="E108" s="52">
         <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="109"/>
-      <c r="B109" s="110"/>
-      <c r="C109" s="93" t="s">
+      <c r="A109" s="123"/>
+      <c r="B109" s="124"/>
+      <c r="C109" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="94"/>
+      <c r="D109" s="103"/>
       <c r="E109" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="151" t="s">
+      <c r="A110" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="152"/>
-      <c r="C110" s="153"/>
-      <c r="D110" s="154"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="101"/>
       <c r="E110" s="52">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C111" s="111" t="s">
+      <c r="C111" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="101"/>
+      <c r="D111" s="95"/>
       <c r="E111" s="52">
         <f>(E32+E102)-SUM(E103:E110)</f>
-        <v>4970.119999999999</v>
+        <v>4823.119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
@@ -7772,13 +7772,40 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:B109"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A100:E100"/>
@@ -7795,40 +7822,13 @@
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A94:B95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:B109"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
@@ -7890,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7908,13 +7908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E111</f>
-        <v>4970.119999999999</v>
+        <v>4823.119999999999</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>4970.119999999999</v>
+        <v>4823.119999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8088,10 +8088,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="114"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -8103,10 +8103,10 @@
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="143"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -8118,10 +8118,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="173"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8143,13 +8143,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8177,10 +8177,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8192,10 +8192,10 @@
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
@@ -8207,10 +8207,10 @@
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8235,13 +8235,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8269,10 +8269,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8284,10 +8284,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8299,10 +8299,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="173"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -8312,8 +8312,8 @@
       <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="66">
         <v>204</v>
       </c>
@@ -8356,11 +8356,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8375,11 +8375,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="101"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8421,16 +8421,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="142"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="126"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8488,11 +8488,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -8527,11 +8527,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="152"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -8573,11 +8573,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -8601,11 +8601,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="133"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -8629,11 +8629,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -8677,11 +8677,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="112"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="57" t="s">
@@ -8748,11 +8748,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="148"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="112"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="42" t="s">
@@ -8823,32 +8823,32 @@
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="101"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="95"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="156" t="s">
+      <c r="B82" s="133"/>
+      <c r="C82" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="114"/>
+      <c r="D82" s="133"/>
       <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="105" t="s">
+      <c r="A83" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="106"/>
+      <c r="B83" s="157"/>
       <c r="C83" s="163" t="s">
         <v>180</v>
       </c>
@@ -8858,8 +8858,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="107"/>
-      <c r="B84" s="108"/>
+      <c r="A84" s="158"/>
+      <c r="B84" s="159"/>
       <c r="C84" s="163" t="s">
         <v>194</v>
       </c>
@@ -8869,78 +8869,78 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="109"/>
-      <c r="B85" s="110"/>
-      <c r="C85" s="165" t="s">
+      <c r="A85" s="123"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="177" t="s">
         <v>197</v>
       </c>
       <c r="D85" s="166"/>
       <c r="E85" s="52">
-        <v>285</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="102"/>
-      <c r="D86" s="103"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="44">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="161" t="s">
+      <c r="C87" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="128"/>
+      <c r="D87" s="94"/>
       <c r="E87" s="37">
         <f>(C4+E12)-SUM(E83:E86)</f>
-        <v>8324.1199999999953</v>
+        <v>8042.1199999999953</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="100" t="s">
+      <c r="A89" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="128"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="101"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="95"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B90" s="101"/>
-      <c r="C90" s="100" t="s">
+      <c r="B90" s="95"/>
+      <c r="C90" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="101"/>
+      <c r="D90" s="95"/>
       <c r="E90" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="145" t="s">
+      <c r="A91" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="146"/>
-      <c r="C91" s="176"/>
-      <c r="D91" s="177"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="169"/>
       <c r="E91" s="90">
         <f>E87</f>
-        <v>8324.1199999999953</v>
+        <v>8042.1199999999953</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="175" t="s">
+      <c r="A92" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="175"/>
+      <c r="B92" s="167"/>
       <c r="C92" s="164" t="s">
         <v>154</v>
       </c>
@@ -8950,8 +8950,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="175"/>
-      <c r="B93" s="175"/>
+      <c r="A93" s="167"/>
+      <c r="B93" s="167"/>
       <c r="C93" s="163" t="s">
         <v>169</v>
       </c>
@@ -8961,25 +8961,25 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="151" t="s">
+      <c r="A94" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="169"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="120"/>
+      <c r="B94" s="175"/>
+      <c r="C94" s="176"/>
+      <c r="D94" s="109"/>
       <c r="E94" s="65">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="101"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="37">
         <f>(E18+E91)-SUM(E92:E94)</f>
-        <v>11203.119999999995</v>
+        <v>10921.119999999995</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -8997,56 +8997,56 @@
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="147" t="s">
+      <c r="A98" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="140"/>
-      <c r="C98" s="140"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="120"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="109"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="100" t="s">
+      <c r="A99" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="101"/>
-      <c r="C99" s="100" t="s">
+      <c r="B99" s="95"/>
+      <c r="C99" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="101"/>
+      <c r="D99" s="95"/>
       <c r="E99" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="145" t="s">
+      <c r="A100" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="146"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="101"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="95"/>
       <c r="E100" s="37">
         <f>E95</f>
-        <v>11203.119999999995</v>
+        <v>10921.119999999995</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="105" t="s">
+      <c r="A101" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="106"/>
-      <c r="C101" s="167" t="s">
+      <c r="B101" s="157"/>
+      <c r="C101" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="168"/>
+      <c r="D101" s="174"/>
       <c r="E101" s="73">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="109"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="174" t="s">
+      <c r="A102" s="123"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="165" t="s">
         <v>169</v>
       </c>
       <c r="D102" s="166"/>
@@ -9055,25 +9055,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="151" t="s">
+      <c r="A103" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="169"/>
-      <c r="C103" s="170"/>
-      <c r="D103" s="119"/>
+      <c r="B103" s="175"/>
+      <c r="C103" s="176"/>
+      <c r="D103" s="144"/>
       <c r="E103" s="76">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C104" s="111" t="s">
+      <c r="C104" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="101"/>
+      <c r="D104" s="95"/>
       <c r="E104" s="52">
         <f>(E25+E100)-SUM(E101:E103)</f>
-        <v>14395.119999999995</v>
+        <v>14113.119999999995</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
@@ -12730,20 +12730,32 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="A101:B102"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -12760,32 +12772,20 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12864,13 +12864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E104</f>
-        <v>14395.119999999995</v>
+        <v>14113.119999999995</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>14395.119999999995</v>
+        <v>14113.119999999995</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -13010,13 +13010,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13044,10 +13044,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -13059,10 +13059,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -13074,10 +13074,10 @@
       <c r="B11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="173"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="66">
         <v>2405</v>
       </c>
@@ -13099,13 +13099,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13133,10 +13133,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -13148,10 +13148,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="19">
         <v>31350</v>
       </c>
@@ -13163,10 +13163,10 @@
       <c r="B17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="66">
         <v>2405</v>
       </c>
@@ -13191,13 +13191,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13225,10 +13225,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -13240,10 +13240,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="66">
         <v>33250</v>
       </c>
@@ -13255,10 +13255,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="173"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -13301,11 +13301,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -13320,11 +13320,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -13366,16 +13366,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="142"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="126"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="145"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13433,11 +13433,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="101"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13472,11 +13472,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -13518,11 +13518,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -13546,11 +13546,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="133"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -13574,11 +13574,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -13622,11 +13622,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="112"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -13693,11 +13693,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="115" t="s">
+      <c r="A71" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="112"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -13765,32 +13765,32 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="100" t="s">
+      <c r="A80" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="128"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="128"/>
-      <c r="E80" s="101"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="95"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="156" t="s">
+      <c r="A81" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="114"/>
-      <c r="C81" s="156" t="s">
+      <c r="B81" s="133"/>
+      <c r="C81" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="114"/>
+      <c r="D81" s="133"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="175" t="s">
+      <c r="A82" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="175"/>
+      <c r="B82" s="167"/>
       <c r="C82" s="163" t="s">
         <v>170</v>
       </c>
@@ -13800,68 +13800,68 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="110"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="103"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="155"/>
       <c r="E83" s="44">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="161" t="s">
+      <c r="C84" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="128"/>
+      <c r="D84" s="94"/>
       <c r="E84" s="37">
         <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>17445.419999999995</v>
+        <v>17163.419999999995</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="100" t="s">
+      <c r="A86" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="101"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="95"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="100" t="s">
+      <c r="A87" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="100" t="s">
+      <c r="B87" s="95"/>
+      <c r="C87" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="101"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="149" t="s">
+      <c r="A88" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="153"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="178"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>17445.419999999995</v>
+        <v>17163.419999999995</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="149" t="s">
+      <c r="A89" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="155"/>
-      <c r="C89" s="98" t="s">
+      <c r="B89" s="119"/>
+      <c r="C89" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="179"/>
@@ -13870,25 +13870,25 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="149" t="s">
+      <c r="A90" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="138"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="101"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="95"/>
       <c r="E90" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="111" t="s">
+      <c r="C91" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="101"/>
+      <c r="D91" s="95"/>
       <c r="E91" s="37">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>20495.719999999998</v>
+        <v>20213.719999999998</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -13906,72 +13906,72 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="147" t="s">
+      <c r="A94" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="140"/>
-      <c r="C94" s="140"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="120"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="109"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="100" t="s">
+      <c r="A95" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="101"/>
-      <c r="C95" s="100" t="s">
+      <c r="B95" s="95"/>
+      <c r="C95" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="101"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="149" t="s">
+      <c r="A96" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="138"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="101"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="37">
         <f>E91</f>
-        <v>20495.719999999998</v>
+        <v>20213.719999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="149" t="s">
+      <c r="A97" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="155"/>
-      <c r="C97" s="98" t="s">
+      <c r="B97" s="119"/>
+      <c r="C97" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="99"/>
+      <c r="D97" s="120"/>
       <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="149" t="s">
+      <c r="A98" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="138"/>
-      <c r="C98" s="104"/>
-      <c r="D98" s="101"/>
+      <c r="B98" s="114"/>
+      <c r="C98" s="115"/>
+      <c r="D98" s="95"/>
       <c r="E98" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="111" t="s">
+      <c r="C99" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="101"/>
+      <c r="D99" s="95"/>
       <c r="E99" s="52">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>25446.02</v>
+        <v>25164.02</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -17628,41 +17628,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -17679,6 +17644,41 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17756,13 +17756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>25446.02</v>
+        <v>25164.02</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>25446.02</v>
+        <v>25164.02</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17902,13 +17902,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17936,10 +17936,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17951,10 +17951,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17976,13 +17976,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18010,10 +18010,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -18025,10 +18025,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -18053,13 +18053,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18087,10 +18087,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -18102,10 +18102,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18148,11 +18148,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18167,11 +18167,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -18213,16 +18213,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18280,11 +18280,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18319,11 +18319,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18365,11 +18365,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18393,11 +18393,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18421,11 +18421,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18469,11 +18469,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18540,11 +18540,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18613,103 +18613,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="180" t="s">
+      <c r="A79" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="181" t="s">
+      <c r="B79" s="125"/>
+      <c r="C79" s="183" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="168"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
       <c r="E80" s="92">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="183" t="s">
+      <c r="C81" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="144"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>26091.320000000003</v>
+        <v>25809.320000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>26091.320000000003</v>
+        <v>25809.320000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -18718,25 +18718,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>26736.620000000006</v>
+        <v>26454.620000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18754,72 +18754,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>26736.620000000006</v>
+        <v>26454.620000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>27381.920000000009</v>
+        <v>27099.920000000009</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22476,29 +22476,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22512,18 +22501,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22583,7 +22583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -22601,13 +22601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>27381.920000000009</v>
+        <v>27099.920000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22661,7 +22661,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>27381.920000000009</v>
+        <v>27099.920000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22747,13 +22747,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22781,10 +22781,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22796,10 +22796,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22821,13 +22821,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22855,10 +22855,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22870,10 +22870,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22898,13 +22898,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22932,10 +22932,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22947,10 +22947,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22993,11 +22993,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -23012,11 +23012,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -23058,16 +23058,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23125,11 +23125,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23164,11 +23164,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23210,11 +23210,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23238,11 +23238,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23266,11 +23266,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23314,11 +23314,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23385,11 +23385,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23458,103 +23458,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="180" t="s">
+      <c r="A79" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="181" t="s">
+      <c r="B79" s="125"/>
+      <c r="C79" s="183" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="168"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="154"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="161" t="s">
+      <c r="C81" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="128"/>
+      <c r="D81" s="94"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>28027.220000000012</v>
+        <v>27745.220000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>28027.220000000012</v>
+        <v>27745.220000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -23563,25 +23563,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>28672.520000000015</v>
+        <v>28390.520000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23599,72 +23599,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>28672.520000000015</v>
+        <v>28390.520000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>29317.820000000018</v>
+        <v>29035.820000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27321,29 +27321,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27357,18 +27346,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27428,7 +27428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -27446,13 +27446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>29317.820000000018</v>
+        <v>29035.820000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>29317.820000000018</v>
+        <v>29035.820000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27592,13 +27592,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27626,10 +27626,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27641,10 +27641,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27666,13 +27666,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27700,10 +27700,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27715,10 +27715,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27743,13 +27743,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27777,10 +27777,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27792,10 +27792,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27838,11 +27838,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27857,11 +27857,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27903,16 +27903,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27970,11 +27970,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -28009,11 +28009,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="152"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28055,11 +28055,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28083,11 +28083,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="133"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -28111,11 +28111,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -28159,11 +28159,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28230,11 +28230,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28302,32 +28302,32 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="101"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="156" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="175" t="s">
+      <c r="A79" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="175"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="163" t="s">
         <v>170</v>
       </c>
@@ -28337,12 +28337,12 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="175" t="s">
+      <c r="A80" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="175"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5704.7</v>
@@ -28351,56 +28351,56 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="183" t="s">
+      <c r="C81" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="119"/>
+      <c r="D81" s="144"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>29963.120000000021</v>
+        <v>29681.120000000021</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="100" t="s">
+      <c r="A84" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="101"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="101"/>
+      <c r="D84" s="95"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>29963.120000000021</v>
+        <v>29681.120000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="149" t="s">
+      <c r="A86" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="119"/>
+      <c r="C86" s="153" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -28409,25 +28409,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="149" t="s">
+      <c r="A87" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="101"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="95"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="111" t="s">
+      <c r="C88" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="101"/>
+      <c r="D88" s="95"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>30608.420000000024</v>
+        <v>30326.420000000024</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28445,72 +28445,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="120"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="101"/>
-      <c r="C92" s="100" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="101"/>
+      <c r="D92" s="95"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="101"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="95"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>30608.420000000024</v>
+        <v>30326.420000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="98" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="99"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="138"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="101"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="95"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>55104.210000000028</v>
+        <v>54822.210000000028</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32167,18 +32167,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32192,29 +32203,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546111A3-6837-4F4C-95B2-7E3EBF975630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91370CF-B4CB-4302-B81B-DA39E10F5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -1684,179 +1684,14 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1867,10 +1702,22 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,14 +1732,167 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1900,29 +1900,11 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1936,7 +1918,25 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,17 +1945,17 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2728,13 +2728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2755,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>1910.12</v>
+        <v>1860.12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2786,7 +2786,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="5">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2817,7 +2817,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2879,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="56">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2972,7 +2972,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="56">
-        <v>39.1</v>
+        <v>35.1</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C11" s="56">
         <f>SUM(C3:C10)</f>
-        <v>2319.2199999999998</v>
+        <v>2188.2199999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="120"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3124,10 +3124,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -3139,10 +3139,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="18">
         <v>2405</v>
       </c>
@@ -3164,13 +3164,13 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3198,10 +3198,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -3213,10 +3213,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>2405</v>
       </c>
@@ -3228,10 +3228,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="137"/>
+      <c r="D23" s="131"/>
       <c r="E23" s="66">
         <v>1035</v>
       </c>
@@ -3256,13 +3256,13 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="120"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3290,10 +3290,10 @@
       <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="95"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="72" t="s">
         <v>4</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="85">
         <v>2405</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="B29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="137"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="66">
         <v>150</v>
       </c>
@@ -3335,10 +3335,10 @@
       <c r="B30" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="150"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="87">
         <v>7700</v>
       </c>
@@ -3350,10 +3350,10 @@
       <c r="B31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="148"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="87">
         <v>50</v>
       </c>
@@ -3389,11 +3389,11 @@
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="101"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="20" t="s">
@@ -3408,11 +3408,11 @@
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="101"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="25" t="s">
@@ -3454,16 +3454,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="124"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="143"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="145"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="126"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3512,11 +3512,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="101"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3551,11 +3551,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3597,11 +3597,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="147" t="s">
+      <c r="A59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="151"/>
-      <c r="C59" s="152"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -3625,11 +3625,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="133"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="32" t="s">
@@ -3653,11 +3653,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="162" t="s">
+      <c r="A65" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="144"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="26" t="s">
@@ -3701,11 +3701,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="112"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="57" t="s">
@@ -3772,11 +3772,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="111"/>
-      <c r="C77" s="112"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="117"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="42" t="s">
@@ -3844,129 +3844,129 @@
       <c r="B85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="121"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="122"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="159"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="96" t="s">
+      <c r="B87" s="157"/>
+      <c r="C87" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="157"/>
       <c r="E87" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="123" t="s">
+      <c r="A88" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="124"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="155"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
       <c r="E88" s="44">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="98" t="s">
+      <c r="C89" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="99"/>
+      <c r="D89" s="162"/>
       <c r="E89" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="101"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="119"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="155"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="150"/>
       <c r="E93" s="37">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="160"/>
+      <c r="C94" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="117"/>
-      <c r="B95" s="118"/>
-      <c r="C95" s="153" t="s">
+      <c r="A95" s="151"/>
+      <c r="B95" s="152"/>
+      <c r="C95" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="102"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="100" t="s">
+      <c r="B96" s="138"/>
+      <c r="C96" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="101"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="65">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="104" t="s">
+      <c r="C97" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="95"/>
+      <c r="D97" s="101"/>
       <c r="E97" s="37">
         <f>SUM(C3:C10)</f>
-        <v>2319.2199999999998</v>
+        <v>2188.2199999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -3984,138 +3984,138 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="109"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="120"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="93" t="s">
+      <c r="A101" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="95"/>
-      <c r="C101" s="93" t="s">
+      <c r="B101" s="101"/>
+      <c r="C101" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="95"/>
+      <c r="D101" s="101"/>
       <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="105" t="s">
+      <c r="A102" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="106"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="95"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="101"/>
       <c r="E102" s="37">
         <f>E97</f>
-        <v>2319.2199999999998</v>
+        <v>2188.2199999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="156" t="s">
+      <c r="A103" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="157"/>
-      <c r="C103" s="102" t="s">
+      <c r="B103" s="106"/>
+      <c r="C103" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="120"/>
+      <c r="D103" s="99"/>
       <c r="E103" s="52">
         <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="158"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="102" t="s">
+      <c r="A104" s="107"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="103"/>
+      <c r="D104" s="94"/>
       <c r="E104" s="52">
         <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="158"/>
-      <c r="B105" s="159"/>
-      <c r="C105" s="102" t="s">
+      <c r="A105" s="107"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="D105" s="103"/>
+      <c r="D105" s="94"/>
       <c r="E105" s="52">
         <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="158"/>
-      <c r="B106" s="159"/>
-      <c r="C106" s="102" t="s">
+      <c r="A106" s="107"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="103"/>
+      <c r="D106" s="94"/>
       <c r="E106" s="52">
         <v>1110.0999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="158"/>
-      <c r="B107" s="159"/>
-      <c r="C107" s="102" t="s">
+      <c r="A107" s="107"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="103"/>
+      <c r="D107" s="94"/>
       <c r="E107" s="52">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="158"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="102" t="s">
+      <c r="A108" s="107"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="103"/>
+      <c r="D108" s="94"/>
       <c r="E108" s="52">
         <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="123"/>
-      <c r="B109" s="124"/>
-      <c r="C109" s="102" t="s">
+      <c r="A109" s="109"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="103"/>
+      <c r="D109" s="94"/>
       <c r="E109" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="117" t="s">
+      <c r="A110" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="118"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="101"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="154"/>
       <c r="E110" s="52">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C111" s="104" t="s">
+      <c r="C111" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="95"/>
+      <c r="D111" s="101"/>
       <c r="E111" s="52">
         <f>(E32+E102)-SUM(E103:E110)</f>
-        <v>4823.119999999999</v>
+        <v>4692.119999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
@@ -7772,6 +7772,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C107:D107"/>
@@ -7788,47 +7829,6 @@
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
@@ -7890,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7908,13 +7908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E111</f>
-        <v>4823.119999999999</v>
+        <v>4692.119999999999</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>4823.119999999999</v>
+        <v>4692.119999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -8088,10 +8088,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="72" t="s">
         <v>4</v>
       </c>
@@ -8103,10 +8103,10 @@
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="34">
         <v>2405</v>
       </c>
@@ -8118,10 +8118,10 @@
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="34">
         <v>31350</v>
       </c>
@@ -8143,13 +8143,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -8177,10 +8177,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -8192,10 +8192,10 @@
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="82">
         <v>2405</v>
       </c>
@@ -8207,10 +8207,10 @@
       <c r="B17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="83">
         <v>31350</v>
       </c>
@@ -8235,13 +8235,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -8269,10 +8269,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -8284,10 +8284,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>31350</v>
       </c>
@@ -8299,10 +8299,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -8312,8 +8312,8 @@
       <c r="B24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="66">
         <v>204</v>
       </c>
@@ -8356,11 +8356,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="101"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8375,11 +8375,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="101"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8421,16 +8421,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="143"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="145"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="126"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8488,11 +8488,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="101"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -8527,11 +8527,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -8573,11 +8573,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -8601,11 +8601,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="139"/>
-      <c r="C57" s="133"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -8629,11 +8629,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="162" t="s">
+      <c r="A60" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="144"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -8677,11 +8677,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="112"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="57" t="s">
@@ -8748,11 +8748,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="111"/>
-      <c r="C72" s="112"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="117"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="42" t="s">
@@ -8823,32 +8823,32 @@
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="95"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="101"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="96" t="s">
+      <c r="A82" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="133"/>
-      <c r="C82" s="96" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="133"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="156" t="s">
+      <c r="A83" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="157"/>
+      <c r="B83" s="106"/>
       <c r="C83" s="163" t="s">
         <v>180</v>
       </c>
@@ -8858,8 +8858,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="158"/>
-      <c r="B84" s="159"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="108"/>
       <c r="C84" s="163" t="s">
         <v>194</v>
       </c>
@@ -8869,78 +8869,78 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="123"/>
-      <c r="B85" s="124"/>
-      <c r="C85" s="177" t="s">
+      <c r="A85" s="109"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="165" t="s">
         <v>197</v>
       </c>
       <c r="D85" s="166"/>
       <c r="E85" s="52">
-        <v>420</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="123" t="s">
+      <c r="A86" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="155"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
       <c r="E86" s="44">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="94"/>
+      <c r="D87" s="128"/>
       <c r="E87" s="37">
         <f>(C4+E12)-SUM(E83:E86)</f>
-        <v>8042.1199999999953</v>
+        <v>7784.1199999999953</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="95"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="101"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="93" t="s">
+      <c r="B90" s="101"/>
+      <c r="C90" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="95"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="106"/>
-      <c r="C91" s="168"/>
-      <c r="D91" s="169"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="177"/>
       <c r="E91" s="90">
         <f>E87</f>
-        <v>8042.1199999999953</v>
+        <v>7784.1199999999953</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="167" t="s">
+      <c r="A92" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="167"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="164" t="s">
         <v>154</v>
       </c>
@@ -8950,8 +8950,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="167"/>
-      <c r="B93" s="167"/>
+      <c r="A93" s="175"/>
+      <c r="B93" s="175"/>
       <c r="C93" s="163" t="s">
         <v>169</v>
       </c>
@@ -8961,25 +8961,25 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="175"/>
-      <c r="C94" s="176"/>
-      <c r="D94" s="109"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="65">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="104" t="s">
+      <c r="C95" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="95"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="37">
         <f>(E18+E91)-SUM(E92:E94)</f>
-        <v>10921.119999999995</v>
+        <v>10663.119999999995</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -8997,56 +8997,56 @@
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="107" t="s">
+      <c r="A98" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="108"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="109"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="120"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="95"/>
-      <c r="C99" s="93" t="s">
+      <c r="B99" s="101"/>
+      <c r="C99" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="95"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="106"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="95"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="101"/>
       <c r="E100" s="37">
         <f>E95</f>
-        <v>10921.119999999995</v>
+        <v>10663.119999999995</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="156" t="s">
+      <c r="A101" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="157"/>
-      <c r="C101" s="173" t="s">
+      <c r="B101" s="106"/>
+      <c r="C101" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="174"/>
+      <c r="D101" s="168"/>
       <c r="E101" s="73">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="123"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="165" t="s">
+      <c r="A102" s="109"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="174" t="s">
         <v>169</v>
       </c>
       <c r="D102" s="166"/>
@@ -9055,25 +9055,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="117" t="s">
+      <c r="A103" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="175"/>
-      <c r="C103" s="176"/>
-      <c r="D103" s="144"/>
+      <c r="B103" s="169"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="119"/>
       <c r="E103" s="76">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C104" s="104" t="s">
+      <c r="C104" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="95"/>
+      <c r="D104" s="101"/>
       <c r="E104" s="52">
         <f>(E25+E100)-SUM(E101:E103)</f>
-        <v>14113.119999999995</v>
+        <v>13855.119999999995</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
@@ -12730,32 +12730,20 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -12772,20 +12760,32 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="A101:B102"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12864,13 +12864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E104</f>
-        <v>14113.119999999995</v>
+        <v>13855.119999999995</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C4" s="56">
         <f>SUM(C3:C3)</f>
-        <v>14113.119999999995</v>
+        <v>13855.119999999995</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -13010,13 +13010,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -13044,10 +13044,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -13059,10 +13059,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -13074,10 +13074,10 @@
       <c r="B11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="66">
         <v>2405</v>
       </c>
@@ -13099,13 +13099,13 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="120"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -13133,10 +13133,10 @@
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -13148,10 +13148,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="19">
         <v>31350</v>
       </c>
@@ -13163,10 +13163,10 @@
       <c r="B17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="66">
         <v>2405</v>
       </c>
@@ -13191,13 +13191,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -13225,10 +13225,10 @@
       <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
@@ -13240,10 +13240,10 @@
       <c r="B22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="66">
         <v>33250</v>
       </c>
@@ -13255,10 +13255,10 @@
       <c r="B23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="66">
         <v>2405</v>
       </c>
@@ -13301,11 +13301,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="101"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -13320,11 +13320,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="101"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -13366,16 +13366,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="143"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="145"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="126"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13433,11 +13433,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="101"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13472,11 +13472,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="152"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -13518,11 +13518,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="151"/>
-      <c r="C53" s="152"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -13546,11 +13546,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -13574,11 +13574,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="162" t="s">
+      <c r="A59" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="144"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -13622,11 +13622,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="161"/>
-      <c r="C64" s="112"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="57" t="s">
@@ -13693,11 +13693,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="111"/>
-      <c r="C71" s="112"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="117"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -13765,32 +13765,32 @@
       <c r="B79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="95"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="101"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="96" t="s">
+      <c r="B81" s="114"/>
+      <c r="C81" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="133"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="167" t="s">
+      <c r="A82" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="167"/>
+      <c r="B82" s="175"/>
       <c r="C82" s="163" t="s">
         <v>170</v>
       </c>
@@ -13800,68 +13800,68 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="123" t="s">
+      <c r="A83" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="155"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
       <c r="E83" s="44">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="98" t="s">
+      <c r="C84" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="94"/>
+      <c r="D84" s="128"/>
       <c r="E84" s="37">
         <f>(C4+E12)-SUM(E82:E83)</f>
-        <v>17163.419999999995</v>
+        <v>16905.419999999995</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="95"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="101"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="93" t="s">
+      <c r="B87" s="101"/>
+      <c r="C87" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="95"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="100"/>
+      <c r="B88" s="138"/>
+      <c r="C88" s="153"/>
       <c r="D88" s="178"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>17163.419999999995</v>
+        <v>16905.419999999995</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="119"/>
-      <c r="C89" s="153" t="s">
+      <c r="B89" s="155"/>
+      <c r="C89" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="179"/>
@@ -13870,25 +13870,25 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="113" t="s">
+      <c r="A90" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="95"/>
+      <c r="B90" s="138"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="95"/>
+      <c r="D91" s="101"/>
       <c r="E91" s="37">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>20213.719999999998</v>
+        <v>19955.719999999998</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -13906,72 +13906,72 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="107" t="s">
+      <c r="A94" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="109"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="120"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="95"/>
-      <c r="C95" s="93" t="s">
+      <c r="B95" s="101"/>
+      <c r="C95" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="95"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="115"/>
-      <c r="D96" s="95"/>
+      <c r="B96" s="138"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="37">
         <f>E91</f>
-        <v>20213.719999999998</v>
+        <v>19955.719999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="119"/>
-      <c r="C97" s="153" t="s">
+      <c r="B97" s="155"/>
+      <c r="C97" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="120"/>
+      <c r="D97" s="99"/>
       <c r="E97" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="113" t="s">
+      <c r="A98" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="115"/>
-      <c r="D98" s="95"/>
+      <c r="B98" s="138"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="101"/>
       <c r="E98" s="65">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="95"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="52">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>25164.02</v>
+        <v>24906.02</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -17628,6 +17628,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -17644,41 +17679,6 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17756,13 +17756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>25164.02</v>
+        <v>24906.02</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>25164.02</v>
+        <v>24906.02</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -17902,13 +17902,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -17936,10 +17936,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -17951,10 +17951,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -17976,13 +17976,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18010,10 +18010,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -18025,10 +18025,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -18053,13 +18053,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18087,10 +18087,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -18102,10 +18102,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -18148,11 +18148,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -18167,11 +18167,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -18213,16 +18213,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18280,11 +18280,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18319,11 +18319,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18365,11 +18365,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18393,11 +18393,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -18421,11 +18421,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -18469,11 +18469,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -18540,11 +18540,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -18613,103 +18613,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="182" t="s">
+      <c r="A79" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="183" t="s">
+      <c r="B79" s="160"/>
+      <c r="C79" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="123" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
       <c r="E80" s="92">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="144"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>25809.320000000003</v>
+        <v>25551.320000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>25809.320000000003</v>
+        <v>25551.320000000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -18718,25 +18718,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>26454.620000000006</v>
+        <v>26196.620000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18754,72 +18754,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>26454.620000000006</v>
+        <v>26196.620000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>27099.920000000009</v>
+        <v>26841.920000000009</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22476,18 +22476,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22501,29 +22512,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22601,13 +22601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>27099.920000000009</v>
+        <v>26841.920000000009</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22661,7 +22661,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>27099.920000000009</v>
+        <v>26841.920000000009</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -22747,13 +22747,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -22781,10 +22781,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -22796,10 +22796,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -22821,13 +22821,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -22855,10 +22855,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -22870,10 +22870,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -22898,13 +22898,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -22932,10 +22932,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -22947,10 +22947,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -22993,11 +22993,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -23012,11 +23012,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -23058,16 +23058,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23125,11 +23125,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23164,11 +23164,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23210,11 +23210,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23238,11 +23238,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -23266,11 +23266,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -23314,11 +23314,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -23385,11 +23385,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -23458,103 +23458,103 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="182" t="s">
+      <c r="A79" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="183" t="s">
+      <c r="B79" s="160"/>
+      <c r="C79" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="73">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="123" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="155"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="94"/>
+      <c r="D81" s="128"/>
       <c r="E81" s="37">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>27745.220000000012</v>
+        <v>27487.220000000012</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>27745.220000000012</v>
+        <v>27487.220000000012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -23563,25 +23563,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>28390.520000000015</v>
+        <v>28132.520000000015</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23599,72 +23599,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>28390.520000000015</v>
+        <v>28132.520000000015</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>29035.820000000018</v>
+        <v>28777.820000000018</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27321,18 +27321,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27346,29 +27357,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27446,13 +27446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>29035.820000000018</v>
+        <v>28777.820000000018</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(C3:C3)</f>
-        <v>29035.820000000018</v>
+        <v>28777.820000000018</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -27592,13 +27592,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -27626,10 +27626,10 @@
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="95"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -27641,10 +27641,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="18">
         <v>31350</v>
       </c>
@@ -27666,13 +27666,13 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="120"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -27700,10 +27700,10 @@
       <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -27715,10 +27715,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="19">
         <v>31350</v>
       </c>
@@ -27743,13 +27743,13 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="120"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -27777,10 +27777,10 @@
       <c r="B19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="72" t="s">
         <v>4</v>
       </c>
@@ -27792,10 +27792,10 @@
       <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="66">
         <v>31350</v>
       </c>
@@ -27838,11 +27838,11 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -27857,11 +27857,11 @@
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="25" t="s">
@@ -27903,16 +27903,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -27970,11 +27970,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="101"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -28009,11 +28009,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28055,11 +28055,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28083,11 +28083,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="32" t="s">
@@ -28111,11 +28111,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="26" t="s">
@@ -28159,11 +28159,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="112"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="57" t="s">
@@ -28230,11 +28230,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="117"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="42" t="s">
@@ -28302,32 +28302,32 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="101"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="96" t="s">
+      <c r="A78" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="96" t="s">
+      <c r="B78" s="114"/>
+      <c r="C78" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="133"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="167" t="s">
+      <c r="A79" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="167"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="163" t="s">
         <v>170</v>
       </c>
@@ -28337,12 +28337,12 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="167" t="s">
+      <c r="A80" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
       <c r="E80" s="76">
         <f>C74</f>
         <v>5704.7</v>
@@ -28351,56 +28351,56 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="74"/>
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="144"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="75">
         <f>(C4+E11)-SUM(E79:E80)</f>
-        <v>29681.120000000021</v>
+        <v>29423.120000000021</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="101"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="93" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="101"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="100"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="153"/>
       <c r="D85" s="178"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>29681.120000000021</v>
+        <v>29423.120000000021</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="153" t="s">
+      <c r="B86" s="155"/>
+      <c r="C86" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="179"/>
@@ -28409,25 +28409,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="95"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="101"/>
       <c r="E87" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="37">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>30326.420000000024</v>
+        <v>30068.420000000024</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28445,72 +28445,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="93" t="s">
+      <c r="B92" s="101"/>
+      <c r="C92" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="95"/>
+      <c r="D92" s="101"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>30326.420000000024</v>
+        <v>30068.420000000024</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="153" t="s">
+      <c r="B94" s="155"/>
+      <c r="C94" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="120"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="52">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="115"/>
-      <c r="D95" s="95"/>
+      <c r="B95" s="138"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="101"/>
       <c r="E95" s="65">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="95"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="52">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>54822.210000000028</v>
+        <v>54564.210000000028</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32167,29 +32167,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32203,18 +32192,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB07F8-2474-460B-B789-4D0043817376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A532F5D-4E71-4513-9371-D2BBF15B020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="231">
   <si>
     <t>Assets</t>
   </si>
@@ -1540,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1841,176 +1841,17 @@
     <xf numFmtId="168" fontId="34" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2022,6 +1863,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2039,6 +1886,9 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,11 +1901,23 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,8 +1925,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2078,29 +1949,155 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2114,14 +2111,26 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,23 +2138,23 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2721,126 +2730,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3054,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3073,31 +2962,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="100"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:25" ht="21">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="166" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="97" t="s">
         <v>1</v>
       </c>
@@ -3475,18 +3364,13 @@
       <c r="B12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="55">
-        <f>-C82+SUM(E95,E107)</f>
-        <v>-339088.51</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="55">
-        <f>C82</f>
-        <v>344088.51</v>
-      </c>
+      <c r="C12" s="200">
+        <f>-C82</f>
+        <v>-344088.51</v>
+      </c>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
       <c r="G12" s="6"/>
       <c r="H12" s="98" t="s">
         <v>212</v>
@@ -3554,13 +3438,13 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="128"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="G15" s="13"/>
       <c r="H15" s="98" t="s">
         <v>215</v>
@@ -3593,10 +3477,10 @@
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
@@ -3615,10 +3499,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="168"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="17">
         <v>2405</v>
       </c>
@@ -3661,13 +3545,13 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="30" customHeight="1">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="128"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="G20" s="13"/>
       <c r="H20" s="98" t="s">
         <v>220</v>
@@ -3700,10 +3584,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -3715,17 +3599,17 @@
       <c r="B22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="173"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="65">
         <v>2405</v>
       </c>
-      <c r="H22" s="196" t="s">
+      <c r="H22" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="197"/>
+      <c r="I22" s="103"/>
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3734,10 +3618,10 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="141"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="65">
         <v>1035</v>
       </c>
@@ -3762,7 +3646,7 @@
       <c r="H24" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="I24" s="199">
+      <c r="I24" s="101">
         <f>-C82</f>
         <v>-344088.51</v>
       </c>
@@ -3776,24 +3660,24 @@
       <c r="H25" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="199">
+      <c r="I25" s="101">
         <f>(-C82+SUM(E95,E107))</f>
         <v>-339088.51</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="30" customHeight="1">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="128"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="198" t="s">
+      <c r="H26" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="199">
+      <c r="I26" s="101">
         <f>('July 2024 - September 2024'!C5)</f>
         <v>-276149.51</v>
       </c>
@@ -3821,17 +3705,17 @@
       <c r="B27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="170" t="s">
+      <c r="C27" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="106"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="71" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="I27" s="199">
+      <c r="I27" s="101">
         <f>('October 2024 - December 2024'!C5)</f>
         <v>-201149.51</v>
       </c>
@@ -3843,17 +3727,17 @@
       <c r="B28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="121"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="84">
         <v>2405</v>
       </c>
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="199">
+      <c r="I28" s="101">
         <f>('January 2025 - March 2025'!C5)</f>
         <v>-126149.51000000001</v>
       </c>
@@ -3865,17 +3749,17 @@
       <c r="B29" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="141"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="65">
         <v>150</v>
       </c>
-      <c r="H29" s="198" t="s">
+      <c r="H29" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="199">
+      <c r="I29" s="101">
         <f>('April 2025 - June 2025'!C5)</f>
         <v>-51149.510000000009</v>
       </c>
@@ -3887,17 +3771,17 @@
       <c r="B30" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="143"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="86">
         <v>7700</v>
       </c>
-      <c r="H30" s="198" t="s">
+      <c r="H30" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="199">
+      <c r="I30" s="101">
         <f>('July 2025 - September 2025'!C5)</f>
         <v>0</v>
       </c>
@@ -3909,10 +3793,10 @@
       <c r="B31" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="86">
         <v>50</v>
       </c>
@@ -3950,11 +3834,11 @@
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="123"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="19" t="s">
@@ -3969,11 +3853,11 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="123"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="24" t="s">
@@ -4015,16 +3899,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="176"/>
-      <c r="C43" s="177"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="178"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="179"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="137"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -4073,11 +3957,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="123"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -4112,11 +3996,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="177"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -4158,11 +4042,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="177"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -4186,11 +4070,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="122"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="125"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="31" t="s">
@@ -4214,11 +4098,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="121"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="25" t="s">
@@ -4262,11 +4146,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="125"/>
+      <c r="B70" s="169"/>
+      <c r="C70" s="144"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="56" t="s">
@@ -4333,11 +4217,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="148"/>
-      <c r="C77" s="125"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="144"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="41" t="s">
@@ -4405,44 +4289,44 @@
       <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="152" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="129"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="130"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="157"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="134" t="s">
+      <c r="A87" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="134" t="s">
+      <c r="B87" s="159"/>
+      <c r="C87" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="135"/>
+      <c r="D87" s="159"/>
       <c r="E87" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="132"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="118"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="182"/>
       <c r="E88" s="43">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="136" t="s">
+      <c r="C89" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="137"/>
+      <c r="D89" s="173"/>
       <c r="E89" s="36">
         <f>I3</f>
         <v>0</v>
@@ -4450,88 +4334,88 @@
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="116" t="s">
+      <c r="A91" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="133"/>
-      <c r="C91" s="133"/>
-      <c r="D91" s="133"/>
-      <c r="E91" s="106"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="164"/>
+      <c r="D91" s="164"/>
+      <c r="E91" s="123"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="130"/>
-      <c r="C92" s="116" t="s">
+      <c r="B92" s="157"/>
+      <c r="C92" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="123"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="151"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="148"/>
       <c r="E93" s="36">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="161" t="s">
+      <c r="A94" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="161"/>
-      <c r="C94" s="112" t="s">
+      <c r="B94" s="110"/>
+      <c r="C94" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="113"/>
+      <c r="D94" s="156"/>
       <c r="E94" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="162"/>
-      <c r="B95" s="162"/>
-      <c r="C95" s="114" t="s">
+      <c r="A95" s="111"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="179" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="115"/>
+      <c r="D95" s="180"/>
       <c r="E95" s="72">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="162"/>
-      <c r="B96" s="162"/>
-      <c r="C96" s="101" t="s">
+      <c r="A96" s="111"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="161" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="102"/>
+      <c r="D96" s="162"/>
       <c r="E96" s="51">
         <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="162"/>
-      <c r="B97" s="162"/>
-      <c r="C97" s="101" t="s">
+      <c r="A97" s="111"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="102"/>
+      <c r="D97" s="162"/>
       <c r="E97" s="51">
         <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="162"/>
-      <c r="B98" s="162"/>
+      <c r="A98" s="111"/>
+      <c r="B98" s="111"/>
       <c r="C98" s="93" t="s">
         <v>193</v>
       </c>
@@ -4541,35 +4425,35 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="163"/>
-      <c r="B99" s="163"/>
-      <c r="C99" s="101" t="s">
+      <c r="A99" s="112"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="102"/>
+      <c r="D99" s="162"/>
       <c r="E99" s="51">
         <v>775.68</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="149" t="s">
+      <c r="A100" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="150"/>
-      <c r="C100" s="107" t="s">
+      <c r="B100" s="146"/>
+      <c r="C100" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="108"/>
+      <c r="D100" s="175"/>
       <c r="E100" s="64">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="119" t="s">
+      <c r="C101" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="106"/>
+      <c r="D101" s="123"/>
       <c r="E101" s="36">
         <f>SUM(E24,E93)-SUM(E94:E100)</f>
         <v>-466.67999999999984</v>
@@ -4590,113 +4474,113 @@
       <c r="E103" s="23"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="146" t="s">
+      <c r="A104" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="147"/>
-      <c r="C104" s="147"/>
-      <c r="D104" s="147"/>
-      <c r="E104" s="128"/>
+      <c r="B104" s="120"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="120"/>
+      <c r="E104" s="121"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="116" t="s">
+      <c r="B105" s="123"/>
+      <c r="C105" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="106"/>
+      <c r="D105" s="123"/>
       <c r="E105" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="144" t="s">
+      <c r="A106" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="145"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="106"/>
+      <c r="B106" s="140"/>
+      <c r="C106" s="147"/>
+      <c r="D106" s="123"/>
       <c r="E106" s="36">
         <f>E101</f>
         <v>-466.67999999999984</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="157" t="s">
+      <c r="A107" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="158"/>
-      <c r="C107" s="103" t="s">
+      <c r="B107" s="105"/>
+      <c r="C107" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="113"/>
+      <c r="D107" s="156"/>
       <c r="E107" s="51">
         <v>4000</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="159"/>
-      <c r="B108" s="160"/>
-      <c r="C108" s="103" t="s">
+      <c r="A108" s="106"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D108" s="104"/>
+      <c r="D108" s="160"/>
       <c r="E108" s="51">
         <v>1824.9</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="159"/>
-      <c r="B109" s="160"/>
-      <c r="C109" s="103" t="s">
+      <c r="A109" s="106"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="104"/>
+      <c r="D109" s="160"/>
       <c r="E109" s="51">
         <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="159"/>
-      <c r="B110" s="160"/>
-      <c r="C110" s="103" t="s">
+      <c r="A110" s="106"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="104"/>
+      <c r="D110" s="160"/>
       <c r="E110" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A111" s="131"/>
-      <c r="B111" s="132"/>
-      <c r="C111" s="103" t="s">
+      <c r="A111" s="108"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="104"/>
+      <c r="D111" s="160"/>
       <c r="E111" s="51">
         <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A112" s="149" t="s">
+      <c r="A112" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B112" s="152"/>
-      <c r="C112" s="153"/>
-      <c r="D112" s="154"/>
+      <c r="B112" s="149"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="151"/>
       <c r="E112" s="51">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C113" s="119" t="s">
+      <c r="C113" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="106"/>
+      <c r="D113" s="123"/>
       <c r="E113" s="51">
         <f>(E32+E106)-SUM(E107:E112)</f>
         <v>1582.42</v>
@@ -8355,7 +8239,54 @@
       <c r="B1026" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A107:B111"/>
     <mergeCell ref="A94:B99"/>
@@ -8372,52 +8303,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
@@ -8480,14 +8365,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20">
     <cfRule type="cellIs" dxfId="63" priority="4" operator="lessThan">
       <formula>0</formula>
@@ -8514,7 +8391,7 @@
   <dimension ref="A1:Y1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -8531,13 +8408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8622,7 +8499,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="55">
-        <f>('April 2024 - June 2024'!C12)+SUM(E83,E92,E101)</f>
+        <f>('April 2024 - June 2024'!I25)+SUM(E83,E92,E101)</f>
         <v>-276149.51</v>
       </c>
       <c r="D5" s="5"/>
@@ -8677,13 +8554,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8711,10 +8588,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="122"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="71" t="s">
         <v>4</v>
       </c>
@@ -8726,10 +8603,10 @@
       <c r="B10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="33">
         <v>2405</v>
       </c>
@@ -8741,10 +8618,10 @@
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="186"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="33">
         <v>31350</v>
       </c>
@@ -8766,13 +8643,13 @@
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="128"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -8800,10 +8677,10 @@
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
@@ -8815,10 +8692,10 @@
       <c r="B16" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="186"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="81">
         <v>2405</v>
       </c>
@@ -8830,10 +8707,10 @@
       <c r="B17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="186"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="82">
         <v>31350</v>
       </c>
@@ -8858,13 +8735,13 @@
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="128"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -8892,10 +8769,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -8907,10 +8784,10 @@
       <c r="B22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="173"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="65">
         <v>31350</v>
       </c>
@@ -8922,10 +8799,10 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="186"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="65">
         <v>2405</v>
       </c>
@@ -8935,8 +8812,8 @@
       <c r="B24" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="186"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="65">
         <v>204</v>
       </c>
@@ -8979,11 +8856,11 @@
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="123"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="19" t="s">
@@ -8998,11 +8875,11 @@
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="106"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="123"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="24" t="s">
@@ -9044,16 +8921,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="177"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="178"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="179"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="137"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -9111,11 +8988,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="123"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -9150,11 +9027,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="177"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -9196,11 +9073,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="177"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -9224,11 +9101,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="120" t="s">
+      <c r="A57" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="125"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="31" t="s">
@@ -9252,11 +9129,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="126" t="s">
+      <c r="A60" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="127"/>
-      <c r="C60" s="128"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="121"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="25" t="s">
@@ -9300,11 +9177,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="125"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="144"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="56" t="s">
@@ -9371,11 +9248,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="123" t="s">
+      <c r="A72" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="148"/>
-      <c r="C72" s="125"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="144"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="41" t="s">
@@ -9446,68 +9323,68 @@
       <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="106"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="123"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="134" t="s">
+      <c r="A82" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="122"/>
-      <c r="C82" s="134" t="s">
+      <c r="B82" s="125"/>
+      <c r="C82" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="122"/>
+      <c r="D82" s="125"/>
       <c r="E82" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="188" t="s">
+      <c r="A83" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="188"/>
-      <c r="C83" s="180" t="s">
+      <c r="B83" s="187"/>
+      <c r="C83" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="181"/>
+      <c r="D83" s="185"/>
       <c r="E83" s="51">
         <v>12939</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="188"/>
-      <c r="B84" s="188"/>
-      <c r="C84" s="180" t="s">
+      <c r="A84" s="187"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="180"/>
+      <c r="D84" s="184"/>
       <c r="E84" s="51">
         <v>11488</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="131" t="s">
+      <c r="A85" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="132"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="118"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="181"/>
+      <c r="D85" s="182"/>
       <c r="E85" s="43">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C86" s="136" t="s">
+      <c r="C86" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="133"/>
+      <c r="D86" s="164"/>
       <c r="E86" s="36">
         <f>('April 2024 - June 2024'!E113+E12)-SUM(E83:E85)</f>
         <v>5221.4199999999983</v>
@@ -9515,80 +9392,80 @@
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="133"/>
-      <c r="E88" s="106"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="123"/>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="106"/>
-      <c r="C89" s="116" t="s">
+      <c r="B89" s="123"/>
+      <c r="C89" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="106"/>
+      <c r="D89" s="123"/>
       <c r="E89" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="144" t="s">
+      <c r="A90" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="145"/>
-      <c r="C90" s="189"/>
-      <c r="D90" s="190"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="89">
         <f>E86</f>
         <v>5221.4199999999983</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="188" t="s">
+      <c r="A91" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="188"/>
-      <c r="C91" s="181" t="s">
+      <c r="B91" s="187"/>
+      <c r="C91" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="181"/>
+      <c r="D91" s="185"/>
       <c r="E91" s="90">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="188"/>
-      <c r="B92" s="188"/>
-      <c r="C92" s="180" t="s">
+      <c r="A92" s="187"/>
+      <c r="B92" s="187"/>
+      <c r="C92" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="181"/>
+      <c r="D92" s="185"/>
       <c r="E92" s="87">
         <v>25000</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="149" t="s">
+      <c r="A93" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="150"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="128"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="194"/>
+      <c r="D93" s="121"/>
       <c r="E93" s="64">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C94" s="119" t="s">
+      <c r="C94" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="106"/>
+      <c r="D94" s="123"/>
       <c r="E94" s="36">
         <f>(E18+E90)-SUM(E91:E93)</f>
         <v>8100.4199999999983</v>
@@ -9609,80 +9486,80 @@
       <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="146" t="s">
+      <c r="A97" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="147"/>
-      <c r="C97" s="147"/>
-      <c r="D97" s="147"/>
-      <c r="E97" s="128"/>
+      <c r="B97" s="120"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="120"/>
+      <c r="E97" s="121"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="106"/>
-      <c r="C98" s="116" t="s">
+      <c r="B98" s="123"/>
+      <c r="C98" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="106"/>
+      <c r="D98" s="123"/>
       <c r="E98" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="144" t="s">
+      <c r="A99" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="145"/>
-      <c r="C99" s="105"/>
-      <c r="D99" s="106"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="123"/>
       <c r="E99" s="36">
         <f>E94</f>
         <v>8100.4199999999983</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="157" t="s">
+      <c r="A100" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="158"/>
-      <c r="C100" s="115" t="s">
+      <c r="B100" s="105"/>
+      <c r="C100" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="182"/>
+      <c r="D100" s="193"/>
       <c r="E100" s="72">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="131"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="187" t="s">
+      <c r="A101" s="108"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="186" t="s">
         <v>150</v>
       </c>
-      <c r="D101" s="102"/>
+      <c r="D101" s="162"/>
       <c r="E101" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="149" t="s">
+      <c r="A102" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="150"/>
-      <c r="C102" s="183"/>
-      <c r="D102" s="127"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="194"/>
+      <c r="D102" s="136"/>
       <c r="E102" s="75">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C103" s="119" t="s">
+      <c r="C103" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="106"/>
+      <c r="D103" s="123"/>
       <c r="E103" s="51">
         <f>(E25+E99)-SUM(E100:E102)</f>
         <v>11292.419999999998</v>
@@ -13342,21 +13219,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -13373,30 +13259,21 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A83:B84"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -13475,13 +13352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13621,13 +13498,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -13655,10 +13532,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -13670,10 +13547,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -13685,10 +13562,10 @@
       <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="186"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="65">
         <v>2405</v>
       </c>
@@ -13710,13 +13587,13 @@
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="128"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -13744,10 +13621,10 @@
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
@@ -13759,10 +13636,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="18">
         <v>31350</v>
       </c>
@@ -13774,10 +13651,10 @@
       <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="186"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="65">
         <v>2405</v>
       </c>
@@ -13802,13 +13679,13 @@
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="128"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -13836,10 +13713,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -13851,10 +13728,10 @@
       <c r="B22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="173"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="65">
         <v>33250</v>
       </c>
@@ -13866,10 +13743,10 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="186"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="65">
         <v>2405</v>
       </c>
@@ -13912,11 +13789,11 @@
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="123"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="19" t="s">
@@ -13931,11 +13808,11 @@
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="123"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="24" t="s">
@@ -13977,16 +13854,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="178"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="179"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="137"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -14044,11 +13921,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="123"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -14083,11 +13960,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="177"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -14129,11 +14006,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="177"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -14157,11 +14034,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="125"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="31" t="s">
@@ -14185,11 +14062,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="121"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="25" t="s">
@@ -14233,11 +14110,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="123" t="s">
+      <c r="A64" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="124"/>
-      <c r="C64" s="125"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="144"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="56" t="s">
@@ -14304,11 +14181,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="125"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="144"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="41" t="s">
@@ -14376,57 +14253,57 @@
       <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="116" t="s">
+      <c r="A80" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="106"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="123"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="134" t="s">
+      <c r="A81" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="122"/>
-      <c r="C81" s="134" t="s">
+      <c r="B81" s="125"/>
+      <c r="C81" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="122"/>
+      <c r="D81" s="125"/>
       <c r="E81" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="188" t="s">
+      <c r="A82" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="188"/>
-      <c r="C82" s="180" t="s">
+      <c r="B82" s="187"/>
+      <c r="C82" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="181"/>
+      <c r="D82" s="185"/>
       <c r="E82" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="131" t="s">
+      <c r="A83" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="132"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="118"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="182"/>
       <c r="E83" s="43">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="136" t="s">
+      <c r="C84" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="133"/>
+      <c r="D84" s="164"/>
       <c r="E84" s="36">
         <f>('July 2024 - September 2024'!E103+E12)-SUM(E82:E83)</f>
         <v>14342.719999999998</v>
@@ -14434,69 +14311,69 @@
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="133"/>
-      <c r="E86" s="106"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="123"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="106"/>
-      <c r="C87" s="116" t="s">
+      <c r="B87" s="123"/>
+      <c r="C87" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="106"/>
+      <c r="D87" s="123"/>
       <c r="E87" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="155" t="s">
+      <c r="A88" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="168"/>
-      <c r="C88" s="153"/>
-      <c r="D88" s="191"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="195"/>
       <c r="E88" s="36">
         <f>E84</f>
         <v>14342.719999999998</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="155" t="s">
+      <c r="A89" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="156"/>
-      <c r="C89" s="112" t="s">
+      <c r="B89" s="154"/>
+      <c r="C89" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D89" s="192"/>
+      <c r="D89" s="196"/>
       <c r="E89" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="155" t="s">
+      <c r="A90" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="168"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="106"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="123"/>
       <c r="E90" s="64">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="119" t="s">
+      <c r="C91" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="106"/>
+      <c r="D91" s="123"/>
       <c r="E91" s="36">
         <f>(E18+E88)-SUM(E89:E90)</f>
         <v>17393.02</v>
@@ -14517,69 +14394,69 @@
       <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="146" t="s">
+      <c r="A94" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="B94" s="147"/>
-      <c r="C94" s="147"/>
-      <c r="D94" s="147"/>
-      <c r="E94" s="128"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="121"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="116" t="s">
+      <c r="A95" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="106"/>
-      <c r="C95" s="116" t="s">
+      <c r="B95" s="123"/>
+      <c r="C95" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="106"/>
+      <c r="D95" s="123"/>
       <c r="E95" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="155" t="s">
+      <c r="A96" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="168"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="106"/>
+      <c r="B96" s="118"/>
+      <c r="C96" s="147"/>
+      <c r="D96" s="123"/>
       <c r="E96" s="36">
         <f>E91</f>
         <v>17393.02</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="155" t="s">
+      <c r="A97" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="156"/>
-      <c r="C97" s="112" t="s">
+      <c r="B97" s="154"/>
+      <c r="C97" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="113"/>
+      <c r="D97" s="156"/>
       <c r="E97" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="155" t="s">
+      <c r="A98" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="168"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="106"/>
+      <c r="B98" s="118"/>
+      <c r="C98" s="147"/>
+      <c r="D98" s="123"/>
       <c r="E98" s="64">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="119" t="s">
+      <c r="C99" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="106"/>
+      <c r="D99" s="123"/>
       <c r="E99" s="51">
         <f>(E24+E96)-SUM(E97:E98)</f>
         <v>22343.320000000003</v>
@@ -18239,41 +18116,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -18290,6 +18132,41 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -18367,13 +18244,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -18513,13 +18390,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -18547,10 +18424,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -18562,10 +18439,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -18587,13 +18464,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="128"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -18621,10 +18498,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -18636,10 +18513,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -18664,13 +18541,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="128"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -18698,10 +18575,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -18713,10 +18590,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -18759,11 +18636,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="123"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -18778,11 +18655,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="123"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -18824,16 +18701,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="179"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="137"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18891,11 +18768,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="123"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18930,11 +18807,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="177"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18976,11 +18853,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -19004,11 +18881,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="122"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -19032,11 +18909,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="121"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -19080,11 +18957,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="144"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -19151,11 +19028,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="123" t="s">
+      <c r="A68" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="125"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="144"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -19224,57 +19101,57 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="133"/>
-      <c r="E77" s="106"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="123"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="134" t="s">
+      <c r="B78" s="125"/>
+      <c r="C78" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="122"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="161" t="s">
+      <c r="A79" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="193"/>
-      <c r="C79" s="114" t="s">
+      <c r="B79" s="199"/>
+      <c r="C79" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="182"/>
+      <c r="D79" s="193"/>
       <c r="E79" s="72">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="194"/>
-      <c r="D80" s="194"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
       <c r="E80" s="91">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="195" t="s">
+      <c r="C81" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="127"/>
+      <c r="D81" s="136"/>
       <c r="E81" s="36">
         <f>('October 2024 - December 2024'!E99+E11)-SUM(E79:E80)</f>
         <v>22988.620000000006</v>
@@ -19282,69 +19159,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="106"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="123"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="116" t="s">
+      <c r="B84" s="123"/>
+      <c r="C84" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="123"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="168"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="191"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="195"/>
       <c r="E85" s="36">
         <f>E81</f>
         <v>22988.620000000006</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="156"/>
-      <c r="C86" s="112" t="s">
+      <c r="B86" s="154"/>
+      <c r="C86" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="192"/>
+      <c r="D86" s="196"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="147"/>
+      <c r="D87" s="123"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>23633.920000000009</v>
@@ -19365,69 +19242,69 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="128"/>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="121"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="116" t="s">
+      <c r="B92" s="123"/>
+      <c r="C92" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="123"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="106"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="123"/>
       <c r="E93" s="36">
         <f>E88</f>
         <v>23633.920000000009</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="112" t="s">
+      <c r="B94" s="154"/>
+      <c r="C94" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="113"/>
+      <c r="D94" s="156"/>
       <c r="E94" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="168"/>
-      <c r="C95" s="105"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="123"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="123"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>24279.220000000012</v>
@@ -23087,29 +22964,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -23123,18 +22989,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -23212,13 +23089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -23358,13 +23235,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -23392,10 +23269,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -23407,10 +23284,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -23432,13 +23309,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="128"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -23466,10 +23343,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -23481,10 +23358,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -23509,13 +23386,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="128"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -23543,10 +23420,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -23558,10 +23435,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -23604,11 +23481,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="190" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="123"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -23623,11 +23500,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="123"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -23669,16 +23546,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="179"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="137"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23736,11 +23613,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="123"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23775,11 +23652,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="177"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23821,11 +23698,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23849,11 +23726,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="122"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -23877,11 +23754,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="121"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -23925,11 +23802,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="144"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -23996,11 +23873,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="123" t="s">
+      <c r="A68" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="125"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="144"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -24069,57 +23946,57 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="133"/>
-      <c r="E77" s="106"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="123"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="134" t="s">
+      <c r="B78" s="125"/>
+      <c r="C78" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="122"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="161" t="s">
+      <c r="A79" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="193"/>
-      <c r="C79" s="114" t="s">
+      <c r="B79" s="199"/>
+      <c r="C79" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="182"/>
+      <c r="D79" s="193"/>
       <c r="E79" s="72">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="118"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="182"/>
       <c r="E80" s="43">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="136" t="s">
+      <c r="C81" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="133"/>
+      <c r="D81" s="164"/>
       <c r="E81" s="36">
         <f>('January 2025 - March 2025'!E96+E11)-SUM(E79:E80)</f>
         <v>24924.520000000015</v>
@@ -24127,69 +24004,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="106"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="123"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="116" t="s">
+      <c r="B84" s="123"/>
+      <c r="C84" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="123"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="168"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="191"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="195"/>
       <c r="E85" s="36">
         <f>E81</f>
         <v>24924.520000000015</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="156"/>
-      <c r="C86" s="112" t="s">
+      <c r="B86" s="154"/>
+      <c r="C86" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="192"/>
+      <c r="D86" s="196"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="147"/>
+      <c r="D87" s="123"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>25569.820000000018</v>
@@ -24210,69 +24087,69 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="128"/>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="121"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="116" t="s">
+      <c r="B92" s="123"/>
+      <c r="C92" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="123"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="106"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="123"/>
       <c r="E93" s="36">
         <f>E88</f>
         <v>25569.820000000018</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="112" t="s">
+      <c r="B94" s="154"/>
+      <c r="C94" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="113"/>
+      <c r="D94" s="156"/>
       <c r="E94" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="168"/>
-      <c r="C95" s="105"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="123"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="123"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>26215.120000000021</v>
@@ -27932,29 +27809,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27968,18 +27834,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -28057,13 +27934,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -28203,13 +28080,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -28237,10 +28114,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -28252,10 +28129,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -28277,13 +28154,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="128"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -28311,10 +28188,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -28326,10 +28203,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -28354,13 +28231,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="128"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -28388,10 +28265,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -28403,10 +28280,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -28449,11 +28326,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="123"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -28468,11 +28345,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="123"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -28514,16 +28391,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="179"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="137"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -28581,11 +28458,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="123"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -28620,11 +28497,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="177"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28666,11 +28543,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28694,11 +28571,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="122"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -28722,11 +28599,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="121"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -28770,11 +28647,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="144"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -28841,11 +28718,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="123" t="s">
+      <c r="A68" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="148"/>
-      <c r="C68" s="125"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="144"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -28913,47 +28790,47 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="133"/>
-      <c r="E77" s="106"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="123"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="134" t="s">
+      <c r="B78" s="125"/>
+      <c r="C78" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="122"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="188" t="s">
+      <c r="A79" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="188"/>
-      <c r="C79" s="180" t="s">
+      <c r="B79" s="187"/>
+      <c r="C79" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="181"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="188" t="s">
+      <c r="A80" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="188"/>
-      <c r="C80" s="194"/>
-      <c r="D80" s="194"/>
+      <c r="B80" s="187"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
       <c r="E80" s="75">
         <f>C74</f>
         <v>5704.7</v>
@@ -28962,10 +28839,10 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="73"/>
       <c r="B81" s="73"/>
-      <c r="C81" s="195" t="s">
+      <c r="C81" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="127"/>
+      <c r="D81" s="136"/>
       <c r="E81" s="74">
         <f>('April 2025 - June 2025'!E96+E11)-SUM(E79:E80)</f>
         <v>26860.420000000024</v>
@@ -28973,69 +28850,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="106"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="123"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="116" t="s">
+      <c r="B84" s="123"/>
+      <c r="C84" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="106"/>
+      <c r="D84" s="123"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="168"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="191"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="195"/>
       <c r="E85" s="36">
         <f>E81</f>
         <v>26860.420000000024</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="156"/>
-      <c r="C86" s="112" t="s">
+      <c r="B86" s="154"/>
+      <c r="C86" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="192"/>
+      <c r="D86" s="196"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="106"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="147"/>
+      <c r="D87" s="123"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="106"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
         <v>27505.720000000027</v>
@@ -29056,69 +28933,69 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="128"/>
+      <c r="B91" s="120"/>
+      <c r="C91" s="120"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="121"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="106"/>
-      <c r="C92" s="116" t="s">
+      <c r="B92" s="123"/>
+      <c r="C92" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="106"/>
+      <c r="D92" s="123"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="168"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="106"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="123"/>
       <c r="E93" s="36">
         <f>E88</f>
         <v>27505.720000000027</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="112" t="s">
+      <c r="B94" s="154"/>
+      <c r="C94" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="113"/>
+      <c r="D94" s="156"/>
       <c r="E94" s="51">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="168"/>
-      <c r="C95" s="105"/>
-      <c r="D95" s="106"/>
+      <c r="B95" s="118"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="123"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="123"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
         <v>52001.510000000031</v>
@@ -32778,18 +32655,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32803,29 +32691,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A532F5D-4E71-4513-9371-D2BBF15B020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD984F2-D6E7-411D-BDF7-6DFADA98FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1847,6 +1847,201 @@
     <xf numFmtId="167" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,12 +2060,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,9 +2075,6 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,23 +2087,11 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1925,179 +2099,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2111,26 +2135,14 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,23 +2150,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2632,16 +2632,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -2944,7 +2934,7 @@
   <dimension ref="A1:Y1026"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2962,31 +2952,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="115"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:25" ht="21">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="H2" s="97" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3001,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="95">
-        <v>1860.12</v>
+        <v>1382.12</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="98" t="s">
@@ -3043,14 +3033,14 @@
         <v>80</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="4">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="98" t="s">
@@ -3083,14 +3073,14 @@
         <v>81</v>
       </c>
       <c r="C5" s="4">
-        <v>51</v>
+        <v>12.9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="98" t="s">
@@ -3098,7 +3088,7 @@
       </c>
       <c r="I5" s="99">
         <f>E113</f>
-        <v>1582.42</v>
+        <v>1504.3199999999997</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3138,7 +3128,7 @@
       </c>
       <c r="I6" s="99">
         <f>'July 2024 - September 2024'!E86</f>
-        <v>5221.4199999999983</v>
+        <v>5143.32</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -3170,7 +3160,7 @@
         <v>163</v>
       </c>
       <c r="F7" s="55">
-        <v>60</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="98" t="s">
@@ -3178,7 +3168,7 @@
       </c>
       <c r="I7" s="99">
         <f>'July 2024 - September 2024'!E94</f>
-        <v>8100.4199999999983</v>
+        <v>8022.32</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -3218,7 +3208,7 @@
       </c>
       <c r="I8" s="99">
         <f>'July 2024 - September 2024'!E103</f>
-        <v>11292.419999999998</v>
+        <v>11214.32</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -3258,7 +3248,7 @@
       </c>
       <c r="I9" s="99">
         <f>'October 2024 - December 2024'!E84</f>
-        <v>14342.719999999998</v>
+        <v>14264.619999999999</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -3283,7 +3273,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="55">
-        <v>35.1</v>
+        <v>25.1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="34" t="s">
@@ -3298,7 +3288,7 @@
       </c>
       <c r="I10" s="99">
         <f>'October 2024 - December 2024'!E91</f>
-        <v>17393.02</v>
+        <v>17314.919999999995</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -3324,7 +3314,7 @@
       </c>
       <c r="C11" s="55">
         <f>SUM(C3:C10)</f>
-        <v>1582.4199999999998</v>
+        <v>1504.32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="62" t="s">
@@ -3332,7 +3322,7 @@
       </c>
       <c r="F11" s="55">
         <f>SUM(F3:F10)</f>
-        <v>2188.2199999999998</v>
+        <v>1582.4199999999998</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="98" t="s">
@@ -3340,7 +3330,7 @@
       </c>
       <c r="I11" s="99">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>22343.320000000003</v>
+        <v>22265.219999999998</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3364,20 +3354,20 @@
       <c r="B12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="102">
         <f>-C82</f>
         <v>-344088.51</v>
       </c>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="6"/>
       <c r="H12" s="98" t="s">
         <v>212</v>
       </c>
       <c r="I12" s="99">
         <f>'January 2025 - March 2025'!E81</f>
-        <v>22988.620000000006</v>
+        <v>22910.52</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -3409,7 +3399,7 @@
       </c>
       <c r="I13" s="99">
         <f>'January 2025 - March 2025'!E88</f>
-        <v>23633.920000000009</v>
+        <v>23555.820000000003</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -3434,24 +3424,24 @@
       </c>
       <c r="I14" s="99">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>24279.220000000012</v>
+        <v>24201.120000000006</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="137"/>
       <c r="G15" s="13"/>
       <c r="H15" s="98" t="s">
         <v>215</v>
       </c>
       <c r="I15" s="99">
         <f>'April 2025 - June 2025'!E81</f>
-        <v>24924.520000000015</v>
+        <v>24846.420000000009</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -3477,10 +3467,10 @@
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
@@ -3489,7 +3479,7 @@
       </c>
       <c r="I16" s="99">
         <f>'April 2025 - June 2025'!E88</f>
-        <v>25569.820000000018</v>
+        <v>25491.720000000012</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="30" customHeight="1">
@@ -3499,10 +3489,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="118"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="17">
         <v>2405</v>
       </c>
@@ -3511,7 +3501,7 @@
       </c>
       <c r="I17" s="99">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>26215.120000000021</v>
+        <v>26137.020000000015</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1">
@@ -3530,7 +3520,7 @@
       </c>
       <c r="I18" s="99">
         <f>'July 2025 - September 2025'!E81</f>
-        <v>26860.420000000024</v>
+        <v>26782.320000000018</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" customHeight="1">
@@ -3541,24 +3531,24 @@
       </c>
       <c r="I19" s="99">
         <f>'July 2025 - September 2025'!E88</f>
-        <v>27505.720000000027</v>
+        <v>27427.620000000021</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="30" customHeight="1">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="137"/>
       <c r="G20" s="13"/>
       <c r="H20" s="98" t="s">
         <v>220</v>
       </c>
       <c r="I20" s="99">
         <f>'July 2025 - September 2025'!E96</f>
-        <v>52001.510000000031</v>
+        <v>51923.410000000025</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -3584,10 +3574,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -3599,17 +3589,17 @@
       <c r="B22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="65">
         <v>2405</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="103"/>
+      <c r="I22" s="168"/>
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3666,13 +3656,13 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="30" customHeight="1">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="137"/>
       <c r="G26" s="13"/>
       <c r="H26" s="100" t="s">
         <v>225</v>
@@ -3705,10 +3695,10 @@
       <c r="B27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="71" t="s">
         <v>4</v>
       </c>
@@ -3727,10 +3717,10 @@
       <c r="B28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="131"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="84">
         <v>2405</v>
       </c>
@@ -3771,10 +3761,10 @@
       <c r="B30" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="168"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="86">
         <v>7700</v>
       </c>
@@ -3793,10 +3783,10 @@
       <c r="B31" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="166" t="s">
+      <c r="C31" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="142"/>
       <c r="E31" s="86">
         <v>50</v>
       </c>
@@ -3834,11 +3824,11 @@
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="123"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="19" t="s">
@@ -3853,11 +3843,11 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="165" t="s">
+      <c r="A38" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="164"/>
-      <c r="C38" s="123"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="111"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="24" t="s">
@@ -3899,16 +3889,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="135"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="136"/>
-      <c r="C44" s="137"/>
+      <c r="C44" s="153"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3957,11 +3947,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="123"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="111"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3996,11 +3986,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="165" t="s">
+      <c r="A54" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="176"/>
-      <c r="C54" s="177"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -4042,11 +4032,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="165" t="s">
+      <c r="A59" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="176"/>
-      <c r="C59" s="177"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -4070,11 +4060,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="183" t="s">
+      <c r="A62" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="131"/>
-      <c r="C62" s="125"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="127"/>
     </row>
     <row r="63" spans="1:3" ht="33" customHeight="1">
       <c r="A63" s="31" t="s">
@@ -4098,11 +4088,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="136"/>
-      <c r="C65" s="121"/>
+      <c r="C65" s="137"/>
     </row>
     <row r="66" spans="1:3" ht="13.5" customHeight="1">
       <c r="A66" s="25" t="s">
@@ -4146,11 +4136,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="142" t="s">
+      <c r="A70" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="169"/>
-      <c r="C70" s="144"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="134"/>
     </row>
     <row r="71" spans="1:3" ht="13.5" customHeight="1">
       <c r="A71" s="56" t="s">
@@ -4217,11 +4207,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="142" t="s">
+      <c r="A77" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="143"/>
-      <c r="C77" s="144"/>
+      <c r="B77" s="158"/>
+      <c r="C77" s="134"/>
     </row>
     <row r="78" spans="1:3" ht="13.5" customHeight="1">
       <c r="A78" s="41" t="s">
@@ -4289,44 +4279,44 @@
       <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="152" t="s">
+      <c r="A86" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="157"/>
+      <c r="B86" s="138"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="139"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="158" t="s">
+      <c r="A87" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="159"/>
-      <c r="C87" s="158" t="s">
+      <c r="B87" s="146"/>
+      <c r="C87" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="159"/>
+      <c r="D87" s="146"/>
       <c r="E87" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="182"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="123"/>
       <c r="E88" s="43">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="172" t="s">
+      <c r="C89" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="173"/>
+      <c r="D89" s="148"/>
       <c r="E89" s="36">
         <f>I3</f>
         <v>0</v>
@@ -4334,88 +4324,88 @@
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="152" t="s">
+      <c r="A91" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="164"/>
-      <c r="C91" s="164"/>
-      <c r="D91" s="164"/>
-      <c r="E91" s="123"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="141"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="111"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="157"/>
-      <c r="C92" s="152" t="s">
+      <c r="B92" s="139"/>
+      <c r="C92" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="123"/>
+      <c r="D92" s="111"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="153" t="s">
+      <c r="A93" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="154"/>
-      <c r="C93" s="147"/>
-      <c r="D93" s="148"/>
+      <c r="B93" s="166"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="161"/>
       <c r="E93" s="36">
         <f>E89</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="178" t="s">
+      <c r="B94" s="173"/>
+      <c r="C94" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="156"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="111"/>
-      <c r="B95" s="111"/>
-      <c r="C95" s="179" t="s">
+      <c r="A95" s="174"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="180"/>
+      <c r="D95" s="120"/>
       <c r="E95" s="72">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="111"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="161" t="s">
+      <c r="A96" s="174"/>
+      <c r="B96" s="174"/>
+      <c r="C96" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="162"/>
+      <c r="D96" s="107"/>
       <c r="E96" s="51">
         <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="111"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="161" t="s">
+      <c r="A97" s="174"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="162"/>
+      <c r="D97" s="107"/>
       <c r="E97" s="51">
         <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="111"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="174"/>
+      <c r="B98" s="174"/>
       <c r="C98" s="93" t="s">
         <v>193</v>
       </c>
@@ -4425,35 +4415,35 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="112"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="161" t="s">
+      <c r="A99" s="175"/>
+      <c r="B99" s="175"/>
+      <c r="C99" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="162"/>
+      <c r="D99" s="107"/>
       <c r="E99" s="51">
         <v>775.68</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="145" t="s">
+      <c r="A100" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="146"/>
-      <c r="C100" s="174" t="s">
+      <c r="B100" s="160"/>
+      <c r="C100" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="175"/>
+      <c r="D100" s="113"/>
       <c r="E100" s="64">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="138" t="s">
+      <c r="C101" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="123"/>
+      <c r="D101" s="111"/>
       <c r="E101" s="36">
         <f>SUM(E24,E93)-SUM(E94:E100)</f>
         <v>-466.67999999999984</v>
@@ -4474,116 +4464,116 @@
       <c r="E103" s="23"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="141" t="s">
+      <c r="A104" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="120"/>
-      <c r="C104" s="120"/>
-      <c r="D104" s="120"/>
-      <c r="E104" s="121"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="157"/>
+      <c r="E104" s="137"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="152" t="s">
+      <c r="A105" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="123"/>
-      <c r="C105" s="152" t="s">
+      <c r="B105" s="111"/>
+      <c r="C105" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="123"/>
+      <c r="D105" s="111"/>
       <c r="E105" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="139" t="s">
+      <c r="A106" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="140"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="123"/>
+      <c r="B106" s="155"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="111"/>
       <c r="E106" s="36">
         <f>E101</f>
         <v>-466.67999999999984</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="104" t="s">
+      <c r="A107" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="105"/>
-      <c r="C107" s="155" t="s">
+      <c r="B107" s="170"/>
+      <c r="C107" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="156"/>
+      <c r="D107" s="118"/>
       <c r="E107" s="51">
         <v>4000</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="106"/>
-      <c r="B108" s="107"/>
-      <c r="C108" s="155" t="s">
+      <c r="A108" s="171"/>
+      <c r="B108" s="172"/>
+      <c r="C108" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="D108" s="160"/>
+      <c r="D108" s="109"/>
       <c r="E108" s="51">
-        <v>1824.9</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="106"/>
-      <c r="B109" s="107"/>
-      <c r="C109" s="155" t="s">
+      <c r="A109" s="171"/>
+      <c r="B109" s="172"/>
+      <c r="C109" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="160"/>
+      <c r="D109" s="109"/>
       <c r="E109" s="51">
         <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="106"/>
-      <c r="B110" s="107"/>
-      <c r="C110" s="155" t="s">
+      <c r="A110" s="171"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="160"/>
+      <c r="D110" s="109"/>
       <c r="E110" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A111" s="108"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="155" t="s">
+      <c r="A111" s="143"/>
+      <c r="B111" s="144"/>
+      <c r="C111" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="160"/>
+      <c r="D111" s="109"/>
       <c r="E111" s="51">
         <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A112" s="145" t="s">
+      <c r="A112" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B112" s="149"/>
-      <c r="C112" s="150"/>
-      <c r="D112" s="151"/>
+      <c r="B112" s="162"/>
+      <c r="C112" s="163"/>
+      <c r="D112" s="164"/>
       <c r="E112" s="51">
         <f>C83</f>
         <v>1503</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C113" s="138" t="s">
+      <c r="C113" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="123"/>
+      <c r="D113" s="111"/>
       <c r="E113" s="51">
         <f>(E32+E106)-SUM(E107:E112)</f>
-        <v>1582.42</v>
+        <v>1504.3199999999997</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13.5" customHeight="1">
@@ -8240,6 +8230,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A107:B111"/>
+    <mergeCell ref="A94:B99"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C99:D99"/>
@@ -8256,112 +8293,65 @@
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A107:B111"/>
-    <mergeCell ref="A94:B99"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="77" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="75" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="73" priority="38" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="34" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="69" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="67" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="cellIs" dxfId="66" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8408,13 +8398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8436,7 +8426,7 @@
       </c>
       <c r="C3" s="4">
         <f>'April 2024 - June 2024'!E113</f>
-        <v>1582.42</v>
+        <v>1504.3199999999997</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -8468,7 +8458,7 @@
       </c>
       <c r="C4" s="55">
         <f>SUM(C3:C3)</f>
-        <v>1582.42</v>
+        <v>1504.3199999999997</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8554,13 +8544,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="137"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8588,10 +8578,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="71" t="s">
         <v>4</v>
       </c>
@@ -8603,10 +8593,10 @@
       <c r="B10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="33">
         <v>2405</v>
       </c>
@@ -8618,10 +8608,10 @@
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="192"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="33">
         <v>31350</v>
       </c>
@@ -8643,13 +8633,13 @@
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="137"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -8677,10 +8667,10 @@
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="125"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
@@ -8692,10 +8682,10 @@
       <c r="B16" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="192"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="81">
         <v>2405</v>
       </c>
@@ -8707,10 +8697,10 @@
       <c r="B17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="192"/>
+      <c r="D17" s="193"/>
       <c r="E17" s="82">
         <v>31350</v>
       </c>
@@ -8735,13 +8725,13 @@
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="137"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -8769,10 +8759,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -8784,10 +8774,10 @@
       <c r="B22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="65">
         <v>31350</v>
       </c>
@@ -8799,10 +8789,10 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="192"/>
+      <c r="D23" s="193"/>
       <c r="E23" s="65">
         <v>2405</v>
       </c>
@@ -8812,8 +8802,8 @@
       <c r="B24" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="191"/>
-      <c r="D24" s="192"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="193"/>
       <c r="E24" s="65">
         <v>204</v>
       </c>
@@ -8856,11 +8846,11 @@
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="123"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="111"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="19" t="s">
@@ -8875,11 +8865,11 @@
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="164"/>
-      <c r="C32" s="123"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="111"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="24" t="s">
@@ -8921,16 +8911,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="133"/>
-      <c r="C37" s="134"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="151"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="135"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="136"/>
-      <c r="C38" s="137"/>
+      <c r="C38" s="153"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8988,11 +8978,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="123"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="111"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -9027,11 +9017,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="176"/>
-      <c r="C49" s="177"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -9073,11 +9063,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="165" t="s">
+      <c r="A54" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="176"/>
-      <c r="C54" s="177"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -9101,11 +9091,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="183" t="s">
+      <c r="A57" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="131"/>
-      <c r="C57" s="125"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="127"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="31" t="s">
@@ -9129,11 +9119,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="170" t="s">
+      <c r="A60" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="136"/>
-      <c r="C60" s="121"/>
+      <c r="C60" s="137"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="25" t="s">
@@ -9177,11 +9167,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="142" t="s">
+      <c r="A65" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="169"/>
-      <c r="C65" s="144"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="134"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="56" t="s">
@@ -9248,11 +9238,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="142" t="s">
+      <c r="A72" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="143"/>
-      <c r="C72" s="144"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="134"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="41" t="s">
@@ -9323,152 +9313,152 @@
       <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="152" t="s">
+      <c r="A81" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="164"/>
-      <c r="C81" s="164"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="123"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="111"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="158" t="s">
+      <c r="A82" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="158" t="s">
+      <c r="B82" s="127"/>
+      <c r="C82" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="125"/>
+      <c r="D82" s="127"/>
       <c r="E82" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="187"/>
-      <c r="C83" s="184" t="s">
+      <c r="B83" s="195"/>
+      <c r="C83" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="185"/>
+      <c r="D83" s="188"/>
       <c r="E83" s="51">
         <v>12939</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="187"/>
-      <c r="B84" s="187"/>
-      <c r="C84" s="184" t="s">
+      <c r="A84" s="195"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="184"/>
+      <c r="D84" s="187"/>
       <c r="E84" s="51">
         <v>11488</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="109"/>
-      <c r="C85" s="181"/>
-      <c r="D85" s="182"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="123"/>
       <c r="E85" s="43">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C86" s="172" t="s">
+      <c r="C86" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="164"/>
+      <c r="D86" s="141"/>
       <c r="E86" s="36">
         <f>('April 2024 - June 2024'!E113+E12)-SUM(E83:E85)</f>
-        <v>5221.4199999999983</v>
+        <v>5143.32</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="152" t="s">
+      <c r="A88" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="164"/>
-      <c r="C88" s="164"/>
-      <c r="D88" s="164"/>
-      <c r="E88" s="123"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="111"/>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="152" t="s">
+      <c r="A89" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="123"/>
-      <c r="C89" s="152" t="s">
+      <c r="B89" s="111"/>
+      <c r="C89" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="123"/>
+      <c r="D89" s="111"/>
       <c r="E89" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="139" t="s">
+      <c r="A90" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="140"/>
-      <c r="C90" s="188"/>
-      <c r="D90" s="189"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="196"/>
+      <c r="D90" s="197"/>
       <c r="E90" s="89">
         <f>E86</f>
-        <v>5221.4199999999983</v>
+        <v>5143.32</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="187" t="s">
+      <c r="A91" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="187"/>
-      <c r="C91" s="185" t="s">
+      <c r="B91" s="195"/>
+      <c r="C91" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="185"/>
+      <c r="D91" s="188"/>
       <c r="E91" s="90">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="187"/>
-      <c r="B92" s="187"/>
-      <c r="C92" s="184" t="s">
+      <c r="A92" s="195"/>
+      <c r="B92" s="195"/>
+      <c r="C92" s="187" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="185"/>
+      <c r="D92" s="188"/>
       <c r="E92" s="87">
         <v>25000</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="145" t="s">
+      <c r="A93" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="146"/>
-      <c r="C93" s="194"/>
-      <c r="D93" s="121"/>
+      <c r="B93" s="160"/>
+      <c r="C93" s="190"/>
+      <c r="D93" s="137"/>
       <c r="E93" s="64">
         <f>C78</f>
         <v>5689</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C94" s="138" t="s">
+      <c r="C94" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="123"/>
+      <c r="D94" s="111"/>
       <c r="E94" s="36">
         <f>(E18+E90)-SUM(E91:E93)</f>
-        <v>8100.4199999999983</v>
+        <v>8022.32</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
@@ -9486,69 +9476,69 @@
       <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="120"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="121"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="137"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="152" t="s">
+      <c r="A98" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="123"/>
-      <c r="C98" s="152" t="s">
+      <c r="B98" s="111"/>
+      <c r="C98" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="123"/>
+      <c r="D98" s="111"/>
       <c r="E98" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="139" t="s">
+      <c r="A99" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="140"/>
-      <c r="C99" s="147"/>
-      <c r="D99" s="123"/>
+      <c r="B99" s="155"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="111"/>
       <c r="E99" s="36">
         <f>E94</f>
-        <v>8100.4199999999983</v>
+        <v>8022.32</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="105"/>
-      <c r="C100" s="180" t="s">
+      <c r="B100" s="170"/>
+      <c r="C100" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="193"/>
+      <c r="D100" s="189"/>
       <c r="E100" s="72">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="108"/>
-      <c r="B101" s="109"/>
-      <c r="C101" s="186" t="s">
+      <c r="A101" s="143"/>
+      <c r="B101" s="144"/>
+      <c r="C101" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="D101" s="162"/>
+      <c r="D101" s="107"/>
       <c r="E101" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="145" t="s">
+      <c r="A102" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="146"/>
-      <c r="C102" s="194"/>
+      <c r="B102" s="160"/>
+      <c r="C102" s="190"/>
       <c r="D102" s="136"/>
       <c r="E102" s="75">
         <f>C78</f>
@@ -9556,13 +9546,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C103" s="138" t="s">
+      <c r="C103" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="123"/>
+      <c r="D103" s="111"/>
       <c r="E103" s="51">
         <f>(E25+E99)-SUM(E100:E102)</f>
-        <v>11292.419999999998</v>
+        <v>11214.32</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
@@ -13219,30 +13209,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A83:B84"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
@@ -13259,21 +13240,30 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A81:E81"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -13352,13 +13342,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13380,7 +13370,7 @@
       </c>
       <c r="C3" s="4">
         <f>'July 2024 - September 2024'!E103</f>
-        <v>11292.419999999998</v>
+        <v>11214.32</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -13412,7 +13402,7 @@
       </c>
       <c r="C4" s="55">
         <f>SUM(C3:C3)</f>
-        <v>11292.419999999998</v>
+        <v>11214.32</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -13498,13 +13488,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="137"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -13532,10 +13522,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -13547,10 +13537,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -13562,10 +13552,10 @@
       <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="192"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="65">
         <v>2405</v>
       </c>
@@ -13587,13 +13577,13 @@
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="137"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -13621,10 +13611,10 @@
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
@@ -13636,10 +13626,10 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="18">
         <v>31350</v>
       </c>
@@ -13651,10 +13641,10 @@
       <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="192"/>
+      <c r="D17" s="193"/>
       <c r="E17" s="65">
         <v>2405</v>
       </c>
@@ -13679,13 +13669,13 @@
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="137"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -13713,10 +13703,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -13728,10 +13718,10 @@
       <c r="B22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="65">
         <v>33250</v>
       </c>
@@ -13743,10 +13733,10 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="192"/>
+      <c r="D23" s="193"/>
       <c r="E23" s="65">
         <v>2405</v>
       </c>
@@ -13789,11 +13779,11 @@
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="111"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="19" t="s">
@@ -13808,11 +13798,11 @@
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="164"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="111"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="24" t="s">
@@ -13854,16 +13844,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="134"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="151"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="136"/>
-      <c r="C37" s="137"/>
+      <c r="C37" s="153"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -13921,11 +13911,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="123"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="111"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13960,11 +13950,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="177"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -14006,11 +13996,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="176"/>
-      <c r="C53" s="177"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -14034,11 +14024,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="183" t="s">
+      <c r="A56" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="131"/>
-      <c r="C56" s="125"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="127"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="31" t="s">
@@ -14062,11 +14052,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="136"/>
-      <c r="C59" s="121"/>
+      <c r="C59" s="137"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="25" t="s">
@@ -14110,11 +14100,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="142" t="s">
+      <c r="A64" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="169"/>
-      <c r="C64" s="144"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="56" t="s">
@@ -14181,11 +14171,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="142" t="s">
+      <c r="A71" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="143"/>
-      <c r="C71" s="144"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="134"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="41" t="s">
@@ -14253,130 +14243,130 @@
       <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="152" t="s">
+      <c r="A80" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="164"/>
-      <c r="C80" s="164"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="123"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="111"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="158" t="s">
+      <c r="B81" s="127"/>
+      <c r="C81" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="125"/>
+      <c r="D81" s="127"/>
       <c r="E81" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="187" t="s">
+      <c r="A82" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="187"/>
-      <c r="C82" s="184" t="s">
+      <c r="B82" s="195"/>
+      <c r="C82" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="185"/>
+      <c r="D82" s="188"/>
       <c r="E82" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="182"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="123"/>
       <c r="E83" s="43">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="172" t="s">
+      <c r="C84" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="164"/>
+      <c r="D84" s="141"/>
       <c r="E84" s="36">
         <f>('July 2024 - September 2024'!E103+E12)-SUM(E82:E83)</f>
-        <v>14342.719999999998</v>
+        <v>14264.619999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="152" t="s">
+      <c r="A86" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="123"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="111"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="152" t="s">
+      <c r="A87" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="123"/>
-      <c r="C87" s="152" t="s">
+      <c r="B87" s="111"/>
+      <c r="C87" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="123"/>
+      <c r="D87" s="111"/>
       <c r="E87" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="153" t="s">
+      <c r="A88" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="150"/>
-      <c r="D88" s="195"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="198"/>
       <c r="E88" s="36">
         <f>E84</f>
-        <v>14342.719999999998</v>
+        <v>14264.619999999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="153" t="s">
+      <c r="A89" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="154"/>
-      <c r="C89" s="178" t="s">
+      <c r="B89" s="166"/>
+      <c r="C89" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D89" s="196"/>
+      <c r="D89" s="199"/>
       <c r="E89" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="118"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="111"/>
       <c r="E90" s="64">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="138" t="s">
+      <c r="C91" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="123"/>
+      <c r="D91" s="111"/>
       <c r="E91" s="36">
         <f>(E18+E88)-SUM(E89:E90)</f>
-        <v>17393.02</v>
+        <v>17314.919999999995</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
@@ -14394,72 +14384,72 @@
       <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="141" t="s">
+      <c r="A94" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="121"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="157"/>
+      <c r="E94" s="137"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="152" t="s">
+      <c r="A95" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="123"/>
-      <c r="C95" s="152" t="s">
+      <c r="B95" s="111"/>
+      <c r="C95" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="123"/>
+      <c r="D95" s="111"/>
       <c r="E95" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="153" t="s">
+      <c r="A96" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="118"/>
-      <c r="C96" s="147"/>
-      <c r="D96" s="123"/>
+      <c r="B96" s="180"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
       <c r="E96" s="36">
         <f>E91</f>
-        <v>17393.02</v>
+        <v>17314.919999999995</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="153" t="s">
+      <c r="A97" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="154"/>
-      <c r="C97" s="178" t="s">
+      <c r="B97" s="166"/>
+      <c r="C97" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="156"/>
+      <c r="D97" s="118"/>
       <c r="E97" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="153" t="s">
+      <c r="A98" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="118"/>
-      <c r="C98" s="147"/>
-      <c r="D98" s="123"/>
+      <c r="B98" s="180"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="111"/>
       <c r="E98" s="64">
         <f>C77</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="138" t="s">
+      <c r="C99" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="123"/>
+      <c r="D99" s="111"/>
       <c r="E99" s="51">
         <f>(E24+E96)-SUM(E97:E98)</f>
-        <v>22343.320000000003</v>
+        <v>22265.219999999998</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -18116,6 +18106,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
@@ -18132,41 +18157,6 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -18244,13 +18234,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -18272,7 +18262,7 @@
       </c>
       <c r="C3" s="4">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>22343.320000000003</v>
+        <v>22265.219999999998</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -18304,7 +18294,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(C3:C3)</f>
-        <v>22343.320000000003</v>
+        <v>22265.219999999998</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -18390,13 +18380,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="137"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -18424,10 +18414,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -18439,10 +18429,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -18464,13 +18454,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="137"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -18498,10 +18488,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -18513,10 +18503,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -18541,13 +18531,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="137"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -18575,10 +18565,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -18590,10 +18580,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -18636,11 +18626,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -18655,11 +18645,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -18701,16 +18691,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="135"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
+      <c r="C34" s="153"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -18768,11 +18758,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -18807,11 +18797,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="176"/>
-      <c r="C45" s="177"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -18853,11 +18843,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="176"/>
-      <c r="C50" s="177"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -18881,11 +18871,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="127"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -18909,11 +18899,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="170" t="s">
+      <c r="A56" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="136"/>
-      <c r="C56" s="121"/>
+      <c r="C56" s="137"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -18957,11 +18947,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="169"/>
-      <c r="C61" s="144"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -19028,11 +19018,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="142" t="s">
+      <c r="A68" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="144"/>
+      <c r="B68" s="158"/>
+      <c r="C68" s="134"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -19101,130 +19091,130 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="152" t="s">
+      <c r="A77" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="123"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="111"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="158" t="s">
+      <c r="B78" s="127"/>
+      <c r="C78" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="125"/>
+      <c r="D78" s="127"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="179" t="s">
+      <c r="B79" s="200"/>
+      <c r="C79" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="193"/>
+      <c r="D79" s="189"/>
       <c r="E79" s="72">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
       <c r="E80" s="91">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="198" t="s">
+      <c r="C81" s="202" t="s">
         <v>41</v>
       </c>
       <c r="D81" s="136"/>
       <c r="E81" s="36">
         <f>('October 2024 - December 2024'!E99+E11)-SUM(E79:E80)</f>
-        <v>22988.620000000006</v>
+        <v>22910.52</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="152" t="s">
+      <c r="A83" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="164"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="111"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="152" t="s">
+      <c r="A84" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="152" t="s">
+      <c r="B84" s="111"/>
+      <c r="C84" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="123"/>
+      <c r="D84" s="111"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="153" t="s">
+      <c r="A85" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="150"/>
-      <c r="D85" s="195"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="198"/>
       <c r="E85" s="36">
         <f>E81</f>
-        <v>22988.620000000006</v>
+        <v>22910.52</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="153" t="s">
+      <c r="A86" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="178" t="s">
+      <c r="B86" s="166"/>
+      <c r="C86" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="196"/>
+      <c r="D86" s="199"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="153" t="s">
+      <c r="A87" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="147"/>
-      <c r="D87" s="123"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="111"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="123"/>
+      <c r="D88" s="111"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>23633.920000000009</v>
+        <v>23555.820000000003</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -19242,72 +19232,72 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="137"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="123"/>
-      <c r="C92" s="152" t="s">
+      <c r="B92" s="111"/>
+      <c r="C92" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="123"/>
+      <c r="D92" s="111"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="153" t="s">
+      <c r="A93" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="147"/>
-      <c r="D93" s="123"/>
+      <c r="B93" s="180"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="111"/>
       <c r="E93" s="36">
         <f>E88</f>
-        <v>23633.920000000009</v>
+        <v>23555.820000000003</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="153" t="s">
+      <c r="A94" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="154"/>
-      <c r="C94" s="178" t="s">
+      <c r="B94" s="166"/>
+      <c r="C94" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="156"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="153" t="s">
+      <c r="A95" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="147"/>
-      <c r="D95" s="123"/>
+      <c r="B95" s="180"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="123"/>
+      <c r="D96" s="111"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>24279.220000000012</v>
+        <v>24201.120000000006</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22964,18 +22954,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -22989,29 +22990,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -23089,13 +23079,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -23117,7 +23107,7 @@
       </c>
       <c r="C3" s="4">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>24279.220000000012</v>
+        <v>24201.120000000006</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -23149,7 +23139,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(C3:C3)</f>
-        <v>24279.220000000012</v>
+        <v>24201.120000000006</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -23235,13 +23225,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="137"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -23269,10 +23259,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -23284,10 +23274,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -23309,13 +23299,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="137"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -23343,10 +23333,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -23358,10 +23348,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -23386,13 +23376,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="137"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -23420,10 +23410,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -23435,10 +23425,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -23481,11 +23471,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -23500,11 +23490,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -23546,16 +23536,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="135"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
+      <c r="C34" s="153"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -23613,11 +23603,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -23652,11 +23642,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="176"/>
-      <c r="C45" s="177"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -23698,11 +23688,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="176"/>
-      <c r="C50" s="177"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -23726,11 +23716,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="127"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -23754,11 +23744,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="170" t="s">
+      <c r="A56" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="136"/>
-      <c r="C56" s="121"/>
+      <c r="C56" s="137"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -23802,11 +23792,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="169"/>
-      <c r="C61" s="144"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -23873,11 +23863,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="142" t="s">
+      <c r="A68" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="144"/>
+      <c r="B68" s="158"/>
+      <c r="C68" s="134"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -23946,130 +23936,130 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="152" t="s">
+      <c r="A77" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="123"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="111"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="158" t="s">
+      <c r="B78" s="127"/>
+      <c r="C78" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="125"/>
+      <c r="D78" s="127"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="179" t="s">
+      <c r="B79" s="200"/>
+      <c r="C79" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="193"/>
+      <c r="D79" s="189"/>
       <c r="E79" s="72">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="181"/>
-      <c r="D80" s="182"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="123"/>
       <c r="E80" s="43">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="172" t="s">
+      <c r="C81" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="164"/>
+      <c r="D81" s="141"/>
       <c r="E81" s="36">
         <f>('January 2025 - March 2025'!E96+E11)-SUM(E79:E80)</f>
-        <v>24924.520000000015</v>
+        <v>24846.420000000009</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="152" t="s">
+      <c r="A83" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="164"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="111"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="152" t="s">
+      <c r="A84" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="152" t="s">
+      <c r="B84" s="111"/>
+      <c r="C84" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="123"/>
+      <c r="D84" s="111"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="153" t="s">
+      <c r="A85" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="150"/>
-      <c r="D85" s="195"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="198"/>
       <c r="E85" s="36">
         <f>E81</f>
-        <v>24924.520000000015</v>
+        <v>24846.420000000009</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="153" t="s">
+      <c r="A86" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="178" t="s">
+      <c r="B86" s="166"/>
+      <c r="C86" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="196"/>
+      <c r="D86" s="199"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="153" t="s">
+      <c r="A87" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="147"/>
-      <c r="D87" s="123"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="111"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="123"/>
+      <c r="D88" s="111"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>25569.820000000018</v>
+        <v>25491.720000000012</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -24087,72 +24077,72 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="137"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="123"/>
-      <c r="C92" s="152" t="s">
+      <c r="B92" s="111"/>
+      <c r="C92" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="123"/>
+      <c r="D92" s="111"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="153" t="s">
+      <c r="A93" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="147"/>
-      <c r="D93" s="123"/>
+      <c r="B93" s="180"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="111"/>
       <c r="E93" s="36">
         <f>E88</f>
-        <v>25569.820000000018</v>
+        <v>25491.720000000012</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="153" t="s">
+      <c r="A94" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="154"/>
-      <c r="C94" s="178" t="s">
+      <c r="B94" s="166"/>
+      <c r="C94" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="156"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="153" t="s">
+      <c r="A95" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="147"/>
-      <c r="D95" s="123"/>
+      <c r="B95" s="180"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="123"/>
+      <c r="D96" s="111"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>26215.120000000021</v>
+        <v>26137.020000000015</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27809,18 +27799,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -27834,29 +27835,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27934,13 +27924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27962,7 +27952,7 @@
       </c>
       <c r="C3" s="4">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>26215.120000000021</v>
+        <v>26137.020000000015</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -27994,7 +27984,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(C3:C3)</f>
-        <v>26215.120000000021</v>
+        <v>26137.020000000015</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -28080,13 +28070,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="137"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -28114,10 +28104,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="123"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -28129,10 +28119,10 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="17">
         <v>31350</v>
       </c>
@@ -28154,13 +28144,13 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="137"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -28188,10 +28178,10 @@
       <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="16" t="s">
         <v>4</v>
       </c>
@@ -28203,10 +28193,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="18">
         <v>31350</v>
       </c>
@@ -28231,13 +28221,13 @@
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="137"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -28265,10 +28255,10 @@
       <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="71" t="s">
         <v>4</v>
       </c>
@@ -28280,10 +28270,10 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="65">
         <v>31350</v>
       </c>
@@ -28326,11 +28316,11 @@
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="111"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="19" t="s">
@@ -28345,11 +28335,11 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="111"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -28391,16 +28381,16 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="135"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
+      <c r="C34" s="153"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -28458,11 +28448,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -28497,11 +28487,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="176"/>
-      <c r="C45" s="177"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -28543,11 +28533,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="176"/>
-      <c r="C50" s="177"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -28571,11 +28561,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="127"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="31" t="s">
@@ -28599,11 +28589,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="170" t="s">
+      <c r="A56" s="135" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="136"/>
-      <c r="C56" s="121"/>
+      <c r="C56" s="137"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
@@ -28647,11 +28637,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="169"/>
-      <c r="C61" s="144"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="56" t="s">
@@ -28718,11 +28708,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="142" t="s">
+      <c r="A68" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="144"/>
+      <c r="B68" s="158"/>
+      <c r="C68" s="134"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="41" t="s">
@@ -28790,47 +28780,47 @@
       <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="152" t="s">
+      <c r="A77" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="123"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="111"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="158" t="s">
+      <c r="B78" s="127"/>
+      <c r="C78" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="125"/>
+      <c r="D78" s="127"/>
       <c r="E78" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="187" t="s">
+      <c r="A79" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="187"/>
-      <c r="C79" s="184" t="s">
+      <c r="B79" s="195"/>
+      <c r="C79" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="185"/>
+      <c r="D79" s="188"/>
       <c r="E79" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="187" t="s">
+      <c r="A80" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="187"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
+      <c r="B80" s="195"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
       <c r="E80" s="75">
         <f>C74</f>
         <v>5704.7</v>
@@ -28839,83 +28829,83 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="73"/>
       <c r="B81" s="73"/>
-      <c r="C81" s="198" t="s">
+      <c r="C81" s="202" t="s">
         <v>41</v>
       </c>
       <c r="D81" s="136"/>
       <c r="E81" s="74">
         <f>('April 2025 - June 2025'!E96+E11)-SUM(E79:E80)</f>
-        <v>26860.420000000024</v>
+        <v>26782.320000000018</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="152" t="s">
+      <c r="A83" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="164"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="111"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="152" t="s">
+      <c r="A84" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="152" t="s">
+      <c r="B84" s="111"/>
+      <c r="C84" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="123"/>
+      <c r="D84" s="111"/>
       <c r="E84" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="153" t="s">
+      <c r="A85" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="150"/>
-      <c r="D85" s="195"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="198"/>
       <c r="E85" s="36">
         <f>E81</f>
-        <v>26860.420000000024</v>
+        <v>26782.320000000018</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="153" t="s">
+      <c r="A86" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="178" t="s">
+      <c r="B86" s="166"/>
+      <c r="C86" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="196"/>
+      <c r="D86" s="199"/>
       <c r="E86" s="51">
         <v>25000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="153" t="s">
+      <c r="A87" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="147"/>
-      <c r="D87" s="123"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="111"/>
       <c r="E87" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="138" t="s">
+      <c r="C88" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="123"/>
+      <c r="D88" s="111"/>
       <c r="E88" s="36">
         <f>(E16+E85)-SUM(E86:E87)</f>
-        <v>27505.720000000027</v>
+        <v>27427.620000000021</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28933,72 +28923,72 @@
       <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="137"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="123"/>
-      <c r="C92" s="152" t="s">
+      <c r="B92" s="111"/>
+      <c r="C92" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="123"/>
+      <c r="D92" s="111"/>
       <c r="E92" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="153" t="s">
+      <c r="A93" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="147"/>
-      <c r="D93" s="123"/>
+      <c r="B93" s="180"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="111"/>
       <c r="E93" s="36">
         <f>E88</f>
-        <v>27505.720000000027</v>
+        <v>27427.620000000021</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="153" t="s">
+      <c r="A94" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="154"/>
-      <c r="C94" s="178" t="s">
+      <c r="B94" s="166"/>
+      <c r="C94" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="156"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="51">
         <v>1149.51</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="153" t="s">
+      <c r="A95" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="118"/>
-      <c r="C95" s="147"/>
-      <c r="D95" s="123"/>
+      <c r="B95" s="180"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
       <c r="E95" s="64">
         <f>C74</f>
         <v>5704.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="123"/>
+      <c r="D96" s="111"/>
       <c r="E96" s="51">
         <f>(E21+E93)-SUM(E94:E95)</f>
-        <v>52001.510000000031</v>
+        <v>51923.410000000025</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -32655,29 +32645,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A33:C34"/>
@@ -32691,18 +32670,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Future.xlsx
+++ b/Alan Tang_s Income Expense Future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD984F2-D6E7-411D-BDF7-6DFADA98FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC50E51-5464-4227-B895-B766A27966B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="244">
   <si>
     <t>Assets</t>
   </si>
@@ -498,9 +498,6 @@
     <t>Banruptcy Department / Bank</t>
   </si>
   <si>
-    <t>31st July 2024</t>
-  </si>
-  <si>
     <t>Deduct 5% MPF</t>
   </si>
   <si>
@@ -693,9 +690,6 @@
     <t>4. Half Day No Pay Leave</t>
   </si>
   <si>
-    <t>5. Tp-link router</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current </t>
   </si>
   <si>
@@ -793,6 +787,51 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>3. Additional Expense - Approximately</t>
+  </si>
+  <si>
+    <t>5. Additional Expense - Cigarettes 20 Packets plus one packet</t>
+  </si>
+  <si>
+    <t>7. Tp-link router</t>
+  </si>
+  <si>
+    <t>6. Delonghi Agent</t>
+  </si>
+  <si>
+    <t>15th July 2024</t>
+  </si>
+  <si>
+    <t>Last Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> End Of Service - Last Salary Paid On 15th July 2024</t>
+  </si>
+  <si>
+    <t>8. Prepaid HGC BroadBand</t>
+  </si>
+  <si>
+    <t>9. Prepaid China Mobile</t>
+  </si>
+  <si>
+    <t>10. Paid the Remaining Broadband Fees $187</t>
+  </si>
+  <si>
+    <t>Prepaid HGC BroadBand</t>
+  </si>
+  <si>
+    <t>Prepaid China Mobile</t>
+  </si>
+  <si>
+    <t>1st of July 2024</t>
+  </si>
+  <si>
+    <t>11. Shopping List for 18th July 2024 Approximately</t>
+  </si>
+  <si>
+    <t>12. Additional Expense - Not Recorded</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1536,11 +1575,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1814,9 +1864,6 @@
     <xf numFmtId="167" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1847,82 +1894,82 @@
     <xf numFmtId="167" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,34 +1978,85 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,20 +2065,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2000,106 +2086,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2107,21 +2151,6 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2135,14 +2164,26 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2150,11 +2191,41 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2617,16 +2688,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -2931,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1026"/>
+  <dimension ref="A1:Y1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2952,36 +3013,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="105"/>
+      <c r="H1" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:25" ht="21">
-      <c r="A2" s="176" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="H2" s="97" t="s">
+      <c r="A2" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="H2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="97" t="s">
-        <v>202</v>
+      <c r="I2" s="96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1">
@@ -2992,22 +3053,22 @@
         <v>82</v>
       </c>
       <c r="C3" s="4">
+        <v>9675.82</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="94">
         <v>1382.12</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="95">
-        <v>1382.12</v>
-      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="99">
+      <c r="H3" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="98">
         <v>0</v>
       </c>
       <c r="J3" s="6"/>
@@ -3033,7 +3094,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -3043,11 +3104,11 @@
         <v>30</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="99">
-        <f>E101</f>
+      <c r="H4" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="98">
+        <f>E102</f>
         <v>-466.67999999999984</v>
       </c>
       <c r="J4" s="6"/>
@@ -3073,7 +3134,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="4">
-        <v>12.9</v>
+        <v>20.2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -3083,12 +3144,12 @@
         <v>51</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="99">
-        <f>E113</f>
-        <v>1504.3199999999997</v>
+      <c r="H5" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="98">
+        <f>E121</f>
+        <v>7348.619999999999</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3123,12 +3184,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="99">
-        <f>'July 2024 - September 2024'!E86</f>
-        <v>5143.32</v>
+      <c r="H6" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="98">
+        <f>'July 2024 - September 2024'!E89</f>
+        <v>2976.119999999999</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -3150,25 +3211,25 @@
     <row r="7" spans="1:25" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="55">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="55">
         <v>2.2000000000000002</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="99">
-        <f>'July 2024 - September 2024'!E94</f>
-        <v>8022.32</v>
+      <c r="H7" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="98">
+        <f>'July 2024 - September 2024'!E97</f>
+        <v>2692.119999999999</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -3190,25 +3251,25 @@
     <row r="8" spans="1:25" ht="30" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="99">
-        <f>'July 2024 - September 2024'!E103</f>
-        <v>11214.32</v>
+      <c r="H8" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="98">
+        <f>'July 2024 - September 2024'!E106</f>
+        <v>2534.119999999999</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -3230,25 +3291,25 @@
     <row r="9" spans="1:25" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="4">
         <v>82</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" s="99">
+      <c r="H9" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="98">
         <f>'October 2024 - December 2024'!E84</f>
-        <v>14264.619999999999</v>
+        <v>1634.4199999999992</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -3273,7 +3334,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="55">
-        <v>25.1</v>
+        <v>35.6</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="34" t="s">
@@ -3283,12 +3344,12 @@
         <v>35.1</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="99">
+      <c r="H10" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="98">
         <f>'October 2024 - December 2024'!E91</f>
-        <v>17314.919999999995</v>
+        <v>734.71999999999935</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -3314,7 +3375,7 @@
       </c>
       <c r="C11" s="55">
         <f>SUM(C3:C10)</f>
-        <v>1504.32</v>
+        <v>9753.6200000000008</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="62" t="s">
@@ -3325,12 +3386,12 @@
         <v>1582.4199999999998</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="99">
+      <c r="H11" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="98">
         <f>'October 2024 - December 2024'!E99</f>
-        <v>22265.219999999998</v>
+        <v>-164.98000000000047</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3354,20 +3415,20 @@
       <c r="B12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="102">
-        <f>-C82</f>
+      <c r="C12" s="173">
+        <f>-C83</f>
         <v>-344088.51</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="99">
+      <c r="H12" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="98">
         <f>'January 2025 - March 2025'!E81</f>
-        <v>22910.52</v>
+        <v>-3469.6800000000003</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -3394,12 +3455,12 @@
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="99">
+      <c r="H13" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="98">
         <f>'January 2025 - March 2025'!E88</f>
-        <v>23555.820000000003</v>
+        <v>-6774.38</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -3419,29 +3480,29 @@
       <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1">
-      <c r="H14" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="99">
+      <c r="H14" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="98">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>24201.120000000006</v>
+        <v>-10079.08</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="137"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="99">
+      <c r="H15" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="98">
         <f>'April 2025 - June 2025'!E81</f>
-        <v>24846.420000000009</v>
+        <v>-13383.779999999999</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -3467,19 +3528,19 @@
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="I16" s="99">
+      <c r="H16" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="98">
         <f>'April 2025 - June 2025'!E88</f>
-        <v>25491.720000000012</v>
+        <v>-16688.48</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="30" customHeight="1">
@@ -3489,19 +3550,19 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="180"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="17">
         <v>2405</v>
       </c>
-      <c r="H17" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="I17" s="99">
+      <c r="H17" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="98">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>26137.020000000015</v>
+        <v>-19993.18</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1">
@@ -3515,40 +3576,40 @@
         <f>SUM(E17:E17)</f>
         <v>2405</v>
       </c>
-      <c r="H18" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="99">
+      <c r="H18" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="98">
         <f>'July 2025 - September 2025'!E81</f>
-        <v>26782.320000000018</v>
+        <v>-23297.88</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="H19" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="99">
+      <c r="H19" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="98">
         <f>'July 2025 - September 2025'!E88</f>
-        <v>27427.620000000021</v>
+        <v>-26602.58</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="30" customHeight="1">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="137"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" s="99">
+      <c r="H20" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="98">
         <f>'July 2025 - September 2025'!E96</f>
-        <v>51923.410000000025</v>
+        <v>-29907.280000000002</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -3574,10 +3635,10 @@
       <c r="B21" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="183" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="127"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="71" t="s">
         <v>4</v>
       </c>
@@ -3589,17 +3650,17 @@
       <c r="B22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="185"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="65">
         <v>2405</v>
       </c>
-      <c r="H22" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="I22" s="168"/>
+      <c r="H22" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3608,18 +3669,18 @@
       <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="129"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="65">
         <v>1035</v>
       </c>
-      <c r="H23" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="I23" s="97" t="s">
-        <v>223</v>
+      <c r="H23" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1">
@@ -3633,11 +3694,11 @@
         <f>SUM(E22:E23)</f>
         <v>3440</v>
       </c>
-      <c r="H24" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="101">
-        <f>-C82</f>
+      <c r="H24" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" s="100">
+        <f>-C83</f>
         <v>-344088.51</v>
       </c>
     </row>
@@ -3647,29 +3708,29 @@
       <c r="C25" s="1"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
-      <c r="H25" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="I25" s="101">
-        <f>(-C82+SUM(E95,E107))</f>
+      <c r="H25" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="100">
+        <f>(-C83+SUM(E96,E108))</f>
         <v>-339088.51</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="30" customHeight="1">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="137"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="I26" s="101">
+      <c r="H26" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="100">
         <f>('July 2024 - September 2024'!C5)</f>
-        <v>-276149.51</v>
+        <v>-334588.51</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -3695,19 +3756,19 @@
       <c r="B27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="111"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="101">
+      <c r="H27" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="100">
         <f>('October 2024 - December 2024'!C5)</f>
-        <v>-201149.51</v>
+        <v>-334588.51</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="30" customHeight="1">
@@ -3717,63 +3778,63 @@
       <c r="B28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="186" t="s">
+      <c r="C28" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="126"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="84">
         <v>2405</v>
       </c>
-      <c r="H28" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="101">
+      <c r="H28" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="100">
         <f>('January 2025 - March 2025'!C5)</f>
-        <v>-126149.51000000001</v>
+        <v>-334588.51</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="30" customHeight="1">
       <c r="A29" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="C29" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="129"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="65">
         <v>150</v>
       </c>
-      <c r="H29" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="I29" s="101">
+      <c r="H29" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="100">
         <f>('April 2025 - June 2025'!C5)</f>
-        <v>-51149.510000000009</v>
+        <v>-334588.51</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="30" customHeight="1">
       <c r="A30" s="85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="131"/>
+      <c r="C30" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="169"/>
       <c r="E30" s="86">
         <v>7700</v>
       </c>
-      <c r="H30" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" s="101">
+      <c r="H30" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="100">
         <f>('July 2025 - September 2025'!C5)</f>
-        <v>0</v>
+        <v>-334588.51</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="30" customHeight="1">
@@ -3783,10 +3844,10 @@
       <c r="B31" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="142"/>
+      <c r="D31" s="172"/>
       <c r="E31" s="86">
         <v>50</v>
       </c>
@@ -3794,25 +3855,35 @@
       <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:25" ht="30" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="47">
-        <f>SUM(E28:E31)</f>
-        <v>10305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13.15" customHeight="1">
+      <c r="A32" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="168" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="169"/>
+      <c r="E32" s="86">
+        <v>9350</v>
+      </c>
+      <c r="H32" s="203"/>
+      <c r="I32" s="204"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D33" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="47">
+        <f>SUM(E28:E32)</f>
+        <v>19655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.15" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
@@ -3822,105 +3893,103 @@
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A37" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="111"/>
-    </row>
-    <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="122"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A38" s="114" t="s">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A39" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="111"/>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A39" s="24" t="s">
+      <c r="B39" s="157"/>
+      <c r="C39" s="122"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A40" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="18">
+      <c r="B40" s="2"/>
+      <c r="C40" s="18">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A40" s="29" t="s">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A41" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A41" s="25" t="s">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B42" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C42" s="26">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24" t="s">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="28">
-        <f>SUM(C39:C41)</f>
+      <c r="C43" s="28">
+        <f>SUM(C40:C42)</f>
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A43" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="151"/>
-    </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="152"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="153"/>
+      <c r="A44" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="162"/>
+      <c r="C44" s="163"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="17">
-        <v>0</v>
-      </c>
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="9">
+      <c r="C46" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9">
@@ -3929,7 +3998,7 @@
     </row>
     <row r="48" spans="1:5" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="9">
@@ -3937,85 +4006,85 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="9">
-        <f>SUM(C45:C48)</f>
+      <c r="C50" s="9">
+        <f>SUM(C46:C49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="114" t="s">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="111"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0</v>
-      </c>
+      <c r="B51" s="157"/>
+      <c r="C51" s="122"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="18">
-        <f>SUM(C51:C52)</f>
+      <c r="C54" s="18">
+        <f>SUM(C52:C53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="114" t="s">
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-    </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="178"/>
+      <c r="C55" s="179"/>
+    </row>
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="30">
+      <c r="C56" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="25" t="s">
-        <v>83</v>
+      <c r="B57" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="C57" s="30">
         <v>0</v>
@@ -4023,590 +4092,644 @@
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="25"/>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="30">
-        <f>SUM(C55:C57)</f>
+      <c r="C59" s="30">
+        <f>SUM(C56:C58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="114" t="s">
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
-    </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="178"/>
+      <c r="C60" s="179"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="29" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="30">
-        <f>SUM(C60)</f>
+      <c r="C62" s="30">
+        <f>SUM(C61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="125" t="s">
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="126"/>
-      <c r="C62" s="127"/>
-    </row>
-    <row r="63" spans="1:3" ht="33" customHeight="1">
-      <c r="A63" s="31" t="s">
+      <c r="B63" s="130"/>
+      <c r="C63" s="124"/>
+    </row>
+    <row r="64" spans="1:3" ht="33" customHeight="1">
+      <c r="A64" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B64" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C64" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32" t="s">
+    <row r="65" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A65" s="31"/>
+      <c r="B65" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="33">
-        <f>SUM(C63)</f>
+      <c r="C65" s="33">
+        <f>SUM(C64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A65" s="135" t="s">
+    <row r="66" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A66" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="136"/>
-      <c r="C65" s="137"/>
-    </row>
-    <row r="66" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A66" s="25" t="s">
+      <c r="B66" s="165"/>
+      <c r="C66" s="120"/>
+    </row>
+    <row r="67" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="A67" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>67</v>
-      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A68" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>26</v>
+    <row r="68" spans="1:3" ht="15" customHeight="1">
+      <c r="A68" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A70" s="31"/>
+      <c r="B70" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="33">
-        <f>SUM(C66:C68)</f>
+      <c r="C70" s="33">
+        <f>SUM(C67:C69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A70" s="132" t="s">
+    <row r="71" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A71" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="133"/>
-      <c r="C70" s="134"/>
-    </row>
-    <row r="71" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A71" s="56" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="137"/>
+    </row>
+    <row r="72" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A72" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B72" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C72" s="58">
         <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A72" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="59">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.5" customHeight="1">
       <c r="A73" s="57" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C73" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A75" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="60" t="s">
+      <c r="B75" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C75" s="30">
         <v>760</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A75" s="27"/>
-      <c r="B75" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="38">
-        <f>SUM(C71:C74)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.5" customHeight="1">
       <c r="A76" s="27"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="38">
+        <f>SUM(C72:C75)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A77" s="27"/>
+      <c r="B77" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="38">
-        <f>C42+C49+C53+C58+C61+C64+C69+C75</f>
+      <c r="C77" s="38">
+        <f>C43+C50+C54+C59+C62+C65+C70+C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A77" s="132" t="s">
+    <row r="78" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A78" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="158"/>
-      <c r="C77" s="134"/>
-    </row>
-    <row r="78" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A78" s="41" t="s">
+      <c r="B78" s="136"/>
+      <c r="C78" s="137"/>
+    </row>
+    <row r="79" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A79" s="41" t="s">
         <v>47</v>
-      </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="48">
-        <v>12939</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A79" s="68" t="s">
-        <v>84</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="48">
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A80" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="48">
         <v>5000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60">
-      <c r="A80" s="63" t="s">
+    <row r="81" spans="1:8" ht="60">
+      <c r="A81" s="63" t="s">
         <v>74</v>
-      </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45">
-      <c r="A81" s="78" t="s">
-        <v>131</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45">
+      <c r="A82" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="48">
         <v>326149.51</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A82" s="27"/>
-      <c r="B82" s="54" t="s">
+    <row r="83" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A83" s="27"/>
+      <c r="B83" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="48">
-        <f>SUM(C78:C81)</f>
+      <c r="C83" s="48">
+        <f>SUM(C79:C82)</f>
         <v>344088.51</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A83" s="31"/>
-      <c r="B83" s="39" t="s">
+    <row r="84" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A84" s="31"/>
+      <c r="B84" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="40">
-        <f>C76</f>
+      <c r="C84" s="40">
+        <f>C77</f>
         <v>1503</v>
       </c>
-      <c r="H83" s="35"/>
-    </row>
-    <row r="84" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A86" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="139"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A87" s="145" t="s">
+      <c r="A87" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="155"/>
+      <c r="C87" s="155"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="149"/>
+    </row>
+    <row r="88" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A88" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="145" t="s">
+      <c r="B88" s="151"/>
+      <c r="C88" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="42" t="s">
+      <c r="D88" s="151"/>
+      <c r="E88" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A88" s="143" t="s">
+    <row r="89" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A89" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="144"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="43">
-        <f>C83</f>
+      <c r="B89" s="108"/>
+      <c r="C89" s="183"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="43">
+        <f>C84</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C89" s="147" t="s">
+    <row r="90" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C90" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="148"/>
-      <c r="E89" s="36">
+      <c r="D90" s="160"/>
+      <c r="E90" s="36">
         <f>I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.5" customHeight="1"/>
-    <row r="91" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A91" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="141"/>
-      <c r="C91" s="141"/>
-      <c r="D91" s="141"/>
-      <c r="E91" s="111"/>
-    </row>
+    <row r="91" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A92" s="121" t="s">
+      <c r="A92" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="157"/>
+      <c r="C92" s="157"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="122"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A93" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="139"/>
-      <c r="C92" s="121" t="s">
+      <c r="B93" s="149"/>
+      <c r="C93" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="111"/>
-      <c r="E92" s="22" t="s">
+      <c r="D93" s="122"/>
+      <c r="E93" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A93" s="165" t="s">
+    <row r="94" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A94" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="166"/>
-      <c r="C93" s="110"/>
-      <c r="D93" s="161"/>
-      <c r="E93" s="36">
-        <f>E89</f>
+      <c r="B94" s="146"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="141"/>
+      <c r="E94" s="36">
+        <f>E90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A94" s="173" t="s">
+    <row r="95" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A95" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="173"/>
-      <c r="C94" s="117" t="s">
+      <c r="B95" s="109"/>
+      <c r="C95" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="118"/>
-      <c r="E94" s="51">
+      <c r="D95" s="148"/>
+      <c r="E95" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A95" s="174"/>
-      <c r="B95" s="174"/>
-      <c r="C95" s="119" t="s">
+    <row r="96" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A96" s="110"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="182"/>
+      <c r="E96" s="72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="110"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="120"/>
-      <c r="E95" s="72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A96" s="174"/>
-      <c r="B96" s="174"/>
-      <c r="C96" s="106" t="s">
+      <c r="D97" s="154"/>
+      <c r="E97" s="51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="110"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="107"/>
-      <c r="E96" s="51">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="174"/>
-      <c r="B97" s="174"/>
-      <c r="C97" s="106" t="s">
+      <c r="D98" s="154"/>
+      <c r="E98" s="51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="107"/>
-      <c r="E97" s="51">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="174"/>
-      <c r="B98" s="174"/>
-      <c r="C98" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D98" s="92"/>
-      <c r="E98" s="51">
+      <c r="D99" s="91"/>
+      <c r="E99" s="51">
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="175"/>
-      <c r="B99" s="175"/>
-      <c r="C99" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="107"/>
-      <c r="E99" s="51">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A100" s="111"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="153" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="154"/>
+      <c r="E100" s="51">
         <v>775.68</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="159" t="s">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="160"/>
-      <c r="C100" s="112" t="s">
+      <c r="B101" s="139"/>
+      <c r="C101" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="113"/>
-      <c r="E100" s="64">
-        <f>C83</f>
+      <c r="D101" s="177"/>
+      <c r="E101" s="64">
+        <f>C84</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="124" t="s">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C102" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="111"/>
-      <c r="E101" s="36">
-        <f>SUM(E24,E93)-SUM(E94:E100)</f>
+      <c r="D102" s="122"/>
+      <c r="E102" s="36">
+        <f>SUM(E24,E94)-SUM(E95:E101)</f>
         <v>-466.67999999999984</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.25" customHeight="1">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
     </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A104" s="156" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="157"/>
-      <c r="C104" s="157"/>
-      <c r="D104" s="157"/>
-      <c r="E104" s="137"/>
+    <row r="104" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A105" s="121" t="s">
+      <c r="A105" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="119"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="120"/>
+    </row>
+    <row r="106" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A106" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="111"/>
-      <c r="C105" s="121" t="s">
+      <c r="B106" s="122"/>
+      <c r="C106" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="111"/>
-      <c r="E105" s="22" t="s">
+      <c r="D106" s="122"/>
+      <c r="E106" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A106" s="154" t="s">
+    <row r="107" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A107" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="155"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="36">
-        <f>E101</f>
+      <c r="B107" s="133"/>
+      <c r="C107" s="140"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="36">
+        <f>E102</f>
         <v>-466.67999999999984</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A107" s="169" t="s">
+    <row r="108" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A108" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="170"/>
-      <c r="C107" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="D107" s="118"/>
-      <c r="E107" s="51">
+      <c r="B108" s="104"/>
+      <c r="C108" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" s="148"/>
+      <c r="E108" s="51">
         <v>4000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A108" s="171"/>
-      <c r="B108" s="172"/>
-      <c r="C108" s="108" t="s">
+    <row r="109" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A109" s="105"/>
+      <c r="B109" s="106"/>
+      <c r="C109" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="D109" s="152"/>
+      <c r="E109" s="51">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A110" s="105"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="D108" s="109"/>
-      <c r="E108" s="51">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A109" s="171"/>
-      <c r="B109" s="172"/>
-      <c r="C109" s="108" t="s">
+      <c r="D110" s="152"/>
+      <c r="E110" s="51">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A111" s="105"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="109"/>
-      <c r="E109" s="51">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A110" s="171"/>
-      <c r="B110" s="172"/>
-      <c r="C110" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="D110" s="109"/>
-      <c r="E110" s="51">
+      <c r="D111" s="152"/>
+      <c r="E111" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A111" s="143"/>
-      <c r="B111" s="144"/>
-      <c r="C111" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="109"/>
-      <c r="E111" s="51">
+    <row r="112" spans="1:5" ht="30" customHeight="1">
+      <c r="A112" s="105"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="208" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="202"/>
+      <c r="E112" s="51">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1">
+      <c r="A113" s="105"/>
+      <c r="B113" s="106"/>
+      <c r="C113" s="208" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="202"/>
+      <c r="E113" s="51">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A114" s="105"/>
+      <c r="B114" s="106"/>
+      <c r="C114" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" s="205"/>
+      <c r="E114" s="51">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A112" s="159" t="s">
+    <row r="115" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A115" s="105"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="187" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="154"/>
+      <c r="E115" s="51">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A116" s="105"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="187" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="154"/>
+      <c r="E116" s="51">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A117" s="105"/>
+      <c r="B117" s="106"/>
+      <c r="C117" s="187" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="154"/>
+      <c r="E117" s="51">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A118" s="105"/>
+      <c r="B118" s="106"/>
+      <c r="C118" s="154" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="185"/>
+      <c r="E118" s="51">
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A119" s="107"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="153" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="154"/>
+      <c r="E119" s="51">
+        <v>966.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A120" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B112" s="162"/>
-      <c r="C112" s="163"/>
-      <c r="D112" s="164"/>
-      <c r="E112" s="51">
-        <f>C83</f>
+      <c r="B120" s="142"/>
+      <c r="C120" s="176"/>
+      <c r="D120" s="177"/>
+      <c r="E120" s="209">
+        <f>C84</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C113" s="124" t="s">
+    <row r="121" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C121" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="111"/>
-      <c r="E113" s="51">
-        <f>(E32+E106)-SUM(E107:E112)</f>
-        <v>1504.3199999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-    </row>
-    <row r="115" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-    </row>
-    <row r="116" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-    </row>
-    <row r="117" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-    </row>
-    <row r="118" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-    </row>
-    <row r="119" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-    </row>
-    <row r="121" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="51">
+        <f>(E33+E107)-SUM(E108:E120)</f>
+        <v>7348.619999999999</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="13.5" customHeight="1">
       <c r="A122" s="10"/>
@@ -8228,11 +8351,98 @@
       <c r="A1026" s="10"/>
       <c r="B1026" s="10"/>
     </row>
+    <row r="1027" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1027" s="10"/>
+      <c r="B1027" s="10"/>
+    </row>
+    <row r="1028" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1028" s="10"/>
+      <c r="B1028" s="10"/>
+    </row>
+    <row r="1029" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1029" s="10"/>
+      <c r="B1029" s="10"/>
+    </row>
+    <row r="1030" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1030" s="10"/>
+      <c r="B1030" s="10"/>
+    </row>
+    <row r="1031" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1031" s="10"/>
+      <c r="B1031" s="10"/>
+    </row>
+    <row r="1032" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1032" s="10"/>
+      <c r="B1032" s="10"/>
+    </row>
+    <row r="1033" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1033" s="10"/>
+      <c r="B1033" s="10"/>
+    </row>
+    <row r="1034" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1034" s="10"/>
+      <c r="B1034" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="71">
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A108:B119"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A87:E87"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A107:B111"/>
-    <mergeCell ref="A94:B99"/>
+    <mergeCell ref="A95:B100"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
@@ -8246,128 +8456,73 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A43:C44"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="73" priority="40" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="73" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="71" priority="36" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="69" priority="38" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="69" priority="34" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="67" priority="34" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="65" priority="32" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="cellIs" dxfId="64" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I20">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="I3:I20 I24:I30 I32">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I30">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8378,10 +8533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1016"/>
+  <dimension ref="A1:Y1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -8398,13 +8553,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8413,20 +8568,20 @@
     <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:25" ht="60">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4">
-        <f>'April 2024 - June 2024'!E113</f>
-        <v>1504.3199999999997</v>
+        <f>'April 2024 - June 2024'!E121</f>
+        <v>7348.619999999999</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -8458,7 +8613,7 @@
       </c>
       <c r="C4" s="55">
         <f>SUM(C3:C3)</f>
-        <v>1504.3199999999997</v>
+        <v>7348.619999999999</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8489,8 +8644,8 @@
         <v>129</v>
       </c>
       <c r="C5" s="55">
-        <f>('April 2024 - June 2024'!I25)+SUM(E83,E92,E101)</f>
-        <v>-276149.51</v>
+        <f>('April 2024 - June 2024'!I25)+SUM(E85,E95,E104)</f>
+        <v>-334588.51</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -8544,13 +8699,13 @@
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="181" t="s">
+      <c r="A8" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="137"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -8578,10 +8733,10 @@
       <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="127"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="71" t="s">
         <v>4</v>
       </c>
@@ -8593,246 +8748,256 @@
       <c r="B10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="33">
+      <c r="D10" s="206"/>
+      <c r="E10" s="207">
         <v>2405</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>133</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C11" s="192"/>
       <c r="D11" s="193"/>
       <c r="E11" s="33">
-        <v>31350</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="A12" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>240</v>
+      </c>
+